--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spong\OneDrive\바탕 화면\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6B2A16F-B0B1-433F-B724-D3D80D00413B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B84E5C-B973-4FA3-B2DE-487569DB920E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" activeTab="1" xr2:uid="{F0F8F93C-B6B0-4457-BB51-82850C0E12AA}"/>
+    <workbookView xWindow="10660" yWindow="0" windowWidth="13240" windowHeight="11170" activeTab="1" xr2:uid="{F0F8F93C-B6B0-4457-BB51-82850C0E12AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="122">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3D3F0-4B90-4438-9FA2-97396182C020}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3:E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1084,6 +1084,9 @@
       <c r="D4">
         <v>0.1</v>
       </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
       <c r="F4" t="s">
         <v>21</v>
       </c>
@@ -1107,6 +1110,9 @@
       <c r="D5">
         <v>0.1</v>
       </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
       <c r="F5" t="s">
         <v>21</v>
       </c>
@@ -1130,6 +1136,9 @@
       <c r="D6">
         <v>0.1</v>
       </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
@@ -1153,6 +1162,9 @@
       <c r="D7">
         <v>0.1</v>
       </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
@@ -1176,6 +1188,9 @@
       <c r="D8">
         <v>0.1</v>
       </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
@@ -1199,6 +1214,9 @@
       <c r="D9">
         <v>0.1</v>
       </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
       <c r="F9" t="s">
         <v>21</v>
       </c>
@@ -1222,6 +1240,9 @@
       <c r="D10">
         <v>0.1</v>
       </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
       <c r="F10" t="s">
         <v>79</v>
       </c>
@@ -1245,6 +1266,9 @@
       <c r="D11">
         <v>0.1</v>
       </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
       <c r="F11" t="s">
         <v>79</v>
       </c>
@@ -1268,6 +1292,9 @@
       <c r="D12">
         <v>0.1</v>
       </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
       <c r="F12" t="s">
         <v>79</v>
       </c>
@@ -1291,6 +1318,9 @@
       <c r="D13">
         <v>0.1</v>
       </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
       <c r="F13" t="s">
         <v>79</v>
       </c>
@@ -1314,6 +1344,9 @@
       <c r="D14">
         <v>0.1</v>
       </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
       <c r="F14" t="s">
         <v>79</v>
       </c>
@@ -1337,6 +1370,9 @@
       <c r="D15">
         <v>0.1</v>
       </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
       <c r="F15" t="s">
         <v>79</v>
       </c>
@@ -1360,6 +1396,9 @@
       <c r="D16">
         <v>0.1</v>
       </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
       <c r="F16" t="s">
         <v>79</v>
       </c>
@@ -1383,6 +1422,9 @@
       <c r="D17">
         <v>0.1</v>
       </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
       <c r="F17" t="s">
         <v>79</v>
       </c>
@@ -1406,6 +1448,9 @@
       <c r="D18">
         <v>0.1</v>
       </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
       <c r="F18" t="s">
         <v>79</v>
       </c>
@@ -1429,6 +1474,9 @@
       <c r="D19">
         <v>0.1</v>
       </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
       <c r="F19" t="s">
         <v>80</v>
       </c>
@@ -1452,6 +1500,9 @@
       <c r="D20">
         <v>1.1000000000000001</v>
       </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
       <c r="F20" t="s">
         <v>80</v>
       </c>
@@ -1475,6 +1526,9 @@
       <c r="D21">
         <v>2.1</v>
       </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
       <c r="F21" t="s">
         <v>80</v>
       </c>
@@ -1498,6 +1552,9 @@
       <c r="D22">
         <v>3.1</v>
       </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
       <c r="F22" t="s">
         <v>80</v>
       </c>
@@ -1521,6 +1578,9 @@
       <c r="D23">
         <v>4.0999999999999996</v>
       </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
       <c r="F23" t="s">
         <v>80</v>
       </c>
@@ -1544,6 +1604,9 @@
       <c r="D24">
         <v>0.5</v>
       </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
       <c r="F24" t="s">
         <v>80</v>
       </c>
@@ -1567,6 +1630,9 @@
       <c r="D25">
         <v>1.5</v>
       </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
       <c r="F25" t="s">
         <v>80</v>
       </c>
@@ -1590,6 +1656,9 @@
       <c r="D26">
         <v>2.5</v>
       </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
       <c r="F26" t="s">
         <v>80</v>
       </c>
@@ -1613,6 +1682,9 @@
       <c r="D27">
         <v>3.5</v>
       </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
       <c r="F27" t="s">
         <v>80</v>
       </c>
@@ -1636,6 +1708,9 @@
       <c r="D28">
         <v>4.5</v>
       </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
       <c r="F28" t="s">
         <v>80</v>
       </c>
@@ -1659,6 +1734,9 @@
       <c r="D29">
         <v>0.6</v>
       </c>
+      <c r="E29" t="s">
+        <v>20</v>
+      </c>
       <c r="F29" t="s">
         <v>81</v>
       </c>
@@ -1682,6 +1760,9 @@
       <c r="D30">
         <v>1.6</v>
       </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
       <c r="F30" t="s">
         <v>81</v>
       </c>
@@ -1705,6 +1786,9 @@
       <c r="D31">
         <v>2.6</v>
       </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
       <c r="F31" t="s">
         <v>81</v>
       </c>
@@ -1728,6 +1812,9 @@
       <c r="D32">
         <v>3.6</v>
       </c>
+      <c r="E32" t="s">
+        <v>20</v>
+      </c>
       <c r="F32" t="s">
         <v>81</v>
       </c>
@@ -1751,6 +1838,9 @@
       <c r="D33">
         <v>4.5999999999999996</v>
       </c>
+      <c r="E33" t="s">
+        <v>20</v>
+      </c>
       <c r="F33" t="s">
         <v>81</v>
       </c>
@@ -1774,6 +1864,9 @@
       <c r="D34">
         <v>0.7</v>
       </c>
+      <c r="E34" t="s">
+        <v>20</v>
+      </c>
       <c r="F34" t="s">
         <v>81</v>
       </c>
@@ -1797,6 +1890,9 @@
       <c r="D35">
         <v>1.7</v>
       </c>
+      <c r="E35" t="s">
+        <v>20</v>
+      </c>
       <c r="F35" t="s">
         <v>81</v>
       </c>
@@ -1820,6 +1916,9 @@
       <c r="D36">
         <v>2.7</v>
       </c>
+      <c r="E36" t="s">
+        <v>20</v>
+      </c>
       <c r="F36" t="s">
         <v>82</v>
       </c>
@@ -1843,6 +1942,9 @@
       <c r="D37">
         <v>3.7</v>
       </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
       <c r="F37" t="s">
         <v>82</v>
       </c>
@@ -1866,6 +1968,9 @@
       <c r="D38">
         <v>4.7</v>
       </c>
+      <c r="E38" t="s">
+        <v>20</v>
+      </c>
       <c r="F38" t="s">
         <v>82</v>
       </c>
@@ -1889,6 +1994,9 @@
       <c r="D39">
         <v>0.2</v>
       </c>
+      <c r="E39" t="s">
+        <v>20</v>
+      </c>
       <c r="F39" t="s">
         <v>82</v>
       </c>
@@ -1912,6 +2020,9 @@
       <c r="D40">
         <v>1.2</v>
       </c>
+      <c r="E40" t="s">
+        <v>20</v>
+      </c>
       <c r="F40" t="s">
         <v>82</v>
       </c>
@@ -1934,6 +2045,9 @@
       </c>
       <c r="D41">
         <v>2.2000000000000002</v>
+      </c>
+      <c r="E41" t="s">
+        <v>20</v>
       </c>
       <c r="F41" t="s">
         <v>82</v>

--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangg\IdeaProjects\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDECB007-F764-4BE0-9650-11094AF1992D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF80EEE-80A3-474F-88F9-D673FAF1F32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="247">
   <si>
     <t>스시마리오</t>
   </si>
@@ -65,9 +65,6 @@
     <t>대구</t>
   </si>
   <si>
-    <t>신참떡볶이</t>
-  </si>
-  <si>
     <t>메밀꽃</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>아빠짬뽕</t>
   </si>
   <si>
-    <t>안가봄. 여기 뭐임?</t>
-  </si>
-  <si>
     <t>춘천애닭갈비</t>
   </si>
   <si>
@@ -197,548 +191,680 @@
     <t>010-2222</t>
   </si>
   <si>
+    <t>010-2225</t>
+  </si>
+  <si>
+    <t>착한 돈삼이네</t>
+  </si>
+  <si>
+    <t>010-2246</t>
+  </si>
+  <si>
+    <t>010-2239</t>
+  </si>
+  <si>
+    <t>010-2244</t>
+  </si>
+  <si>
+    <t>010-2252</t>
+  </si>
+  <si>
+    <t>010-2249</t>
+  </si>
+  <si>
+    <t>010-2250</t>
+  </si>
+  <si>
+    <t>고기,닭</t>
+  </si>
+  <si>
+    <t>역곡</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>010-2234</t>
+  </si>
+  <si>
+    <t>010-2242</t>
+  </si>
+  <si>
+    <t>010-2247</t>
+  </si>
+  <si>
+    <t>낭만</t>
+  </si>
+  <si>
+    <t>안먹어봄</t>
+  </si>
+  <si>
+    <t>010-2232</t>
+  </si>
+  <si>
+    <t>010-2235</t>
+  </si>
+  <si>
+    <t>안주</t>
+  </si>
+  <si>
+    <t>하남 돼지집</t>
+  </si>
+  <si>
+    <t>일식</t>
+  </si>
+  <si>
+    <t>010-2248</t>
+  </si>
+  <si>
+    <t>010-2233</t>
+  </si>
+  <si>
+    <t>북경</t>
+  </si>
+  <si>
+    <t>오르다</t>
+  </si>
+  <si>
+    <t>지지고</t>
+  </si>
+  <si>
+    <t>맛있음. 밥도 더 먹을 수 있음.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>안가봄</t>
+  </si>
+  <si>
+    <t>디저트</t>
+  </si>
+  <si>
+    <t>장군집 고기고기</t>
+  </si>
+  <si>
+    <t>밀다</t>
+  </si>
+  <si>
+    <t>김가네</t>
+  </si>
+  <si>
+    <t>크라이치즈버거</t>
+  </si>
+  <si>
+    <t>용용선생</t>
+  </si>
+  <si>
+    <t>010-2229</t>
+  </si>
+  <si>
+    <t>매화스시</t>
+  </si>
+  <si>
+    <t>삼일포차</t>
+  </si>
+  <si>
+    <t>무난한 고깃집.</t>
+  </si>
+  <si>
+    <t>나의 유부</t>
+  </si>
+  <si>
+    <t>녘곸</t>
+  </si>
+  <si>
+    <t>무난한 프랜차이즈 맛임.</t>
+  </si>
+  <si>
+    <t>안가봄.</t>
+  </si>
+  <si>
+    <t>신동랩</t>
+  </si>
+  <si>
+    <t>호불호가 조금 갈리는듯? 필자는 맛있었음.</t>
+  </si>
+  <si>
+    <t>010-1111</t>
+  </si>
+  <si>
+    <t>메가커피</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>부천</t>
+  </si>
+  <si>
+    <t>울엄마 손칼국시</t>
+  </si>
+  <si>
+    <t>010-2257</t>
+  </si>
+  <si>
+    <t>중식</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>travelTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격과 비슷한 퀄리티의 맛.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범하게 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처 제육중 불향 가장 강함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 닭갈비 맛.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 맛있음. 얼큰 닭칼국수 좀 매움</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG강렬해서 맛이 없진 않음. 라면과 함께 먹어도 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 바로 앞이라 접근성 좋음.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>900, 1500 커피는 정말 가성비 넘사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 프랜차이즈 맛임.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격과 비슷한 퀄리티의 맛. 북경세트(짜장면, 볶음밥, 탕수육)양이 뭔가 애매함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍경(남,북) 짬뽕보다 퀄리티가 훨씬 높음. 그대신 비쌈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있음. 수제버거라 크기가 작음. 치즈를 좋아한다면 치즈감튀도 추천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각피자 위에 노른자가 올라감. 그래서 맛은 담백한 편. tv에 나왔다고 기대는 하지 말고가길...</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한상차림이 정말 한상 가득히 나온다. 그외 안주도 맛있는편. 막걸리는 금방 취하니 조심하자.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙수가 진짜 맛있음. 안주를 세개 시키면 하나가 공짜?!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운치킨 특성상 조리가 오래걸림. 무난한 프랜차이즈 맛임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>송탄부대찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지혜 모던순대국밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선 부뚜막</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60계 치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파리바게트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨플러스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이디야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명가 순대국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도미노피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한솥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이석민피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토천 칼국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>히잇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2261</t>
+  </si>
+  <si>
+    <t>010-2262</t>
+  </si>
+  <si>
+    <t>010-2263</t>
+  </si>
+  <si>
+    <t>010-2264</t>
+  </si>
+  <si>
+    <t>010-2265</t>
+  </si>
+  <si>
+    <t>010-2266</t>
+  </si>
+  <si>
+    <t>010-2267</t>
+  </si>
+  <si>
+    <t>010-2268</t>
+  </si>
+  <si>
+    <t>010-2269</t>
+  </si>
+  <si>
+    <t>010-2270</t>
+  </si>
+  <si>
+    <t>010-2271</t>
+  </si>
+  <si>
+    <t>010-2272</t>
+  </si>
+  <si>
+    <t>010-2273</t>
+  </si>
+  <si>
+    <t>010-2274</t>
+  </si>
+  <si>
+    <t>010-2275</t>
+  </si>
+  <si>
+    <t>맛있는데 비쌈.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국밥보다 다른 찌개가 맛있다고함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 특선 메뉴 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안가봄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순대가 수제라 맛있음.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목요일에 가면 1+1 참고하자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격대비 양이 많음. 조개젓갈 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄날의 달콤한 여유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱빼기 양 많음.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역곡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2276</t>
+  </si>
+  <si>
+    <t>소라관</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마고 피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브웨이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>대구</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신전떡볶이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다랑 회마차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쌩 옆 숙성횟집</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역할맥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부산 철길집</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치포차 탄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박격포차(남부)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치 1호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장터 치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토시래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘스터치(학교)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘스터치(역곡)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 근처 중식집. 남경이나 북경을 가자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1983보단 맛있다</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2277</t>
+  </si>
+  <si>
+    <t>010-2278</t>
+  </si>
+  <si>
+    <t>010-2279</t>
+  </si>
+  <si>
+    <t>010-2280</t>
+  </si>
+  <si>
+    <t>010-2281</t>
+  </si>
+  <si>
+    <t>010-2282</t>
+  </si>
+  <si>
+    <t>010-2283</t>
+  </si>
+  <si>
+    <t>010-2284</t>
+  </si>
+  <si>
+    <t>010-2285</t>
+  </si>
+  <si>
+    <t>010-2286</t>
+  </si>
+  <si>
+    <t>010-2287</t>
+  </si>
+  <si>
+    <t>010-2288</t>
+  </si>
+  <si>
+    <t>010-2289</t>
+  </si>
+  <si>
+    <t>010-2290</t>
+  </si>
+  <si>
+    <t>010-2291</t>
+  </si>
+  <si>
+    <t>010-2292</t>
+  </si>
+  <si>
+    <t>010-2293</t>
+  </si>
+  <si>
+    <t>까르디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기 좋은 에스프레소 바</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 횟집</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등촌칼국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2294</t>
+  </si>
+  <si>
+    <t>피제이 피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2295</t>
+  </si>
+  <si>
+    <t>무난한 피자집. 매장식사시 떡볶이 나옴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비싼감이 없지않아 있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교보다 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치 좋아하는 사람들은 좋아할듯.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,분식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식, 고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식, 닭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식, 면</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식, 덮밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식, 초밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식, 초밥, 회덮밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식, 라멘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마들렌이 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페, 디저트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>menu</t>
-  </si>
-  <si>
-    <t>010-2225</t>
-  </si>
-  <si>
-    <t>착한 돈삼이네</t>
-  </si>
-  <si>
-    <t>010-2246</t>
-  </si>
-  <si>
-    <t>010-2239</t>
-  </si>
-  <si>
-    <t>010-2244</t>
-  </si>
-  <si>
-    <t>010-2252</t>
-  </si>
-  <si>
-    <t>010-2230</t>
-  </si>
-  <si>
-    <t>010-2249</t>
-  </si>
-  <si>
-    <t>010-2250</t>
-  </si>
-  <si>
-    <t>고기,닭</t>
-  </si>
-  <si>
-    <t>역곡</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>010-2234</t>
-  </si>
-  <si>
-    <t>010-2242</t>
-  </si>
-  <si>
-    <t>010-2247</t>
-  </si>
-  <si>
-    <t>낭만</t>
-  </si>
-  <si>
-    <t>안먹어봄</t>
-  </si>
-  <si>
-    <t>010-2232</t>
-  </si>
-  <si>
-    <t>010-2235</t>
-  </si>
-  <si>
-    <t>안주</t>
-  </si>
-  <si>
-    <t>하남 돼지집</t>
-  </si>
-  <si>
-    <t>일식</t>
-  </si>
-  <si>
-    <t>010-2248</t>
-  </si>
-  <si>
-    <t>010-2233</t>
-  </si>
-  <si>
-    <t>북경</t>
-  </si>
-  <si>
-    <t>오르다</t>
-  </si>
-  <si>
-    <t>지지고</t>
-  </si>
-  <si>
-    <t>맛있음. 밥도 더 먹을 수 있음.</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>안가봄</t>
-  </si>
-  <si>
-    <t>디저트</t>
-  </si>
-  <si>
-    <t>장군집 고기고기</t>
-  </si>
-  <si>
-    <t>밀다</t>
-  </si>
-  <si>
-    <t>김가네</t>
-  </si>
-  <si>
-    <t>크라이치즈버거</t>
-  </si>
-  <si>
-    <t>용용선생</t>
-  </si>
-  <si>
-    <t>010-2229</t>
-  </si>
-  <si>
-    <t>매화스시</t>
-  </si>
-  <si>
-    <t>삼일포차</t>
-  </si>
-  <si>
-    <t>무난한 고깃집.</t>
-  </si>
-  <si>
-    <t>나의 유부</t>
-  </si>
-  <si>
-    <t>녘곸</t>
-  </si>
-  <si>
-    <t>무난한 프랜차이즈 맛임.</t>
-  </si>
-  <si>
-    <t>안가봄.</t>
-  </si>
-  <si>
-    <t>신동랩</t>
-  </si>
-  <si>
-    <t>호불호가 조금 갈리는듯? 필자는 맛있었음.</t>
-  </si>
-  <si>
-    <t>010-1111</t>
-  </si>
-  <si>
-    <t>메가커피</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>부천</t>
-  </si>
-  <si>
-    <t>울엄마 손칼국시</t>
-  </si>
-  <si>
-    <t>010-2257</t>
-  </si>
-  <si>
-    <t>중식</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>travelTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격과 비슷한 퀄리티의 맛.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>평범하게 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 근처 제육중 불향 가장 강함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무난한 닭갈비 맛.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>진짜 맛있음. 얼큰 닭칼국수 좀 매움</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSG강렬해서 맛이 없진 않음. 라면과 함께 먹어도 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 바로 앞이라 접근성 좋음.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>900, 1500 커피는 정말 가성비 넘사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무난한 프랜차이즈 맛임.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격과 비슷한 퀄리티의 맛. 북경세트(짜장면, 볶음밥, 탕수육)양이 뭔가 애매함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍경(남,북) 짬뽕보다 퀄리티가 훨씬 높음. 그대신 비쌈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛있음. 수제버거라 크기가 작음. 치즈를 좋아한다면 치즈감튀도 추천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사각피자 위에 노른자가 올라감. 그래서 맛은 담백한 편. tv에 나왔다고 기대는 하지 말고가길...</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한상차림이 정말 한상 가득히 나온다. 그외 안주도 맛있는편. 막걸리는 금방 취하니 조심하자.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙수가 진짜 맛있음. 안주를 세개 시키면 하나가 공짜?!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구운치킨 특성상 조리가 오래걸림. 무난한 프랜차이즈 맛임</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>송탄부대찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지혜 모던순대국밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조선 부뚜막</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>60계 치킨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파리바게트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨플러스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이디야</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명가 순대국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>도미노피자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한솥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이석민피자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>토천 칼국수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>히잇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2261</t>
-  </si>
-  <si>
-    <t>010-2262</t>
-  </si>
-  <si>
-    <t>010-2263</t>
-  </si>
-  <si>
-    <t>010-2264</t>
-  </si>
-  <si>
-    <t>010-2265</t>
-  </si>
-  <si>
-    <t>010-2266</t>
-  </si>
-  <si>
-    <t>010-2267</t>
-  </si>
-  <si>
-    <t>010-2268</t>
-  </si>
-  <si>
-    <t>010-2269</t>
-  </si>
-  <si>
-    <t>010-2270</t>
-  </si>
-  <si>
-    <t>010-2271</t>
-  </si>
-  <si>
-    <t>010-2272</t>
-  </si>
-  <si>
-    <t>010-2273</t>
-  </si>
-  <si>
-    <t>010-2274</t>
-  </si>
-  <si>
-    <t>010-2275</t>
-  </si>
-  <si>
-    <t>맛있는데 비쌈.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>국밥보다 다른 찌개가 맛있다고함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 특선 메뉴 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>안가봄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>순대가 수제라 맛있음.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>목요일에 가면 1+1 참고하자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격대비 양이 많음. 조개젓갈 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄날의 달콤한 여유</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>곱빼기 양 많음.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역곡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2276</t>
-  </si>
-  <si>
-    <t>소라관</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>중식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마고 피자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>양식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브웨이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신전떡볶이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카르디</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>바다랑 회마차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인쌩 옆 숙성횟집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할맥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부산 철길집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치포차 탄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박격포차(남부)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치 1호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장터 치킨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>토시래</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맘스터치(학교)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맘스터치(역곡)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역 근처 중식집. 남경이나 북경을 가자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1983보단 맛있다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>프랜인데 별로임</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄱㅊ은 프랜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2277</t>
-  </si>
-  <si>
-    <t>010-2278</t>
-  </si>
-  <si>
-    <t>010-2279</t>
-  </si>
-  <si>
-    <t>010-2280</t>
-  </si>
-  <si>
-    <t>010-2281</t>
-  </si>
-  <si>
-    <t>010-2282</t>
-  </si>
-  <si>
-    <t>010-2283</t>
-  </si>
-  <si>
-    <t>010-2284</t>
-  </si>
-  <si>
-    <t>010-2285</t>
-  </si>
-  <si>
-    <t>010-2286</t>
-  </si>
-  <si>
-    <t>010-2287</t>
-  </si>
-  <si>
-    <t>010-2288</t>
-  </si>
-  <si>
-    <t>010-2289</t>
-  </si>
-  <si>
-    <t>010-2290</t>
-  </si>
-  <si>
-    <t>010-2291</t>
-  </si>
-  <si>
-    <t>010-2292</t>
-  </si>
-  <si>
-    <t>010-2293</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식, 마라탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식, 짬뽕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식, 햄버거</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식, 피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>술, 중식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>술, 한식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>술</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기, 돼지고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기, 갈매기살</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기, 닭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빵, 디저트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식, 도시락</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식, 덮밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식, 샌드위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식, 회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1376,15 +1502,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1392,7 +1518,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1400,7 +1526,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -1408,7 +1534,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -1416,7 +1542,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1424,7 +1550,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1432,7 +1558,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1440,7 +1566,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1448,7 +1574,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -1464,7 +1590,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -1480,10 +1606,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E70" sqref="E70"/>
+    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H76" sqref="H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1498,74 +1624,74 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D1" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" t="s">
-        <v>58</v>
+        <v>103</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>230</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D2">
         <v>2.5</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
-        <v>31</v>
+      <c r="H3" s="2" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.4">
@@ -1573,22 +1699,22 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G4">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1596,1418 +1722,1519 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
-      <c r="H5" t="s">
-        <v>47</v>
+      <c r="H5" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
-      <c r="H6" t="s">
-        <v>47</v>
+      <c r="H6" s="2" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7">
         <v>4.5</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
-      <c r="H7" t="s">
-        <v>47</v>
+      <c r="H7" s="2" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G8">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G9">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D10">
         <v>3.5</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="D11">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E11" s="1"/>
       <c r="F11" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D12">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>0</v>
+      </c>
       <c r="F12" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="G12">
-        <v>11</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G13">
-        <v>12</v>
-      </c>
-      <c r="H13" t="s">
-        <v>80</v>
+        <v>13</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>3.5</v>
+        <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G14">
-        <v>13</v>
-      </c>
-      <c r="H14" t="s">
-        <v>80</v>
+        <v>14</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="F15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G15">
-        <v>14</v>
-      </c>
-      <c r="H15" t="s">
-        <v>80</v>
+        <v>15</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" t="s">
-        <v>77</v>
+        <v>16</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G16">
-        <v>15</v>
-      </c>
-      <c r="H16" t="s">
-        <v>47</v>
+        <v>16</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="G17">
-        <v>16</v>
-      </c>
-      <c r="H17" t="s">
-        <v>80</v>
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>3</v>
+        <v>87</v>
       </c>
       <c r="B18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>3</v>
-      </c>
-      <c r="F18" t="s">
-        <v>104</v>
+        <v>3.8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>228</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18" t="s">
-        <v>80</v>
+        <v>2</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="F19" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="G19">
-        <v>2</v>
-      </c>
-      <c r="H19" t="s">
-        <v>27</v>
+        <v>3</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G20">
-        <v>3</v>
-      </c>
-      <c r="H20" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D21">
-        <v>4.5</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>122</v>
+        <v>3</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="G21">
-        <v>4</v>
-      </c>
-      <c r="H21" t="s">
-        <v>27</v>
+        <v>5</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>123</v>
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
       </c>
       <c r="G22">
-        <v>5</v>
-      </c>
-      <c r="H22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+        <v>6</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="B23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" t="s">
-        <v>72</v>
-      </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="F23" t="s">
-        <v>88</v>
+        <v>2.5</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24">
+        <v>3.5</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G24">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25">
+        <v>9</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26">
+        <v>3.5</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
         <v>69</v>
       </c>
-      <c r="C24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24">
-        <v>2.5</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="G24">
-        <v>7</v>
-      </c>
-      <c r="H24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25">
-        <v>3.5</v>
-      </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="G25">
-        <v>8</v>
-      </c>
-      <c r="H25" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>42</v>
-      </c>
-      <c r="D26">
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="G27">
+        <v>11</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
-      <c r="F26" t="s">
-        <v>88</v>
-      </c>
-      <c r="G26">
-        <v>9</v>
-      </c>
-      <c r="H26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27">
-        <v>3.5</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27">
-        <v>10</v>
-      </c>
-      <c r="H27" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>127</v>
+      <c r="F28" t="s">
+        <v>84</v>
       </c>
       <c r="G28">
-        <v>11</v>
-      </c>
-      <c r="H28" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
       </c>
       <c r="C30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="F30" t="s">
-        <v>88</v>
+        <v>4</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="G30">
-        <v>13</v>
-      </c>
-      <c r="H30" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
+        <v>14</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
       </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>97</v>
+      </c>
+      <c r="G31">
+        <v>15</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32">
         <v>4</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G31">
-        <v>14</v>
-      </c>
-      <c r="H31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
-      </c>
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="D32">
+      <c r="F32" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33">
         <v>3</v>
       </c>
-      <c r="F32" t="s">
-        <v>101</v>
-      </c>
-      <c r="G32">
-        <v>15</v>
-      </c>
-      <c r="H32" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>97</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
-      </c>
-      <c r="C33" t="s">
-        <v>64</v>
-      </c>
-      <c r="D33">
-        <v>4</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>129</v>
+      <c r="F33" t="s">
+        <v>84</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G35">
-        <v>4</v>
-      </c>
-      <c r="H35" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+        <v>5</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>175</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="G36">
+        <v>6</v>
+      </c>
+      <c r="H36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37">
         <v>0</v>
       </c>
-      <c r="F36" t="s">
-        <v>88</v>
-      </c>
-      <c r="G36">
-        <v>5</v>
-      </c>
-      <c r="H36" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="34.799999999999997" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>55</v>
-      </c>
-      <c r="B37" t="s">
-        <v>179</v>
-      </c>
-      <c r="C37" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37">
-        <v>3</v>
-      </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3" t="s">
-        <v>130</v>
+      <c r="F37" t="s">
+        <v>84</v>
       </c>
       <c r="G37">
-        <v>6</v>
-      </c>
-      <c r="H37" t="s">
-        <v>68</v>
+        <v>7</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>52</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G38">
-        <v>7</v>
-      </c>
-      <c r="H38" t="s">
-        <v>54</v>
+        <v>8</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
       </c>
       <c r="C39" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D39">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E39" s="2"/>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="G39">
-        <v>8</v>
-      </c>
-      <c r="H39" t="s">
-        <v>54</v>
+        <v>9</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
         <v>13</v>
       </c>
       <c r="C40" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>3</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>0</v>
+      </c>
       <c r="F40" t="s">
         <v>98</v>
       </c>
       <c r="G40">
-        <v>9</v>
-      </c>
-      <c r="H40" t="s">
-        <v>54</v>
+        <v>10</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
       <c r="C41" t="s">
-        <v>2</v>
+        <v>142</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="F41" t="s">
-        <v>102</v>
+        <v>4.2</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="G41">
-        <v>10</v>
-      </c>
-      <c r="H41" t="s">
-        <v>54</v>
+        <v>3</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>103</v>
+      <c r="A42" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="B42" t="s">
         <v>13</v>
       </c>
       <c r="C42" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D42">
-        <v>4.2</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>161</v>
+        <v>3.5</v>
       </c>
       <c r="G42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>162</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="2" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
       <c r="C43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D43">
-        <v>3.5</v>
+        <v>1</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
+      <c r="H43" s="2" t="s">
+        <v>187</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
         <v>13</v>
       </c>
       <c r="C44" t="s">
-        <v>148</v>
-      </c>
-      <c r="D44">
-        <v>1</v>
+        <v>145</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
+        <v>161</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
       </c>
       <c r="C45" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
       </c>
       <c r="C46" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
       </c>
       <c r="C47" t="s">
-        <v>151</v>
+        <v>148</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>166</v>
+        <v>119</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
       </c>
       <c r="C48" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
       </c>
       <c r="C49" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
       </c>
       <c r="C50" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>123</v>
+        <v>163</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>155</v>
-      </c>
-      <c r="D51">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
       </c>
       <c r="C52" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B53" t="s">
         <v>13</v>
       </c>
       <c r="C53" t="s">
-        <v>157</v>
+        <v>154</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>168</v>
+        <v>119</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54">
-        <v>3</v>
+        <v>155</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>123</v>
+        <v>165</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
         <v>13</v>
       </c>
       <c r="C55" t="s">
-        <v>159</v>
+        <v>156</v>
+      </c>
+      <c r="D55">
+        <v>4.5</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>169</v>
+        <v>166</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B56" t="s">
-        <v>13</v>
+        <v>160</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="D56">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>145</v>
+        <v>243</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D57">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H57" s="2" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C58" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D58">
-        <v>2</v>
+        <v>3.7</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C59" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D59">
-        <v>3.7</v>
+        <v>3</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>196</v>
+        <v>119</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>177</v>
+        <v>244</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C61" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>181</v>
+        <v>209</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C62" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D62">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>123</v>
+        <v>210</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>123</v>
+        <v>211</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C64" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C65" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C66" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C67" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D67">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>123</v>
+        <v>219</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D68">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C69" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C70" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C71" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>123</v>
+        <v>162</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C72" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C73" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D73">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>197</v>
+        <v>218</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="2" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C74" t="s">
+        <v>213</v>
+      </c>
+      <c r="D74">
+        <v>2.7</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C75" t="s">
         <v>215</v>
       </c>
-      <c r="D74">
-        <v>3.5</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>198</v>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangg\IdeaProjects\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCF80EEE-80A3-474F-88F9-D673FAF1F32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AA3FF6-AE03-47CB-8A17-88D80E5FAD08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -1608,8 +1608,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="55" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H76" sqref="H76"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43:G75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2625,8 +2625,14 @@
       <c r="C44" t="s">
         <v>145</v>
       </c>
+      <c r="D44">
+        <v>3.2</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>161</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>238</v>
@@ -2642,8 +2648,14 @@
       <c r="C45" t="s">
         <v>146</v>
       </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
       <c r="F45" s="2" t="s">
         <v>162</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>240</v>
@@ -2659,8 +2671,14 @@
       <c r="C46" t="s">
         <v>147</v>
       </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
       <c r="F46" s="2" t="s">
         <v>162</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>240</v>
@@ -2682,6 +2700,9 @@
       <c r="F47" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
       <c r="H47" s="2" t="s">
         <v>241</v>
       </c>
@@ -2702,6 +2723,9 @@
       <c r="F48" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
       <c r="H48" s="2" t="s">
         <v>240</v>
       </c>
@@ -2722,6 +2746,9 @@
       <c r="F49" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
       <c r="H49" s="2" t="s">
         <v>229</v>
       </c>
@@ -2742,6 +2769,9 @@
       <c r="F50" s="2" t="s">
         <v>163</v>
       </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
       <c r="H50" s="2" t="s">
         <v>187</v>
       </c>
@@ -2756,8 +2786,14 @@
       <c r="C51" t="s">
         <v>152</v>
       </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
       <c r="F51" s="2" t="s">
         <v>162</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>234</v>
@@ -2773,8 +2809,14 @@
       <c r="C52" t="s">
         <v>153</v>
       </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
       <c r="F52" s="2" t="s">
         <v>164</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>234</v>
@@ -2796,6 +2838,9 @@
       <c r="F53" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
       <c r="H53" s="2" t="s">
         <v>242</v>
       </c>
@@ -2810,8 +2855,14 @@
       <c r="C54" t="s">
         <v>155</v>
       </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
       <c r="F54" s="2" t="s">
         <v>165</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>187</v>
@@ -2833,6 +2884,9 @@
       <c r="F55" s="2" t="s">
         <v>166</v>
       </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
       <c r="H55" s="2" t="s">
         <v>229</v>
       </c>
@@ -2853,6 +2907,9 @@
       <c r="F56" s="2" t="s">
         <v>167</v>
       </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
       <c r="H56" s="2" t="s">
         <v>243</v>
       </c>
@@ -2873,6 +2930,9 @@
       <c r="F57" s="2" t="s">
         <v>190</v>
       </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
       <c r="H57" s="2" t="s">
         <v>171</v>
       </c>
@@ -2893,6 +2953,9 @@
       <c r="F58" s="2" t="s">
         <v>191</v>
       </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
       <c r="H58" s="2" t="s">
         <v>234</v>
       </c>
@@ -2913,6 +2976,9 @@
       <c r="F59" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
       <c r="H59" s="2" t="s">
         <v>244</v>
       </c>
@@ -2933,6 +2999,9 @@
       <c r="F60" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
       <c r="H60" s="2" t="s">
         <v>245</v>
       </c>
@@ -2953,6 +3022,9 @@
       <c r="F61" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
       <c r="H61" s="2" t="s">
         <v>229</v>
       </c>
@@ -2973,6 +3045,9 @@
       <c r="F62" s="2" t="s">
         <v>210</v>
       </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
       <c r="H62" s="2" t="s">
         <v>229</v>
       </c>
@@ -2993,6 +3068,9 @@
       <c r="F63" s="2" t="s">
         <v>211</v>
       </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
       <c r="H63" s="2" t="s">
         <v>246</v>
       </c>
@@ -3013,6 +3091,9 @@
       <c r="F64" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
       <c r="H64" s="2" t="s">
         <v>246</v>
       </c>
@@ -3033,6 +3114,9 @@
       <c r="F65" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
       <c r="H65" s="2" t="s">
         <v>237</v>
       </c>
@@ -3053,6 +3137,9 @@
       <c r="F66" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
       <c r="H66" s="2" t="s">
         <v>237</v>
       </c>
@@ -3073,6 +3160,9 @@
       <c r="F67" s="2" t="s">
         <v>219</v>
       </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
       <c r="H67" s="2" t="s">
         <v>237</v>
       </c>
@@ -3093,6 +3183,9 @@
       <c r="F68" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
       <c r="H68" s="2" t="s">
         <v>237</v>
       </c>
@@ -3113,6 +3206,9 @@
       <c r="F69" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
       <c r="H69" s="2" t="s">
         <v>237</v>
       </c>
@@ -3133,6 +3229,9 @@
       <c r="F70" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
       <c r="H70" s="2" t="s">
         <v>240</v>
       </c>
@@ -3153,6 +3252,9 @@
       <c r="F71" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
       <c r="H71" s="2" t="s">
         <v>187</v>
       </c>
@@ -3173,6 +3275,9 @@
       <c r="F72" s="2" t="s">
         <v>119</v>
       </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
       <c r="H72" s="2" t="s">
         <v>233</v>
       </c>
@@ -3193,6 +3298,9 @@
       <c r="F73" s="2" t="s">
         <v>218</v>
       </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
       <c r="H73" s="2" t="s">
         <v>233</v>
       </c>
@@ -3213,6 +3321,9 @@
       <c r="F74" s="2" t="s">
         <v>217</v>
       </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
       <c r="H74" s="2" t="s">
         <v>187</v>
       </c>
@@ -3232,6 +3343,9 @@
       </c>
       <c r="F75" s="2" t="s">
         <v>216</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>234</v>

--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spong\OneDrive\바탕 화면\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B84E5C-B973-4FA3-B2DE-487569DB920E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA711911-02D1-4708-A708-2FBD9269507A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10660" yWindow="0" windowWidth="13240" windowHeight="11170" activeTab="1" xr2:uid="{F0F8F93C-B6B0-4457-BB51-82850C0E12AA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{F0F8F93C-B6B0-4457-BB51-82850C0E12AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="153">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -63,430 +63,464 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>분식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2223</t>
+  </si>
+  <si>
+    <t>010-2224</t>
+  </si>
+  <si>
+    <t>010-2225</t>
+  </si>
+  <si>
+    <t>010-2226</t>
+  </si>
+  <si>
+    <t>010-2227</t>
+  </si>
+  <si>
+    <t>010-2228</t>
+  </si>
+  <si>
+    <t>010-2229</t>
+  </si>
+  <si>
+    <t>010-2231</t>
+  </si>
+  <si>
+    <t>010-2232</t>
+  </si>
+  <si>
+    <t>010-2233</t>
+  </si>
+  <si>
+    <t>010-2234</t>
+  </si>
+  <si>
+    <t>010-2235</t>
+  </si>
+  <si>
+    <t>010-2236</t>
+  </si>
+  <si>
+    <t>010-2237</t>
+  </si>
+  <si>
+    <t>010-2238</t>
+  </si>
+  <si>
+    <t>010-2239</t>
+  </si>
+  <si>
+    <t>010-2240</t>
+  </si>
+  <si>
+    <t>010-2241</t>
+  </si>
+  <si>
+    <t>010-2242</t>
+  </si>
+  <si>
+    <t>010-2243</t>
+  </si>
+  <si>
+    <t>010-2244</t>
+  </si>
+  <si>
+    <t>010-2245</t>
+  </si>
+  <si>
+    <t>010-2246</t>
+  </si>
+  <si>
+    <t>010-2247</t>
+  </si>
+  <si>
+    <t>010-2248</t>
+  </si>
+  <si>
+    <t>010-2249</t>
+  </si>
+  <si>
+    <t>010-2250</t>
+  </si>
+  <si>
+    <t>010-2251</t>
+  </si>
+  <si>
+    <t>010-2252</t>
+  </si>
+  <si>
+    <t>010-2253</t>
+  </si>
+  <si>
+    <t>010-2254</t>
+  </si>
+  <si>
+    <t>010-2255</t>
+  </si>
+  <si>
+    <t>010-2256</t>
+  </si>
+  <si>
+    <t>010-2257</t>
+  </si>
+  <si>
+    <t>010-2258</t>
+  </si>
+  <si>
+    <t>010-2259</t>
+  </si>
+  <si>
+    <t>010-2260</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
     <t>phoneNumber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>rating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>menu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>travelTime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Categories</t>
   </si>
   <si>
     <t>남경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>부천</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>010-1111</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>짬뽕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>굳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격과 비슷한 퀄리티의 맛.</t>
+  </si>
+  <si>
+    <t>중식</t>
   </si>
   <si>
     <t>메밀꽃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>역곡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>010-2222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>극락</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Categories</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범하게 맛있음</t>
+  </si>
+  <si>
+    <t>한식,분식</t>
+  </si>
+  <si>
+    <t>THE 53</t>
+  </si>
+  <si>
+    <t>학교 근처 제육중 불향 가장 강함</t>
   </si>
   <si>
     <t>한식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>손가</t>
+  </si>
+  <si>
+    <t>안먹어봄</t>
+  </si>
+  <si>
+    <t>춘천애닭갈비</t>
+  </si>
+  <si>
+    <t>무난한 닭갈비 맛.</t>
+  </si>
+  <si>
+    <t>울엄마 손칼국시</t>
+  </si>
+  <si>
+    <t>진짜 맛있음. 얼큰 닭칼국수 좀 매움</t>
+  </si>
+  <si>
+    <t>김가네</t>
+  </si>
+  <si>
+    <t>맛있음. 반주하기에 나쁘지 않음</t>
+  </si>
+  <si>
+    <t>지지고</t>
+  </si>
+  <si>
+    <t>MSG강렬해서 맛이 없진 않음. 라면과 함께 먹어도 맛있음</t>
   </si>
   <si>
     <t>분식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교가는길</t>
+  </si>
+  <si>
+    <t>tv에 나온거 치고 평범한 맛. 그래도 맛있음.</t>
+  </si>
+  <si>
+    <t>엽기떡볶이</t>
+  </si>
+  <si>
+    <t>무난한 프랜차이즈 맛임.</t>
+  </si>
+  <si>
+    <t>나의 유부</t>
   </si>
   <si>
     <t>일식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼사돈부리</t>
+  </si>
+  <si>
+    <t>맛있음. 밥도 더 먹을 수 있음.</t>
+  </si>
+  <si>
+    <t>매화스시</t>
+  </si>
+  <si>
+    <t>안가봄</t>
+  </si>
+  <si>
+    <t>모야그집</t>
+  </si>
+  <si>
+    <t>스시마리오</t>
+  </si>
+  <si>
+    <t>멘야시오리</t>
+  </si>
+  <si>
+    <t>호불호가 조금 갈리는듯? 필자는 맛있었음.</t>
+  </si>
+  <si>
+    <t>밀다</t>
+  </si>
+  <si>
+    <t>마들렌이 맛있음</t>
+  </si>
+  <si>
+    <t>오르다</t>
+  </si>
+  <si>
+    <t>학교 바로 앞이라 접근성 좋음.</t>
+  </si>
+  <si>
+    <t>파로스 커피</t>
+  </si>
+  <si>
+    <t>900, 1500 커피는 정말 가성비 넘사</t>
   </si>
   <si>
     <t>카페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가커피</t>
+  </si>
+  <si>
+    <t>탕화쿵푸마라탕</t>
+  </si>
+  <si>
+    <t>북경</t>
+  </si>
+  <si>
+    <t>가격과 비슷한 퀄리티의 맛. 북경세트(짜장면, 볶음밥, 탕수육)양이 뭔가 애매함</t>
+  </si>
+  <si>
+    <t>아빠짬뽕</t>
+  </si>
+  <si>
+    <t>대구</t>
+  </si>
+  <si>
+    <t>쌍경(남,북) 짬뽕보다 퀄리티가 훨씬 높음. 그대신 비쌈</t>
+  </si>
+  <si>
+    <t>새우식탁</t>
+  </si>
+  <si>
+    <t>양식</t>
+  </si>
+  <si>
+    <t>크라이치즈버거</t>
+  </si>
+  <si>
+    <t>맛있음. 수제버거라 크기가 작음. 치즈를 좋아한다면 치즈감튀도 추천</t>
+  </si>
+  <si>
+    <t>1983 PIZZA CLUB</t>
+  </si>
+  <si>
+    <t>사각피자 위에 노른자가 올라감. 그래서 맛은 담백한 편. tv에 나왔다고 기대는 하지 말고가길...</t>
+  </si>
+  <si>
+    <t>용용선생</t>
+  </si>
+  <si>
+    <t>녘곸</t>
   </si>
   <si>
     <t>술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>안주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>THE 53</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>손가</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>춘천애닭갈비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>울엄마 손칼국시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김가네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지지고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교가는길</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>신참떡볶이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>엽기떡볶이</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>분식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>나의 유부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼사돈부리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매화스시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>모야그집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스시마리오</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>멘야시오리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>밀다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오르다</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>파로스 커피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메가커피</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>탕화쿵푸마라탕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>북경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아빠짬뽕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>새우식탁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>크라이치즈버거</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>양식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1983 PIZZA CLUB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>용용선생</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>녘곸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>전주 막걸리 포차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한상차림이 정말 한상 가득히 나온다. 그외 안주도 맛있는편. 막걸리는 금방 취하니 조심하자.</t>
   </si>
   <si>
     <t>인쌩맥주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>삼일포차</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙수가 진짜 맛있음. 안주를 세개 시키면 하나가 공짜?!</t>
   </si>
   <si>
     <t>금별맥주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>낭만</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>술</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>착한 돈삼이네</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>맛닭꼬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운치킨 특성상 조리가 오래걸림. 무난한 프랜차이즈 맛임</t>
+  </si>
+  <si>
+    <t>고기,닭</t>
   </si>
   <si>
     <t>김부삼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>꼬장 솥뚜껑 삼겹살</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>장군집 고기고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 고깃집.</t>
   </si>
   <si>
     <t>하남 돼지집</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기,닭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>별로임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>캬~</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그닥그닥</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>먹고 기절</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대구</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2223</t>
-  </si>
-  <si>
-    <t>010-2224</t>
-  </si>
-  <si>
-    <t>010-2225</t>
-  </si>
-  <si>
-    <t>010-2226</t>
-  </si>
-  <si>
-    <t>010-2227</t>
-  </si>
-  <si>
-    <t>010-2228</t>
-  </si>
-  <si>
-    <t>010-2229</t>
-  </si>
-  <si>
-    <t>010-2230</t>
-  </si>
-  <si>
-    <t>010-2231</t>
-  </si>
-  <si>
-    <t>010-2232</t>
-  </si>
-  <si>
-    <t>010-2233</t>
-  </si>
-  <si>
-    <t>010-2234</t>
-  </si>
-  <si>
-    <t>010-2235</t>
-  </si>
-  <si>
-    <t>010-2236</t>
-  </si>
-  <si>
-    <t>010-2237</t>
-  </si>
-  <si>
-    <t>010-2238</t>
-  </si>
-  <si>
-    <t>010-2239</t>
-  </si>
-  <si>
-    <t>010-2240</t>
-  </si>
-  <si>
-    <t>010-2241</t>
-  </si>
-  <si>
-    <t>010-2242</t>
-  </si>
-  <si>
-    <t>010-2243</t>
-  </si>
-  <si>
-    <t>010-2244</t>
-  </si>
-  <si>
-    <t>010-2245</t>
-  </si>
-  <si>
-    <t>010-2246</t>
-  </si>
-  <si>
-    <t>010-2247</t>
-  </si>
-  <si>
-    <t>010-2248</t>
-  </si>
-  <si>
-    <t>010-2249</t>
-  </si>
-  <si>
-    <t>010-2250</t>
-  </si>
-  <si>
-    <t>010-2251</t>
-  </si>
-  <si>
-    <t>010-2252</t>
-  </si>
-  <si>
-    <t>010-2253</t>
-  </si>
-  <si>
-    <t>010-2254</t>
-  </si>
-  <si>
-    <t>010-2255</t>
-  </si>
-  <si>
-    <t>010-2256</t>
-  </si>
-  <si>
-    <t>010-2257</t>
-  </si>
-  <si>
-    <t>010-2258</t>
-  </si>
-  <si>
-    <t>010-2259</t>
-  </si>
-  <si>
-    <t>010-2260</t>
+  </si>
+  <si>
+    <t>안가봄.</t>
+  </si>
+  <si>
+    <t>신동랩</t>
+  </si>
+  <si>
+    <t>010-2261</t>
+  </si>
+  <si>
+    <t>맛있는데 비쌈.</t>
+  </si>
+  <si>
+    <t>송탄부대찌개</t>
+  </si>
+  <si>
+    <t>010-2262</t>
+  </si>
+  <si>
+    <t>메뉴 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안가봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식,면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,고기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,닭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식,초밥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페,디저트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술,중식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>술,한식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -870,10 +904,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23927F95-299E-42FF-86D3-34522CBCD273}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -920,7 +954,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -928,7 +962,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -936,7 +970,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -944,7 +978,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -952,7 +986,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -960,7 +994,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -968,9 +1002,25 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="B12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>144</v>
+      </c>
+      <c r="B14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -982,10 +1032,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3D3F0-4B90-4438-9FA2-97396182C020}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E41"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="K56" sqref="K56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -995,1068 +1045,1094 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="C1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>53</v>
       </c>
       <c r="E1" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="F1" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D2">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="G3">
         <v>6</v>
       </c>
       <c r="H3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C4" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="D4">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="G4">
         <v>7</v>
       </c>
       <c r="H4" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>14</v>
       </c>
       <c r="D5">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="G5">
         <v>8</v>
       </c>
       <c r="H5" t="s">
-        <v>5</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>15</v>
       </c>
       <c r="D6">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>5</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>16</v>
       </c>
       <c r="D7">
-        <v>0.1</v>
+        <v>4.5</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>76</v>
       </c>
       <c r="G7">
         <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>5</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F8" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="G8">
         <v>11</v>
       </c>
       <c r="H8" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>89</v>
-      </c>
       <c r="D9">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="G9">
         <v>12</v>
       </c>
       <c r="H9" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C10" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="E10" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G10">
         <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G11">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H11" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F12" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="G12">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H12" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="D13">
-        <v>0.1</v>
+        <v>3.5</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F13" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="G13">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="D14">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C15" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="D15">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G15">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="D16">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G16">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F17" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="G17">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="D18">
-        <v>0.1</v>
+        <v>3.8</v>
       </c>
       <c r="E18" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
       <c r="G18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>141</v>
+      </c>
+      <c r="F19" t="s">
         <v>99</v>
       </c>
-      <c r="D19">
-        <v>0.1</v>
-      </c>
-      <c r="E19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" t="s">
-        <v>80</v>
-      </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>1.1000000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F20" t="s">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>103</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
-        <v>54</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C22" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H22" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>55</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="C23" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="D23">
-        <v>4.0999999999999996</v>
+        <v>2.5</v>
       </c>
       <c r="E23" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>106</v>
       </c>
       <c r="G23">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="C24" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F24" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
       <c r="G24">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C25" t="s">
-        <v>105</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G25">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>106</v>
+        <v>35</v>
       </c>
       <c r="D26">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E26" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F26" t="s">
-        <v>80</v>
+        <v>113</v>
       </c>
       <c r="G26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H26" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C27" t="s">
-        <v>107</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F27" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="G27">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H27" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C28" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G28">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H28" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>117</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C29" t="s">
-        <v>109</v>
+        <v>38</v>
       </c>
       <c r="D29">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F29" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G29">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>1.6</v>
+        <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F30" t="s">
-        <v>81</v>
+        <v>120</v>
       </c>
       <c r="G30">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="D31">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F31" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G31">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H31" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>122</v>
       </c>
       <c r="B32" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C32" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="D32">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F32" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="G32">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>42</v>
       </c>
       <c r="D33">
-        <v>4.5999999999999996</v>
+        <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F33" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="D34">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F34" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C35" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="D35">
-        <v>1.7</v>
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F35" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H35" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>127</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>45</v>
       </c>
       <c r="D36">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F36" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H36" t="s">
-        <v>77</v>
+        <v>129</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C37" t="s">
-        <v>117</v>
+        <v>46</v>
       </c>
       <c r="D37">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F37" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G37">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>47</v>
       </c>
       <c r="D38">
-        <v>4.7</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F38" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="G38">
+        <v>8</v>
+      </c>
+      <c r="H38" t="s">
         <v>7</v>
-      </c>
-      <c r="H38" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>132</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C39" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="D39">
-        <v>0.2</v>
+        <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F39" t="s">
-        <v>82</v>
+        <v>133</v>
       </c>
       <c r="G39">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>134</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>49</v>
       </c>
       <c r="D40">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F40" t="s">
-        <v>82</v>
+        <v>135</v>
       </c>
       <c r="G40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H40" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="D41">
-        <v>2.2000000000000002</v>
+        <v>4.2</v>
       </c>
       <c r="E41" t="s">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="F41" t="s">
-        <v>82</v>
+        <v>138</v>
       </c>
       <c r="G41">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>77</v>
+        <v>87</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A42" t="s">
+        <v>139</v>
+      </c>
+      <c r="B42" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42">
+        <v>3.5</v>
+      </c>
+      <c r="E42" t="s">
+        <v>141</v>
+      </c>
+      <c r="F42" t="s">
+        <v>142</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spong\OneDrive\바탕 화면\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA711911-02D1-4708-A708-2FBD9269507A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F3D459-FA9E-4F18-AD43-4ED787ACA03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{F0F8F93C-B6B0-4457-BB51-82850C0E12AA}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="155">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -520,6 +520,14 @@
   </si>
   <si>
     <t>술,한식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>longitude</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -527,7 +535,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -542,6 +550,12 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF424242"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -566,8 +580,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1032,18 +1049,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E3D3F0-4B90-4438-9FA2-97396182C020}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" customWidth="1"/>
+    <col min="9" max="9" width="16.9140625" customWidth="1"/>
+    <col min="10" max="10" width="24.4140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>50</v>
       </c>
@@ -1068,8 +1088,14 @@
       <c r="H1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -1094,8 +1120,14 @@
       <c r="H2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I2" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J2" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1120,8 +1152,14 @@
       <c r="H3" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I3" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J3" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -1146,8 +1184,14 @@
       <c r="H4" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I4" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J4" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -1172,8 +1216,14 @@
       <c r="H5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I5" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J5" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>73</v>
       </c>
@@ -1198,8 +1248,14 @@
       <c r="H6" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I6" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J6" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -1224,8 +1280,14 @@
       <c r="H7" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I7" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J7" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>77</v>
       </c>
@@ -1250,8 +1312,14 @@
       <c r="H8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I8" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J8" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>79</v>
       </c>
@@ -1276,8 +1344,14 @@
       <c r="H9" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I9" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J9" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>82</v>
       </c>
@@ -1302,8 +1376,14 @@
       <c r="H10" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I10" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J10" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>84</v>
       </c>
@@ -1328,8 +1408,14 @@
       <c r="H11" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I11" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J11" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>86</v>
       </c>
@@ -1354,8 +1440,14 @@
       <c r="H12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I12" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J12" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>88</v>
       </c>
@@ -1380,8 +1472,14 @@
       <c r="H13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I13" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J13" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>90</v>
       </c>
@@ -1406,8 +1504,14 @@
       <c r="H14" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I14" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J14" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>92</v>
       </c>
@@ -1432,8 +1536,14 @@
       <c r="H15" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I15" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J15" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>93</v>
       </c>
@@ -1458,8 +1568,14 @@
       <c r="H16" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I16" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J16" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -1484,8 +1600,14 @@
       <c r="H17" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I17" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J17" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>96</v>
       </c>
@@ -1510,8 +1632,14 @@
       <c r="H18" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I18" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J18" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>98</v>
       </c>
@@ -1536,8 +1664,14 @@
       <c r="H19" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I19" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J19" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -1562,8 +1696,14 @@
       <c r="H20" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I20" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J20" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>103</v>
       </c>
@@ -1588,8 +1728,14 @@
       <c r="H21" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I21" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J21" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>104</v>
       </c>
@@ -1614,8 +1760,14 @@
       <c r="H22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I22" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J22" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>105</v>
       </c>
@@ -1640,8 +1792,14 @@
       <c r="H23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I23" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J23" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>107</v>
       </c>
@@ -1666,8 +1824,14 @@
       <c r="H24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I24" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J24" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>110</v>
       </c>
@@ -1692,8 +1856,14 @@
       <c r="H25" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I25" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J25" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>112</v>
       </c>
@@ -1718,8 +1888,14 @@
       <c r="H26" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I26" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J26" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>114</v>
       </c>
@@ -1744,8 +1920,14 @@
       <c r="H27" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I27" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J27" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>116</v>
       </c>
@@ -1770,8 +1952,14 @@
       <c r="H28" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I28" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J28" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>117</v>
       </c>
@@ -1796,8 +1984,14 @@
       <c r="H29" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I29" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J29" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>119</v>
       </c>
@@ -1822,8 +2016,14 @@
       <c r="H30" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I30" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J30" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -1848,8 +2048,14 @@
       <c r="H31" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I31" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J31" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -1874,8 +2080,14 @@
       <c r="H32" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I32" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J32" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>124</v>
       </c>
@@ -1900,8 +2112,14 @@
       <c r="H33" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I33" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J33" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>125</v>
       </c>
@@ -1926,8 +2144,14 @@
       <c r="H34" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I34" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J34" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>126</v>
       </c>
@@ -1952,8 +2176,14 @@
       <c r="H35" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I35" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J35" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>127</v>
       </c>
@@ -1978,8 +2208,14 @@
       <c r="H36" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I36" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J36" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>130</v>
       </c>
@@ -2004,8 +2240,14 @@
       <c r="H37" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I37" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J37" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>131</v>
       </c>
@@ -2030,8 +2272,14 @@
       <c r="H38" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I38" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J38" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>132</v>
       </c>
@@ -2056,8 +2304,14 @@
       <c r="H39" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I39" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J39" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -2082,8 +2336,14 @@
       <c r="H40" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I40" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J40" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -2108,8 +2368,14 @@
       <c r="H41" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="I41" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J41" s="1">
+        <v>126.802288490018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>139</v>
       </c>
@@ -2133,6 +2399,12 @@
       </c>
       <c r="H42" t="s">
         <v>70</v>
+      </c>
+      <c r="I42" s="1">
+        <v>37.486002999374698</v>
+      </c>
+      <c r="J42" s="1">
+        <v>126.802288490018</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangg\IdeaProjects\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B3DA62-E031-4D2F-88BE-D6780E070156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE90AD2-595A-4C1B-A9C0-B8ABF4D8FD9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="411">
   <si>
     <t>스시마리오</t>
   </si>
   <si>
-    <t>010-2251</t>
-  </si>
-  <si>
-    <t>010-2260</t>
-  </si>
-  <si>
     <t>멘야시오리</t>
   </si>
   <si>
@@ -56,9 +50,6 @@
     <t>모야그집</t>
   </si>
   <si>
-    <t>010-2258</t>
-  </si>
-  <si>
     <t>꼬장 솥뚜껑 삼겹살</t>
   </si>
   <si>
@@ -68,9 +59,6 @@
     <t>남경</t>
   </si>
   <si>
-    <t>010-2236</t>
-  </si>
-  <si>
     <t>학교가는길</t>
   </si>
   <si>
@@ -95,9 +83,6 @@
     <t>카페</t>
   </si>
   <si>
-    <t>010-2259</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -107,1069 +92,1355 @@
     <t>분식</t>
   </si>
   <si>
-    <t>010-2226</t>
-  </si>
-  <si>
-    <t>010-2224</t>
-  </si>
-  <si>
     <t>탕화쿵푸마라탕</t>
   </si>
   <si>
-    <t>010-2255</t>
-  </si>
-  <si>
-    <t>010-2243</t>
-  </si>
-  <si>
-    <t>010-2241</t>
-  </si>
-  <si>
     <t>MainCategory</t>
   </si>
   <si>
-    <t>010-2228</t>
-  </si>
-  <si>
-    <t>010-2256</t>
-  </si>
-  <si>
-    <t>010-2223</t>
-  </si>
-  <si>
-    <t>010-2245</t>
-  </si>
-  <si>
-    <t>010-2231</t>
-  </si>
-  <si>
     <t>파로스 커피</t>
   </si>
   <si>
-    <t>010-2253</t>
-  </si>
-  <si>
-    <t>010-2240</t>
-  </si>
-  <si>
     <t>한식</t>
   </si>
   <si>
-    <t>010-2254</t>
-  </si>
-  <si>
-    <t>010-2238</t>
-  </si>
-  <si>
     <t>술</t>
   </si>
   <si>
     <t>김부삼</t>
   </si>
   <si>
-    <t>010-2237</t>
-  </si>
-  <si>
     <t>고기</t>
   </si>
   <si>
     <t>맛닭꼬</t>
   </si>
   <si>
-    <t>010-2227</t>
-  </si>
-  <si>
-    <t>010-2222</t>
-  </si>
-  <si>
-    <t>010-2225</t>
-  </si>
-  <si>
     <t>착한 돈삼이네</t>
   </si>
   <si>
-    <t>010-2246</t>
-  </si>
-  <si>
-    <t>010-2239</t>
+    <t>역곡</t>
+  </si>
+  <si>
+    <t>Categories</t>
+  </si>
+  <si>
+    <t>안먹어봄</t>
+  </si>
+  <si>
+    <t>안주</t>
+  </si>
+  <si>
+    <t>하남 돼지집</t>
+  </si>
+  <si>
+    <t>일식</t>
+  </si>
+  <si>
+    <t>북경</t>
+  </si>
+  <si>
+    <t>오르다</t>
+  </si>
+  <si>
+    <t>지지고</t>
+  </si>
+  <si>
+    <t>맛있음. 밥도 더 먹을 수 있음.</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>안가봄</t>
+  </si>
+  <si>
+    <t>디저트</t>
+  </si>
+  <si>
+    <t>밀다</t>
+  </si>
+  <si>
+    <t>크라이치즈버거</t>
+  </si>
+  <si>
+    <t>용용선생</t>
+  </si>
+  <si>
+    <t>매화스시</t>
+  </si>
+  <si>
+    <t>삼일포차</t>
+  </si>
+  <si>
+    <t>무난한 고깃집.</t>
+  </si>
+  <si>
+    <t>나의 유부</t>
+  </si>
+  <si>
+    <t>녘곸</t>
+  </si>
+  <si>
+    <t>무난한 프랜차이즈 맛임.</t>
+  </si>
+  <si>
+    <t>안가봄.</t>
+  </si>
+  <si>
+    <t>신동랩</t>
+  </si>
+  <si>
+    <t>호불호가 조금 갈리는듯? 필자는 맛있었음.</t>
+  </si>
+  <si>
+    <t>메가커피</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>울엄마 손칼국시</t>
+  </si>
+  <si>
+    <t>중식</t>
+  </si>
+  <si>
+    <t>phoneNumber</t>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>travelTime</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격과 비슷한 퀄리티의 맛.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범하게 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처 제육중 불향 가장 강함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 닭갈비 맛.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>진짜 맛있음. 얼큰 닭칼국수 좀 매움</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSG강렬해서 맛이 없진 않음. 라면과 함께 먹어도 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 바로 앞이라 접근성 좋음.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>900, 1500 커피는 정말 가성비 넘사</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 프랜차이즈 맛임.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격과 비슷한 퀄리티의 맛. 북경세트(짜장면, 볶음밥, 탕수육)양이 뭔가 애매함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>쌍경(남,북) 짬뽕보다 퀄리티가 훨씬 높음. 그대신 비쌈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있음. 수제버거라 크기가 작음. 치즈를 좋아한다면 치즈감튀도 추천</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각피자 위에 노른자가 올라감. 그래서 맛은 담백한 편. tv에 나왔다고 기대는 하지 말고가길...</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한상차림이 정말 한상 가득히 나온다. 그외 안주도 맛있는편. 막걸리는 금방 취하니 조심하자.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>빙수가 진짜 맛있음. 안주를 세개 시키면 하나가 공짜?!</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운치킨 특성상 조리가 오래걸림. 무난한 프랜차이즈 맛임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지혜 모던순대국밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>조선 부뚜막</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>bbq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60계 치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파리바게트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>치킨플러스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이디야</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>명가 순대국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도미노피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한솥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이석민피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토천 칼국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>히잇</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있는데 비쌈.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국밥보다 다른 찌개가 맛있다고함</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 특선 메뉴 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>안가봄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순대가 수제라 맛있음.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>목요일에 가면 1+1 참고하자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격대비 양이 많음. 조개젓갈 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄날의 달콤한 여유</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱빼기 양 많음.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소라관</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마고 피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>서브웨이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>신전떡볶이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>바다랑 회마차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>인쌩 옆 숙성횟집</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치포차 탄</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치 1호</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토시래</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘스터치(학교)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘스터치(역곡)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 근처 중식집. 남경이나 북경을 가자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2284</t>
+  </si>
+  <si>
+    <t>까르디</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기 좋은 에스프레소 바</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 횟집</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>등촌칼국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피제이 피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 피자집. 매장식사시 떡볶이 나옴</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>비싼감이 없지않아 있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교보다 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치 좋아하는 사람들은 좋아할듯.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마들렌이 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>menu</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있음.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>짜장,짬뽕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육,쫄순두부</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지갈비찜</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭칼국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수육국밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>컵밥,컵누들</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라볶이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>떡볶이,튀김</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부초밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일본식 덮밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>초밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>라멘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라탕,마라상궈,꿔바로우</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬뽕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>파스타,감바스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>수제버거</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라탕,연태하이볼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>막걸리,한상차림</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>살얼음맥주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피자전</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼겹살</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>현미베이크치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈매기살,뽈살</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>덮밥,카츠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>부대찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼겹살,김치찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금 올리브 치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>크크크치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샌드위치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후라이드 치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>순대국밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>도시락,컵밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼국수</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>덮밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭꼬치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>싸이버거</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샤브샤브</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>쇼샤돈부리</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1983 PIZZA&amp;PUB</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장군집 주먹고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>철길 부산집</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>후참잘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>매머드 익스프레스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>황금루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍천식당</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>승록이네</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>달콤할 시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>교촌치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>나비루</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>킹콩부대찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일품 마라탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>청년다방</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샐러디아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>웰돈카츠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데리아</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-2297</t>
+  </si>
+  <si>
+    <t>중화식 떡볶이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>소금빵</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>허니콤보</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>회덮밥</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마라탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>샐러드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>햄버거</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>집밥먹는 느낌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있음. 자리가 많이 없어 아쉬움</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고급스러운 회덮밥 맛임</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치해 학교에서 가긴 멀지만 맛있음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있음. 든든한 해장 가능</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>술</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>족발</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>국밥포차</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>본맛 송탄부대찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>장터즉석치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>아메리카노,꿀라떼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육볶음,김치찌개</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>로스카츠,치즈카츠</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>감자탕,우거지 해장국</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육덮밥,히레가스</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,닭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페,디저트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>술,중식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>술,한식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기,닭</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,분식</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-348-6124</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 43-3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 52</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-345-4670</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 710</t>
+  </si>
+  <si>
+    <t>0507-1321-5389</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로13번길 27</t>
+  </si>
+  <si>
+    <t>032-347-9292</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 716</t>
+  </si>
+  <si>
+    <t>032-208-8368</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로34번길 22</t>
+  </si>
+  <si>
+    <t>0507-1340-4825</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 697-1</t>
+  </si>
+  <si>
+    <t>032-341-1340</t>
+  </si>
+  <si>
+    <t>032-342-2566</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 47</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로34번길 38 1층</t>
+  </si>
+  <si>
+    <t>032-347-8809</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 714 역곡S프러스근린생활빌딩 2층 202호</t>
+  </si>
+  <si>
+    <t>032-345-8592</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로34번길 25</t>
+  </si>
+  <si>
+    <t>032-342-8485</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 698 지하1층</t>
+  </si>
+  <si>
+    <t>032-342-8381</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 718</t>
+  </si>
+  <si>
+    <t>032-343-5900</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로685번길 7</t>
+  </si>
+  <si>
+    <t>032-349-9011</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 701 1층</t>
+  </si>
+  <si>
+    <t>032-349-8048</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 714 103호</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 71 1층</t>
+  </si>
+  <si>
+    <t>0507-1305-2712</t>
+  </si>
+  <si>
+    <t>0507-1348-4983</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 46</t>
+  </si>
+  <si>
+    <t>032-271-6887</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로685번길 36 1층 101호</t>
+  </si>
+  <si>
+    <t>032-343-7775</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 49</t>
+  </si>
+  <si>
+    <t>0507-1397-0778</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로685번길 45</t>
+  </si>
+  <si>
+    <t>010-3367-8756</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로34번길 34</t>
+  </si>
+  <si>
+    <t>0507-1361-1152</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 92</t>
+  </si>
+  <si>
+    <t>0507-1350-9252안내</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로45번길 12</t>
+  </si>
+  <si>
+    <t>0507-1375-7172</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로34번길 19</t>
+  </si>
+  <si>
+    <t>0507-1317-6244</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로13번길 74</t>
+  </si>
+  <si>
+    <t>032-345-1983</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로 24</t>
+  </si>
+  <si>
+    <t>032-342-9112</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 711</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 719</t>
+  </si>
+  <si>
+    <t>배달</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이트</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-342-8668</t>
+  </si>
+  <si>
+    <t>0507-1382-7008</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 734</t>
+  </si>
+  <si>
+    <t>0507-1444-7772</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 732</t>
+  </si>
+  <si>
+    <t>0507-1355-4454</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 716 1층</t>
+  </si>
+  <si>
+    <t>0507-1369-9448</t>
+  </si>
+  <si>
+    <t>낭만짚불구이</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>짚불고기</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마들렌</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>커피, 마카롱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>보쌈</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 722</t>
+  </si>
+  <si>
+    <t>032-345-5656</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 715</t>
+  </si>
+  <si>
+    <t>032-349-2292</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 714</t>
+  </si>
+  <si>
+    <t>0507-1331-9592</t>
+  </si>
+  <si>
+    <t>통삼겹살</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 709</t>
+  </si>
+  <si>
+    <t>0507-1300-3479</t>
+  </si>
+  <si>
+    <t>생삽겹살, 오겹살</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-3026-1601</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 697</t>
+  </si>
+  <si>
+    <t>0507-1414-8389</t>
+  </si>
+  <si>
+    <t>삼겹살, 오겹살</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로685번길 40-2</t>
+  </si>
+  <si>
+    <t>0507-1495-8487</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 51</t>
+  </si>
+  <si>
+    <t>0507-1377-8314</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 43-3</t>
+  </si>
+  <si>
+    <t>032-348-5677</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 702</t>
+  </si>
+  <si>
+    <t>0507-1492-1170</t>
+  </si>
+  <si>
+    <t>032-345-0669</t>
+  </si>
+  <si>
+    <t>032-342-6699</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로 8</t>
+  </si>
+  <si>
+    <t>032-341-8220</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 48</t>
+  </si>
+  <si>
+    <t>032-344-5454</t>
+  </si>
+  <si>
+    <t>032-346-6997</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 98</t>
+  </si>
+  <si>
+    <t>032-344-5756</t>
+  </si>
+  <si>
+    <t>032-348-3466</t>
+  </si>
+  <si>
+    <t>경기도 부천시 원미구 지봉로 43-3</t>
+  </si>
+  <si>
+    <t>032-342-3082</t>
+  </si>
+  <si>
+    <t>032-341-1588</t>
+  </si>
+  <si>
+    <t>032-345-6282</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로685번길 6</t>
+  </si>
+  <si>
+    <t>010-9540-0508</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 54</t>
+  </si>
+  <si>
+    <t>032-349-0124</t>
+  </si>
+  <si>
+    <t>쿠키, 스콘</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>050-8439-6263</t>
+  </si>
+  <si>
+    <t>짜장면, 짬뽕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로699번길 30</t>
+  </si>
+  <si>
+    <t>0507-1464-0554</t>
+  </si>
+  <si>
+    <t>1983보다 맛있다.</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>피자, 닭껍질 피자</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 725</t>
+  </si>
+  <si>
+    <t>0507-1415-4908</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 695</t>
+  </si>
+  <si>
+    <t>032-341-1120</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로685번길 33</t>
+  </si>
+  <si>
+    <t>070-4133-7770</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 705</t>
+  </si>
+  <si>
+    <t>0507-1337-9524</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 723</t>
+  </si>
+  <si>
+    <t>032-342-9568</t>
+  </si>
+  <si>
+    <t>역전할머니맥주</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로13번길 17-1</t>
+  </si>
+  <si>
+    <t>032-344-1002</t>
+  </si>
+  <si>
+    <t>0507-1352-5627</t>
+  </si>
+  <si>
+    <t>연어사시미, 한우 육회</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로20번길 3</t>
+  </si>
+  <si>
+    <t>032-221-9059</t>
+  </si>
+  <si>
+    <t>모듬꼬치</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로13번길 12</t>
+  </si>
+  <si>
+    <t>0507-1370-8304</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로13번길 17</t>
+  </si>
+  <si>
+    <t>032-341-9933</t>
+  </si>
+  <si>
+    <t>후라이드 치킨, 양념 치킨</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로725번길 9</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로13번길 4</t>
+  </si>
+  <si>
+    <t>032-344-7825</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 43</t>
+  </si>
+  <si>
+    <t>032-345-8892</t>
+  </si>
+  <si>
+    <t>032-345-7300</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로13번길 49 2층</t>
+  </si>
+  <si>
+    <t>0507-1411-8123</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로 73</t>
+  </si>
+  <si>
+    <t>032-256-0909</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로711번길 45</t>
+  </si>
+  <si>
+    <t>032-343-2525</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로685번길 32</t>
+  </si>
+  <si>
+    <t>032-348-3338</t>
+  </si>
+  <si>
+    <t>032-349-1122</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로34번길 21</t>
+  </si>
+  <si>
+    <t>032-345-6000</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 지봉로34번길 29</t>
+  </si>
+  <si>
+    <t>0507-1308-0649</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 696</t>
+  </si>
+  <si>
+    <t>032-344-9220</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 707-1</t>
+  </si>
+  <si>
+    <t>032-342-5333</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 707</t>
+  </si>
+  <si>
+    <t>032-344-0001</t>
+  </si>
+  <si>
+    <t>그닥 맛있지 않음</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 712</t>
+  </si>
+  <si>
+    <t>0507-1479-5776</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 723 1층 일부호</t>
+  </si>
+  <si>
+    <t>032-341-0222</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 721</t>
+  </si>
+  <si>
+    <t>032-777-9270</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 724</t>
+  </si>
+  <si>
+    <t>032-344-1139</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 727</t>
+  </si>
+  <si>
+    <t>032-342-2441</t>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 713역곡</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-342-7895</t>
+  </si>
+  <si>
+    <t>배불리찌개순대국감자탕</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>010-2244</t>
-  </si>
-  <si>
-    <t>010-2252</t>
-  </si>
-  <si>
-    <t>010-2249</t>
-  </si>
-  <si>
-    <t>010-2250</t>
-  </si>
-  <si>
-    <t>역곡</t>
-  </si>
-  <si>
-    <t>Categories</t>
-  </si>
-  <si>
-    <t>010-2234</t>
-  </si>
-  <si>
-    <t>010-2242</t>
-  </si>
-  <si>
-    <t>010-2247</t>
-  </si>
-  <si>
-    <t>낭만</t>
-  </si>
-  <si>
-    <t>안먹어봄</t>
-  </si>
-  <si>
-    <t>010-2232</t>
-  </si>
-  <si>
-    <t>010-2235</t>
-  </si>
-  <si>
-    <t>안주</t>
-  </si>
-  <si>
-    <t>하남 돼지집</t>
-  </si>
-  <si>
-    <t>일식</t>
-  </si>
-  <si>
-    <t>010-2248</t>
-  </si>
-  <si>
-    <t>010-2233</t>
-  </si>
-  <si>
-    <t>북경</t>
-  </si>
-  <si>
-    <t>오르다</t>
-  </si>
-  <si>
-    <t>지지고</t>
-  </si>
-  <si>
-    <t>맛있음. 밥도 더 먹을 수 있음.</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>안가봄</t>
-  </si>
-  <si>
-    <t>디저트</t>
-  </si>
-  <si>
-    <t>밀다</t>
-  </si>
-  <si>
-    <t>크라이치즈버거</t>
-  </si>
-  <si>
-    <t>용용선생</t>
-  </si>
-  <si>
-    <t>010-2229</t>
-  </si>
-  <si>
-    <t>매화스시</t>
-  </si>
-  <si>
-    <t>삼일포차</t>
-  </si>
-  <si>
-    <t>무난한 고깃집.</t>
-  </si>
-  <si>
-    <t>나의 유부</t>
-  </si>
-  <si>
-    <t>녘곸</t>
-  </si>
-  <si>
-    <t>무난한 프랜차이즈 맛임.</t>
-  </si>
-  <si>
-    <t>안가봄.</t>
-  </si>
-  <si>
-    <t>신동랩</t>
-  </si>
-  <si>
-    <t>호불호가 조금 갈리는듯? 필자는 맛있었음.</t>
-  </si>
-  <si>
-    <t>010-1111</t>
-  </si>
-  <si>
-    <t>메가커피</t>
-  </si>
-  <si>
-    <t>rating</t>
-  </si>
-  <si>
-    <t>울엄마 손칼국시</t>
-  </si>
-  <si>
-    <t>010-2257</t>
-  </si>
-  <si>
-    <t>중식</t>
-  </si>
-  <si>
-    <t>phoneNumber</t>
-  </si>
-  <si>
-    <t>description</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>travelTime</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격과 비슷한 퀄리티의 맛.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>평범하게 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 근처 제육중 불향 가장 강함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무난한 닭갈비 맛.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>진짜 맛있음. 얼큰 닭칼국수 좀 매움</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSG강렬해서 맛이 없진 않음. 라면과 함께 먹어도 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 바로 앞이라 접근성 좋음.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>900, 1500 커피는 정말 가성비 넘사</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무난한 프랜차이즈 맛임.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격과 비슷한 퀄리티의 맛. 북경세트(짜장면, 볶음밥, 탕수육)양이 뭔가 애매함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>쌍경(남,북) 짬뽕보다 퀄리티가 훨씬 높음. 그대신 비쌈</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛있음. 수제버거라 크기가 작음. 치즈를 좋아한다면 치즈감튀도 추천</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사각피자 위에 노른자가 올라감. 그래서 맛은 담백한 편. tv에 나왔다고 기대는 하지 말고가길...</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한상차림이 정말 한상 가득히 나온다. 그외 안주도 맛있는편. 막걸리는 금방 취하니 조심하자.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>빙수가 진짜 맛있음. 안주를 세개 시키면 하나가 공짜?!</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>구운치킨 특성상 조리가 오래걸림. 무난한 프랜차이즈 맛임</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박지혜 모던순대국밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>조선 부뚜막</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bbq</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>60계 치킨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파리바게트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>치킨플러스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이디야</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>명가 순대국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>도미노피자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한솥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>이석민피자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>토천 칼국수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>히잇</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2261</t>
-  </si>
-  <si>
-    <t>010-2262</t>
-  </si>
-  <si>
-    <t>010-2263</t>
-  </si>
-  <si>
-    <t>010-2264</t>
-  </si>
-  <si>
-    <t>010-2265</t>
-  </si>
-  <si>
-    <t>010-2266</t>
-  </si>
-  <si>
-    <t>010-2267</t>
-  </si>
-  <si>
-    <t>010-2268</t>
-  </si>
-  <si>
-    <t>010-2269</t>
-  </si>
-  <si>
-    <t>010-2270</t>
-  </si>
-  <si>
-    <t>010-2271</t>
-  </si>
-  <si>
-    <t>010-2272</t>
-  </si>
-  <si>
-    <t>010-2273</t>
-  </si>
-  <si>
-    <t>010-2274</t>
-  </si>
-  <si>
-    <t>010-2275</t>
-  </si>
-  <si>
-    <t>맛있는데 비쌈.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>국밥보다 다른 찌개가 맛있다고함</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 특선 메뉴 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>안가봄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>순대가 수제라 맛있음.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>목요일에 가면 1+1 참고하자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격대비 양이 많음. 조개젓갈 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>봄날의 달콤한 여유</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>곱빼기 양 많음.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역곡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2276</t>
-  </si>
-  <si>
-    <t>소라관</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마고 피자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브웨이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>신전떡볶이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>네트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>바다랑 회마차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>인쌩 옆 숙성횟집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역할맥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치포차 탄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박격포차(남부)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치 1호</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>토시래</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맘스터치(학교)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맘스터치(역곡)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역 근처 중식집. 남경이나 북경을 가자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1983보단 맛있다</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2277</t>
-  </si>
-  <si>
-    <t>010-2278</t>
-  </si>
-  <si>
-    <t>010-2279</t>
-  </si>
-  <si>
-    <t>010-2280</t>
-  </si>
-  <si>
-    <t>010-2281</t>
-  </si>
-  <si>
-    <t>010-2282</t>
-  </si>
-  <si>
-    <t>010-2283</t>
-  </si>
-  <si>
-    <t>010-2284</t>
-  </si>
-  <si>
-    <t>010-2285</t>
-  </si>
-  <si>
-    <t>010-2286</t>
-  </si>
-  <si>
-    <t>010-2287</t>
-  </si>
-  <si>
-    <t>010-2288</t>
-  </si>
-  <si>
-    <t>010-2289</t>
-  </si>
-  <si>
-    <t>010-2290</t>
-  </si>
-  <si>
-    <t>010-2291</t>
-  </si>
-  <si>
-    <t>010-2292</t>
-  </si>
-  <si>
-    <t>010-2293</t>
-  </si>
-  <si>
-    <t>까르디</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>분위기 좋은 에스프레소 바</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>무난한 횟집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>등촌칼국수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2294</t>
-  </si>
-  <si>
-    <t>피제이 피자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2295</t>
-  </si>
-  <si>
-    <t>무난한 피자집. 매장식사시 떡볶이 나옴</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>비싼감이 없지않아 있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교보다 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치 좋아하는 사람들은 좋아할듯.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마들렌이 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>menu</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛있음.</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>짜장,짬뽕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육,쫄순두부</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>돼지갈비찜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭갈비</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭칼국수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수육국밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>컵밥,컵누들</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>라볶이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>떡볶이,튀김</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>유부초밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일본식 덮밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>초밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>라멘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>커피</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마라탕,마라상궈,꿔바로우</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>짬뽕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>파스타,감바스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>수제버거</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>사각피자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마라탕,연태하이볼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>막걸리,한상차림</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>살얼음맥주</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>피자전</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼겹살</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>현미베이크치킨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>갈매기살,뽈살</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>덮밥,카츠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>부대찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>국밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>삼겹살,김치찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>황금 올리브 치킨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>크크크치킨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>샌드위치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>후라이드 치킨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>순대국밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>도시락,컵밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼국수</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>덮밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>어묵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭꼬치</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>싸이버거</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>샤브샤브</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>피자</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dummy</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>latitude</t>
-  </si>
-  <si>
-    <t>longitude</t>
-  </si>
-  <si>
-    <t>쇼샤돈부리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>1983 PIZZA&amp;PUB</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장군집 주먹고기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>철길 부산집</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>후참잘</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>매머드 익스프레스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>황금루</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍천식당</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>승록이네</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>달콤할 시간</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>교촌치킨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>나비루</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>킹콩부대찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일품 마라탕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>청년다방</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>샐러디아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>웰돈카츠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데리아</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>배불리</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>010-2296</t>
-  </si>
-  <si>
-    <t>010-2297</t>
-  </si>
-  <si>
-    <t>010-2298</t>
-  </si>
-  <si>
-    <t>010-2299</t>
-  </si>
-  <si>
-    <t>010-2300</t>
-  </si>
-  <si>
-    <t>010-2301</t>
-  </si>
-  <si>
-    <t>010-2302</t>
-  </si>
-  <si>
-    <t>010-2303</t>
-  </si>
-  <si>
-    <t>010-2304</t>
-  </si>
-  <si>
-    <t>010-2305</t>
-  </si>
-  <si>
-    <t>010-2306</t>
-  </si>
-  <si>
-    <t>010-2307</t>
-  </si>
-  <si>
-    <t>010-2308</t>
-  </si>
-  <si>
-    <t>010-2309</t>
-  </si>
-  <si>
-    <t>010-2310</t>
-  </si>
-  <si>
-    <t>중화식 떡볶이</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>소금빵</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>허니콤보</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>회덮밥</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>마라탕</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>샐러드</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>햄버거</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>집밥먹는 느낌</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛있음. 자리가 많이 없어 아쉬움</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고급스러운 회덮밥 맛임</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>역 앞에 위치해 학교에서 가긴 멀지만 맛있음</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛있음. 든든한 해장 가능</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>중식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>분식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>양식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>술</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>족발</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>국밥포차</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>본맛 송탄부대찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>장터즉석치킨</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>dumm</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>아메리카노,꿀라떼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육볶음,김치찌개</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>로스카츠,치즈카츠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>감자탕,우거지 해장국</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육덮밥,히레가스</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식,고기</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식,닭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>카페,디저트</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>술,중식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>술,한식</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>고기,닭</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식,분식</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1177,10 +1448,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1206,6 +1478,61 @@
       <family val="3"/>
       <charset val="129"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF222225"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF222222"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444447"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF288756"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF444447"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1224,15 +1551,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1245,10 +1575,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="쉼표" xfId="1" builtinId="3"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -1798,25 +2159,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -1824,7 +2185,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -1832,7 +2193,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>44</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -1840,7 +2201,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="B5" t="b">
         <v>0</v>
@@ -1848,7 +2209,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -1856,7 +2217,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -1864,7 +2225,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -1872,7 +2233,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -1880,7 +2241,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -1888,7 +2249,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -1896,9 +2257,25 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="B12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1912,10 +2289,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:J90"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1930,60 +2307,60 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>79</v>
+        <v>42</v>
       </c>
       <c r="C1" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>205</v>
+        <v>127</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>62</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="H1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="I1" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="J1" t="s">
-        <v>254</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" t="s">
-        <v>95</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>230</v>
       </c>
       <c r="D2">
         <v>2.5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="I2">
         <v>37.486217440038999</v>
@@ -1994,28 +2371,28 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>233</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>208</v>
+        <v>130</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I3">
         <v>37.485605899757097</v>
@@ -2026,28 +2403,28 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>235</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>209</v>
+        <v>131</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I4">
         <v>37.484743157313098</v>
@@ -2058,28 +2435,28 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
+        <v>2</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>237</v>
       </c>
       <c r="D5">
         <v>4.5</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>210</v>
+        <v>132</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="G5">
         <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>319</v>
+        <v>223</v>
       </c>
       <c r="I5">
         <v>37.485945760507803</v>
@@ -2090,28 +2467,28 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
+        <v>17</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>239</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>211</v>
+        <v>133</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>320</v>
+        <v>224</v>
       </c>
       <c r="I6">
         <v>37.485043914860903</v>
@@ -2122,28 +2499,28 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>241</v>
       </c>
       <c r="D7">
         <v>4.5</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>212</v>
+        <v>134</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>108</v>
+        <v>68</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I7">
         <v>37.485259103938198</v>
@@ -2154,28 +2531,28 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
+        <v>215</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>213</v>
+        <v>135</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I8">
         <v>37.4846394516712</v>
@@ -2186,28 +2563,28 @@
     </row>
     <row r="9" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>244</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>214</v>
+        <v>136</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>109</v>
+        <v>69</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="I9">
         <v>37.486252715190901</v>
@@ -2218,28 +2595,28 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" t="s">
-        <v>85</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>247</v>
       </c>
       <c r="D10">
         <v>3.5</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>215</v>
+        <v>137</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I10">
         <v>37.485497186636003</v>
@@ -2248,30 +2625,30 @@
         <v>126.806982127745</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" t="s">
-        <v>39</v>
+        <v>4</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>249</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="I11">
         <v>37.484953499782101</v>
@@ -2282,28 +2659,28 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" t="s">
-        <v>61</v>
-      </c>
-      <c r="C12" t="s">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>217</v>
+        <v>139</v>
       </c>
       <c r="F12" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="I12">
         <v>37.485489281787402</v>
@@ -2314,28 +2691,28 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C13" t="s">
-        <v>74</v>
+        <v>175</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>253</v>
       </c>
       <c r="D13">
         <v>3.5</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>218</v>
+        <v>140</v>
       </c>
       <c r="F13" t="s">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="I13">
         <v>37.484376124816201</v>
@@ -2346,28 +2723,28 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" t="s">
-        <v>61</v>
-      </c>
-      <c r="C14" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>255</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="F14" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G14">
         <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="I14">
         <v>37.485087045156199</v>
@@ -2378,28 +2755,28 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" t="s">
-        <v>69</v>
+        <v>8</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>318</v>
+        <v>222</v>
       </c>
       <c r="F15" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="I15">
         <v>37.484322028046897</v>
@@ -2412,26 +2789,26 @@
       <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>15</v>
+      <c r="B16" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>259</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>219</v>
+        <v>141</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="I16">
         <v>37.484822724520697</v>
@@ -2442,28 +2819,28 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" t="s">
-        <v>48</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>263</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>220</v>
+        <v>142</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>56</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="I17">
         <v>37.484953508909399</v>
@@ -2474,28 +2851,28 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" t="s">
         <v>45</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>262</v>
       </c>
       <c r="D18">
         <v>3.8</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>204</v>
+        <v>126</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="I18">
         <v>37.487119366054898</v>
@@ -2506,28 +2883,28 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s">
-        <v>61</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
+        <v>39</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>265</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>252</v>
+        <v>299</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="I19">
         <v>37.485793357720603</v>
@@ -2538,28 +2915,28 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
+        <v>25</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="D20">
         <v>4.5</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
       <c r="I20">
         <v>37.485609802936601</v>
@@ -2570,28 +2947,28 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>96</v>
-      </c>
-      <c r="B21" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>33</v>
+        <v>57</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>269</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="I21">
         <v>37.486370092993198</v>
@@ -2602,28 +2979,28 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>61</v>
-      </c>
-      <c r="C22" t="s">
-        <v>64</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>271</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>222</v>
+        <v>144</v>
       </c>
       <c r="F22" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I22">
         <v>37.485784678924702</v>
@@ -2634,28 +3011,28 @@
     </row>
     <row r="23" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" t="s">
-        <v>61</v>
-      </c>
-      <c r="C23" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D23">
         <v>2.5</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>207</v>
+        <v>129</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I23">
         <v>37.485472117984301</v>
@@ -2666,28 +3043,28 @@
     </row>
     <row r="24" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>275</v>
       </c>
       <c r="D24">
         <v>3.5</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>223</v>
+        <v>145</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>114</v>
+        <v>74</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" t="s">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I24">
         <v>37.4876187047714</v>
@@ -2698,28 +3075,28 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>38</v>
+        <v>5</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="I25">
         <v>37.486371424902799</v>
@@ -2730,28 +3107,28 @@
     </row>
     <row r="26" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>83</v>
-      </c>
-      <c r="B26" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
+        <v>46</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>279</v>
       </c>
       <c r="D26">
         <v>3.5</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>115</v>
+        <v>75</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="I26">
         <v>37.485452852107699</v>
@@ -2762,28 +3139,28 @@
     </row>
     <row r="27" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" t="s">
-        <v>65</v>
+        <v>176</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>281</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>226</v>
+        <v>148</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="I27">
         <v>37.4852771880539</v>
@@ -2794,28 +3171,28 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" t="s">
-        <v>73</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>283</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>227</v>
+        <v>149</v>
       </c>
       <c r="F28" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>322</v>
+        <v>226</v>
       </c>
       <c r="I28">
         <v>37.487276494832102</v>
@@ -2826,28 +3203,28 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C29" t="s">
-        <v>59</v>
+        <v>52</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>410</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G29">
         <v>7</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="I29">
         <v>37.485229754054899</v>
@@ -2858,28 +3235,28 @@
     </row>
     <row r="30" spans="1:10" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
-        <v>60</v>
+        <v>21</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>288</v>
       </c>
       <c r="D30">
         <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>228</v>
+        <v>150</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="G30">
         <v>8</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>323</v>
+        <v>227</v>
       </c>
       <c r="I30">
         <v>37.485463400737999</v>
@@ -2890,28 +3267,28 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>289</v>
       </c>
       <c r="D31">
         <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="F31" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
       <c r="G31">
         <v>9</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="I31">
         <v>37.485134516293101</v>
@@ -2922,28 +3299,28 @@
     </row>
     <row r="32" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="C32" t="s">
-        <v>58</v>
+        <v>49</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>291</v>
       </c>
       <c r="D32">
         <v>4</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>118</v>
+        <v>78</v>
       </c>
       <c r="G32">
         <v>11</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="I32">
         <v>37.485578293433598</v>
@@ -2954,28 +3331,28 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>41</v>
+        <v>7</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>293</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G33">
         <v>10</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="I33">
         <v>37.485546523304997</v>
@@ -2985,29 +3362,29 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" t="s">
-        <v>44</v>
+      <c r="A34" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>295</v>
       </c>
       <c r="D34">
         <v>0</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="F34" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G34">
         <v>8</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="I34">
         <v>37.48501471886</v>
@@ -3018,28 +3395,28 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C35" t="s">
         <v>31</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>302</v>
       </c>
       <c r="D35">
         <v>0</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>231</v>
+        <v>153</v>
       </c>
       <c r="F35" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G35">
         <v>9</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="I35">
         <v>37.485252269681297</v>
@@ -3050,28 +3427,28 @@
     </row>
     <row r="36" spans="1:10" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" t="s">
-        <v>36</v>
+        <v>30</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>232</v>
+        <v>154</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="I36">
         <v>37.485320918690398</v>
@@ -3082,28 +3459,28 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" t="s">
-        <v>61</v>
-      </c>
-      <c r="C37" t="s">
-        <v>99</v>
+        <v>28</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>306</v>
       </c>
       <c r="D37">
         <v>0</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>252</v>
+        <v>307</v>
       </c>
       <c r="F37" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="I37">
         <v>37.484953504345803</v>
@@ -3114,28 +3491,28 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C38" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>309</v>
       </c>
       <c r="D38">
         <v>0</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>252</v>
+        <v>310</v>
       </c>
       <c r="F38" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="G38">
         <v>7</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="I38">
         <v>37.485105646383197</v>
@@ -3146,28 +3523,28 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
-      <c r="C39" t="s">
-        <v>24</v>
+        <v>177</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>311</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>50</v>
       </c>
       <c r="G39">
         <v>9</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="I39">
         <v>37.485842245137803</v>
@@ -3178,28 +3555,28 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="B40" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2</v>
+        <v>36</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>313</v>
       </c>
       <c r="D40">
         <v>0</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="F40" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="G40">
         <v>5</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="I40">
         <v>37.484711799258001</v>
@@ -3210,28 +3587,28 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>93</v>
-      </c>
-      <c r="B41" t="s">
-        <v>61</v>
-      </c>
-      <c r="C41" t="s">
-        <v>133</v>
+        <v>55</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>316</v>
       </c>
       <c r="D41">
         <v>4.2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="I41">
         <v>37.485713367130501</v>
@@ -3242,28 +3619,28 @@
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B42" t="s">
-        <v>61</v>
-      </c>
-      <c r="C42" t="s">
-        <v>134</v>
+        <v>216</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>318</v>
       </c>
       <c r="D42">
         <v>3.5</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>235</v>
+        <v>157</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>206</v>
+        <v>128</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I42">
         <v>37.4864311346047</v>
@@ -3274,28 +3651,28 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C43" t="s">
-        <v>135</v>
+        <v>80</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>320</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>149</v>
+        <v>94</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I43">
         <v>37.4855968850514</v>
@@ -3306,28 +3683,28 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" t="s">
-        <v>136</v>
+        <v>81</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>322</v>
       </c>
       <c r="D44">
         <v>3.2</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="G44">
         <v>6</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>308</v>
+        <v>213</v>
       </c>
       <c r="I44">
         <v>37.484507658332703</v>
@@ -3338,28 +3715,28 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>137</v>
+        <v>82</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>323</v>
       </c>
       <c r="D45">
         <v>0</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>238</v>
+        <v>160</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="I45">
         <v>37.484494157064901</v>
@@ -3370,28 +3747,28 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B46" t="s">
-        <v>61</v>
-      </c>
-      <c r="C46" t="s">
-        <v>138</v>
+        <v>83</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>324</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>239</v>
+        <v>161</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G46">
         <v>6</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="I46">
         <v>37.484494157064901</v>
@@ -3402,28 +3779,28 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B47" t="s">
-        <v>61</v>
-      </c>
-      <c r="C47" t="s">
-        <v>139</v>
+        <v>84</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="I47">
         <v>37.485883383334297</v>
@@ -3434,28 +3811,28 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C48" t="s">
-        <v>140</v>
+        <v>85</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>328</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>241</v>
+        <v>163</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="I48">
         <v>37.486122592368602</v>
@@ -3466,28 +3843,28 @@
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B49" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" t="s">
-        <v>141</v>
+        <v>86</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>329</v>
       </c>
       <c r="D49">
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="I49">
         <v>37.486014334435502</v>
@@ -3498,28 +3875,28 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" t="s">
-        <v>142</v>
+        <v>87</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>331</v>
       </c>
       <c r="D50">
         <v>4</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>242</v>
+        <v>164</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>153</v>
+        <v>98</v>
       </c>
       <c r="G50">
         <v>8</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I50">
         <v>37.487799763159799</v>
@@ -3530,28 +3907,28 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B51" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" t="s">
-        <v>143</v>
+        <v>90</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>332</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="I51">
         <v>37.485764012101299</v>
@@ -3562,28 +3939,28 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B52" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" t="s">
-        <v>144</v>
+        <v>88</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>230</v>
+        <v>152</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>154</v>
+        <v>99</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="I52">
         <v>37.485587896057297</v>
@@ -3594,28 +3971,28 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" t="s">
-        <v>145</v>
+        <v>89</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>335</v>
       </c>
       <c r="D53">
         <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>243</v>
+        <v>165</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>325</v>
+        <v>229</v>
       </c>
       <c r="I53">
         <v>37.485741491693297</v>
@@ -3626,28 +4003,28 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C54" t="s">
-        <v>146</v>
+        <v>91</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>336</v>
       </c>
       <c r="D54">
         <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>244</v>
+        <v>166</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>155</v>
+        <v>100</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I54">
         <v>37.485717869820199</v>
@@ -3658,28 +4035,28 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" t="s">
-        <v>147</v>
+        <v>92</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>338</v>
       </c>
       <c r="D55">
         <v>4.5</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>252</v>
+        <v>341</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>156</v>
+        <v>101</v>
       </c>
       <c r="G55">
         <v>3</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="I55">
         <v>37.484423764315302</v>
@@ -3690,28 +4067,28 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C56" t="s">
-        <v>159</v>
+        <v>95</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>340</v>
       </c>
       <c r="D56">
         <v>3.5</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>157</v>
+        <v>102</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="I56">
         <v>37.486280815262703</v>
@@ -3722,28 +4099,28 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B57" t="s">
-        <v>61</v>
-      </c>
-      <c r="C57" t="s">
-        <v>176</v>
+        <v>103</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="D57">
         <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="G57">
         <v>9</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>301</v>
+        <v>206</v>
       </c>
       <c r="I57">
         <v>37.485229715068598</v>
@@ -3754,28 +4131,28 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A58" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" t="s">
-        <v>177</v>
+        <v>104</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>345</v>
       </c>
       <c r="D58">
         <v>3.7</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>252</v>
+        <v>347</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>175</v>
+        <v>346</v>
       </c>
       <c r="G58">
         <v>3</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="I58">
         <v>37.485806101015598</v>
@@ -3786,28 +4163,28 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A59" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B59" t="s">
-        <v>61</v>
-      </c>
-      <c r="C59" t="s">
-        <v>178</v>
+        <v>105</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>349</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G59">
         <v>9</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="I59">
         <v>37.4856445443829</v>
@@ -3818,28 +4195,28 @@
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" t="s">
-        <v>179</v>
+        <v>106</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>351</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>216</v>
+        <v>138</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G60">
         <v>5</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>303</v>
+        <v>208</v>
       </c>
       <c r="I60">
         <v>37.484632488894697</v>
@@ -3850,28 +4227,28 @@
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C61" t="s">
-        <v>180</v>
+        <v>107</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="D61">
         <v>0</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="I61">
         <v>37.485713029704101</v>
@@ -3882,28 +4259,28 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C62" t="s">
-        <v>181</v>
+        <v>117</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>355</v>
       </c>
       <c r="D62">
         <v>3.6</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>221</v>
+        <v>143</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>194</v>
+        <v>118</v>
       </c>
       <c r="G62">
         <v>6</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>321</v>
+        <v>225</v>
       </c>
       <c r="I62">
         <v>37.484983408219797</v>
@@ -3914,28 +4291,28 @@
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B63" t="s">
-        <v>61</v>
-      </c>
-      <c r="C63" t="s">
-        <v>182</v>
+        <v>108</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>357</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>195</v>
+        <v>119</v>
       </c>
       <c r="G63">
         <v>9</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I63">
         <v>37.485630525260497</v>
@@ -3946,28 +4323,28 @@
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A64" s="1" t="s">
-        <v>166</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>61</v>
-      </c>
-      <c r="C64" t="s">
-        <v>183</v>
+        <v>32</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="D64">
         <v>0</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>302</v>
+        <v>207</v>
       </c>
       <c r="I64">
         <v>37.486002999999997</v>
@@ -3978,28 +4355,28 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B65" t="s">
-        <v>61</v>
-      </c>
-      <c r="C65" t="s">
-        <v>184</v>
+        <v>358</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>360</v>
       </c>
       <c r="D65">
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>229</v>
+        <v>151</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G65">
         <v>9</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="I65">
         <v>37.485934863757898</v>
@@ -4010,28 +4387,28 @@
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B66" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" t="s">
-        <v>185</v>
+        <v>178</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>361</v>
       </c>
       <c r="D66">
         <v>0</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>247</v>
+        <v>362</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G66">
         <v>9</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>307</v>
+        <v>212</v>
       </c>
       <c r="I66">
         <v>37.485878582837401</v>
@@ -4042,28 +4419,28 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B67" t="s">
-        <v>61</v>
-      </c>
-      <c r="C67" t="s">
-        <v>186</v>
+        <v>110</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="C67" s="8" t="s">
+        <v>364</v>
       </c>
       <c r="D67">
         <v>4</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>248</v>
+        <v>365</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>203</v>
+        <v>125</v>
       </c>
       <c r="G67">
         <v>11</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="I67">
         <v>37.487146131786702</v>
@@ -4074,743 +4451,714 @@
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" t="s">
-        <v>187</v>
+        <v>111</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>367</v>
       </c>
       <c r="D68">
         <v>0</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G68">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>307</v>
+        <v>228</v>
       </c>
       <c r="I68">
-        <v>37.483907637984203</v>
+        <v>37.486354841323397</v>
       </c>
       <c r="J68">
-        <v>126.811620476806</v>
+        <v>126.810817196481</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" t="s">
-        <v>188</v>
+        <v>217</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>369</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>248</v>
+        <v>370</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G69">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>324</v>
+        <v>228</v>
       </c>
       <c r="I69">
-        <v>37.486354841323397</v>
+        <v>37.4861341814998</v>
       </c>
       <c r="J69">
-        <v>126.810817196481</v>
+        <v>126.810871460472</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B70" t="s">
-        <v>61</v>
-      </c>
-      <c r="C70" t="s">
-        <v>189</v>
+        <v>112</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>373</v>
       </c>
       <c r="D70">
         <v>0</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>324</v>
+        <v>213</v>
       </c>
       <c r="I70">
-        <v>37.4861341814998</v>
+        <v>37.486465666514498</v>
       </c>
       <c r="J70">
-        <v>126.810871460472</v>
+        <v>126.81109958965401</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C71" t="s">
-        <v>190</v>
+        <v>113</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>375</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>309</v>
+        <v>170</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="G71">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>308</v>
+        <v>211</v>
       </c>
       <c r="I71">
-        <v>37.486465666514498</v>
+        <v>37.485496488895201</v>
       </c>
       <c r="J71">
-        <v>126.81109958965401</v>
+        <v>126.80382330388299</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B72" t="s">
-        <v>61</v>
-      </c>
-      <c r="C72" t="s">
-        <v>191</v>
+        <v>114</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>376</v>
       </c>
       <c r="D72">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>249</v>
+        <v>170</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="G72">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>306</v>
+        <v>211</v>
       </c>
       <c r="I72">
-        <v>37.485496488895201</v>
+        <v>37.484991922466399</v>
       </c>
       <c r="J72">
-        <v>126.80382330388299</v>
+        <v>126.80932532433</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B73" t="s">
-        <v>61</v>
-      </c>
-      <c r="C73" t="s">
-        <v>192</v>
+        <v>120</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>378</v>
       </c>
       <c r="D73">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>249</v>
+        <v>171</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>202</v>
+        <v>123</v>
       </c>
       <c r="G73">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="I73">
-        <v>37.484991922466399</v>
+        <v>37.485500345476098</v>
       </c>
       <c r="J73">
-        <v>126.80932532433</v>
+        <v>126.808925468913</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B74" t="s">
-        <v>61</v>
-      </c>
-      <c r="C74" t="s">
-        <v>197</v>
+        <v>121</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>380</v>
       </c>
       <c r="D74">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>250</v>
+        <v>172</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>201</v>
+        <v>122</v>
       </c>
       <c r="G74">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>302</v>
+        <v>211</v>
       </c>
       <c r="I74">
-        <v>37.485500345476098</v>
+        <v>37.4871579145832</v>
       </c>
       <c r="J74">
-        <v>126.808925468913</v>
+        <v>126.807363706692</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="B75" t="s">
-        <v>61</v>
-      </c>
-      <c r="C75" t="s">
-        <v>199</v>
+        <v>179</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>382</v>
       </c>
       <c r="D75">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>251</v>
+        <v>163</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
       <c r="G75">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>306</v>
+        <v>228</v>
       </c>
       <c r="I75">
-        <v>37.4871579145832</v>
+        <v>37.486829916063698</v>
       </c>
       <c r="J75">
-        <v>126.807363706692</v>
+        <v>126.807897389395</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B76" t="s">
-        <v>61</v>
-      </c>
-      <c r="C76" t="s">
-        <v>274</v>
+        <v>180</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>193</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G76">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>324</v>
+        <v>225</v>
       </c>
       <c r="I76">
-        <v>37.4871579145832</v>
+        <v>37.485557257315101</v>
       </c>
       <c r="J76">
-        <v>126.807363706692</v>
+        <v>126.80379346472</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C77" t="s">
-        <v>275</v>
+        <v>181</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="D77">
         <v>0</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>314</v>
+        <v>129</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="G77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="I77">
-        <v>37.4871579145832</v>
+        <v>37.485465777282897</v>
       </c>
       <c r="J77">
-        <v>126.807363706692</v>
+        <v>126.805684758526</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B78" t="s">
-        <v>61</v>
-      </c>
-      <c r="C78" t="s">
-        <v>276</v>
+        <v>182</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>385</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>301</v>
+        <v>207</v>
       </c>
       <c r="I78">
-        <v>37.4871579145832</v>
+        <v>37.4852659867394</v>
       </c>
       <c r="J78">
-        <v>126.807363706692</v>
+        <v>126.806100798082</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B79" t="s">
-        <v>61</v>
-      </c>
-      <c r="C79" t="s">
-        <v>277</v>
+        <v>183</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>387</v>
       </c>
       <c r="D79">
-        <v>2.8</v>
+        <v>4.2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>315</v>
+        <v>194</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>296</v>
+        <v>202</v>
       </c>
       <c r="G79">
         <v>2</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>302</v>
+        <v>208</v>
       </c>
       <c r="I79">
-        <v>37.4871579145832</v>
+        <v>37.485471043818599</v>
       </c>
       <c r="J79">
-        <v>126.807363706692</v>
+        <v>126.806148321831</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A80" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="B80" t="s">
-        <v>61</v>
-      </c>
-      <c r="C80" t="s">
-        <v>278</v>
+        <v>184</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>389</v>
       </c>
       <c r="D80">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>297</v>
+        <v>97</v>
       </c>
       <c r="G80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>303</v>
+        <v>225</v>
       </c>
       <c r="I80">
-        <v>37.4871579145832</v>
+        <v>37.485568406787102</v>
       </c>
       <c r="J80">
-        <v>126.807363706692</v>
+        <v>126.806456179731</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B81" t="s">
-        <v>61</v>
-      </c>
-      <c r="C81" t="s">
-        <v>279</v>
+        <v>185</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>391</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>290</v>
+        <v>196</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="G81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>321</v>
+        <v>228</v>
       </c>
       <c r="I81">
-        <v>37.4871579145832</v>
+        <v>37.484297134927999</v>
       </c>
       <c r="J81">
-        <v>126.807363706692</v>
+        <v>126.807313105798</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="B82" t="s">
-        <v>61</v>
-      </c>
-      <c r="C82" t="s">
-        <v>280</v>
+        <v>186</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>393</v>
       </c>
       <c r="D82">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>112</v>
+        <v>203</v>
       </c>
       <c r="G82">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H82" s="1" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="I82">
-        <v>37.4871579145832</v>
+        <v>37.4851076652795</v>
       </c>
       <c r="J82">
-        <v>126.807363706692</v>
+        <v>126.808467134276</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B83" t="s">
-        <v>61</v>
-      </c>
-      <c r="C83" t="s">
-        <v>281</v>
+        <v>187</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>395</v>
       </c>
       <c r="D83">
-        <v>3.7</v>
+        <v>1.8</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>292</v>
+        <v>157</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>298</v>
+        <v>396</v>
       </c>
       <c r="G83">
         <v>7</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="I83">
-        <v>37.4871579145832</v>
+        <v>37.485008389901601</v>
       </c>
       <c r="J83">
-        <v>126.807363706692</v>
+        <v>126.80836562754401</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B84" t="s">
-        <v>61</v>
-      </c>
-      <c r="C84" t="s">
-        <v>282</v>
+        <v>188</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>398</v>
       </c>
       <c r="D84">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>313</v>
+        <v>97</v>
       </c>
       <c r="G84">
         <v>7</v>
       </c>
-      <c r="H84" s="1" t="s">
-        <v>302</v>
+      <c r="H84" t="s">
+        <v>60</v>
       </c>
       <c r="I84">
-        <v>37.4871579145832</v>
+        <v>37.484883283856099</v>
       </c>
       <c r="J84">
-        <v>126.807363706692</v>
+        <v>126.80900477375801</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B85" t="s">
-        <v>61</v>
-      </c>
-      <c r="C85" t="s">
-        <v>283</v>
+        <v>189</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="D85">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>293</v>
+        <v>138</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>152</v>
+        <v>72</v>
       </c>
       <c r="G85">
-        <v>7</v>
-      </c>
-      <c r="H85" t="s">
-        <v>100</v>
+        <v>9</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="I85">
-        <v>37.4871579145832</v>
+        <v>37.485515772291102</v>
       </c>
       <c r="J85">
-        <v>126.807363706692</v>
+        <v>126.810111226302</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="B86" t="s">
-        <v>61</v>
-      </c>
-      <c r="C86" t="s">
-        <v>284</v>
+        <v>190</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>402</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="G86">
         <v>9</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="I86">
-        <v>37.4871579145832</v>
+        <v>37.485506471362903</v>
       </c>
       <c r="J86">
-        <v>126.807363706692</v>
+        <v>126.809930341669</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B87" t="s">
-        <v>61</v>
-      </c>
-      <c r="C87" t="s">
-        <v>285</v>
+        <v>191</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>404</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>112</v>
+        <v>204</v>
       </c>
       <c r="G87">
         <v>9</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>306</v>
+        <v>209</v>
       </c>
       <c r="I87">
-        <v>37.4871579145832</v>
+        <v>37.485308791274598</v>
       </c>
       <c r="J87">
-        <v>126.807363706692</v>
+        <v>126.81026721772</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B88" t="s">
-        <v>61</v>
-      </c>
-      <c r="C88" t="s">
-        <v>286</v>
+        <v>192</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>406</v>
       </c>
       <c r="D88">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>316</v>
+        <v>200</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>299</v>
+        <v>72</v>
       </c>
       <c r="G88">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>304</v>
+        <v>211</v>
       </c>
       <c r="I88">
-        <v>37.4871579145832</v>
+        <v>37.485678606400697</v>
       </c>
       <c r="J88">
-        <v>126.807363706692</v>
+        <v>126.81051785849201</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B89" t="s">
-        <v>61</v>
-      </c>
-      <c r="C89" t="s">
-        <v>287</v>
+        <v>409</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>408</v>
       </c>
       <c r="D89">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>295</v>
+        <v>221</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>112</v>
+        <v>205</v>
       </c>
       <c r="G89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="I89">
-        <v>37.4871579145832</v>
+        <v>37.485336015207501</v>
       </c>
       <c r="J89">
-        <v>126.807363706692</v>
-      </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="B90" t="s">
-        <v>61</v>
-      </c>
-      <c r="C90" t="s">
-        <v>288</v>
-      </c>
-      <c r="D90">
-        <v>4.5</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="F90" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G90">
-        <v>7</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="I90">
-        <v>37.4871579145832</v>
-      </c>
-      <c r="J90">
-        <v>126.807363706692</v>
+        <v>126.808989487812</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="https://search.naver.com/search.naver?where=nexearch&amp;sm=top_hty&amp;fbm=0&amp;ie=utf8&amp;query=%EC%97%AD%EA%B3%A1+%EB%82%A8%EA%B2%BD" xr:uid="{D0D5D2D9-4BBE-4791-90C2-F638B5FB3A00}"/>
+  </hyperlinks>
   <pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spong\OneDrive\문서\카카오톡 받은 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spong\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95519D7A-B75B-4ED0-8242-FB1243F48BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EAECCD4-B1EC-4F19-8F06-B10220021FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="540">
   <si>
     <t>분위기 좋은 에스프레소 바</t>
   </si>
@@ -317,9 +317,6 @@
     <t>술,중식</t>
   </si>
   <si>
-    <t>한식,분식</t>
-  </si>
-  <si>
     <t>한식,닭</t>
   </si>
   <si>
@@ -584,9 +581,6 @@
     <t>남경</t>
   </si>
   <si>
-    <t>안주</t>
-  </si>
-  <si>
     <t>지지고</t>
   </si>
   <si>
@@ -1428,34 +1422,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>미방문</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교에 가까운 중국집</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 근처 제육중 불향 가장 강합니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">학교의 근처의 돼지갈비찜 맛집 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭갈비가 먹고싶다면</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼국수 맛집 중에 하나</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>간단하게 먹고싶다면 나쁘지 않다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>분식,배달</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1464,30 +1430,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>밥을 더 먹을 수 있습니다. 분위기도 좋아요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>초밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>근처의 꽤 괜찮은 초밥집</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>회덮밥도 좋은 선택입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>일식</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>근처의 거의 유일한 라멘집</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>마들렌이 맛있습니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1500,50 +1450,18 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>900원 커피가 가성비가 좋다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>중식,데이트</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교 근처의 중국집 2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>짬뽕을 먹고싶다면 좋은 선택</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>양식,데이트</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교근처 국룰 소개팅 장소</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>사각피자 위에 노른자가 올라며 담백하다, tv에도 나온걸로 유명합니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>수제버거를 먹고싶다면</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>한상차림이 한상 가득히 나옴</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>무난한 프랜차이즈입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>구운치킨 특성상 조리가 오래걸리기도 합니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>부속고기집이며 양이 꽤 괜찮습니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1568,14 +1486,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교앞에 있는 치킨가게</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>이디야</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>순대가 수제라 맛있습니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1588,10 +1498,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>가격대비 양이 많음. 조개젓갈 맛있음</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">역 근처 중식집. </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1604,10 +1510,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>떡볶이</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>무난한 횟집</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1616,14 +1518,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>안가봄</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>맘스터치 가끔 늦게 나온다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>가끔씩 땡김</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1636,46 +1530,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>맛있음. 자리가 없을 수 있다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>건강해지고 싶다면.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>역 앞에 위치해 학교에서 가긴 멀지만 맛있습니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>든든한 해장이 가능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데리아</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>평범하게 한끼 떼우기 좋아요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>분식집을 가고싶다면 좋은 선택, tv에도 나왔다. 양 가격 부답없어요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>여러분이 잘아시는 엽기떡볶이 입니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>분위기 좋은데를 고르고 싶다면. 유부초밥이 생각보다 커서 든든해요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육의 불향이 좋아요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>여러분이 잘아시는 메가커피 입니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1684,10 +1546,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>빙수를 진짜 추천합니다. 오티로 많이 모이는 집이죠</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>돈이 많은 대학생이라면..돈값은 해요</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1700,51 +1558,279 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>배고플때 학교에서 찾자.. 기숙사생 최고의 가성비 선택</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>사장님께서 친절하시고 배부르게 한끼 해결 가능해요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치가 진짜 맛있고, 술집 분위기도 좋아요. 조용히 한잔하기에 좋아요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교보다 좋은 선택(컴공 이건희가 강력 추천합니다) 퀄리티가 다릅니다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격할인도 짱짱하고 맛있어요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>집밥먹는 느낌. 국물없는 제육 취향이신분들 여기 괜찮아요</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>호불호 많이 갈리는 부대찌개</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>수타면이 먹을만 해요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>럭셔리한 분식을 먹고 싶다면?</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>다들 아는 역전그랜드마더맥주</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>성심여대일때 부터 존재하던 피자집. 가격도 괜찮고 먹을만 해요</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>가격 괜찮아서 가는 곳입니다. 가격 대비 맛도 있어요</t>
+    <t>학교맘터보다 좋은 선택(컴공 이건희가 매우매우 강력하게 추천합니다) 퀄리티가 다릅니다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 앞 탕화쿵부처럼 진한 땅콩소스맛 육수 안 좋아하고 라화쿵부나 홍리마라탕처럼 사골육수맛 좋아하는 사람들한테 추천</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮다는 평이 많다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식위주로 매뉴가 다양해요. 평범하게 한끼 떼우기 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비가 먹고싶다면? 점심 특선으로 9000원까지 합니다. 사람들이 잘 모르는 맛집.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식집을 가고싶다면 좋은 선택, tv에도 나왔다. 양 가격 부답없어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>생고기 전문점. 가격도 덜 부담스럽고 고기를 구워주셔서 좋아요. 만석이 자주 있는 곳.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고플때 학교에서 찾자.. 기숙사생 최고의 가성비 선택. 포장해서 기숙다식당에서 드셔도 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 아는 역전그랜드마더비어</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있음. 자리가 없을 수 있다. 특히 불향 나는 떡볶이가 일품이에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>호불호 많이 갈리는 부대찌개. 밥이 무한이라서 배 채우기 걱정없어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치해 학교에서 가긴 멀지만 맛있습니다. 특히 모둠 먹으면 진짜 남길정도의 양</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교의 근처의 돼지갈비찜 맛집, 내부가 협소하고 시끄럽다는 단점도 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 맛있는 수제버거를 먹고싶다면? 생각보다 배가 안차서 개발자 본인은 2개 먹습니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분이 잘 아시는 bbq</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분이 잘 아시는 60계 치킨</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교앞에 있는 치킨가게. 전화 포장 주문 시 떡볶이 서비스 나갑니다. 개발자 본인은 치킨 따로먹고 떡볶이는 다음날 먹습니다. 2끼 해결가능!</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분이 잘 아시는 이디야</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격할인도 짱짱하고 맛있어요. 괜히 장사 잘 되는게 아님</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수타면이 먹을만 해요. 사장님께서 너무 친절하심!</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 맛있는 뼈감자탕집. 뼈가 사람 뼈마냥 크고 푸짐합니다. 컴공 아저씨들은 일주일에 한번 씩은 가는집.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처 제육중 불향 가장 강합니다. 돼지 불백도 맛있고 반찬도 맛있는 집. 집밥이 그리울땐..?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭 칼국수 맛집 중에 하나. 여름에 판매하는 비빔국수도 일품이에요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥과 비빔 우동이 있다. 가격도 너무 저렴하고 맛이 있어요. 다만 너무 기름져 느끼하실 수도 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육의 불향이 좋아요. 자극적인 것을 좋아하시면 추천드립니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처의 거의 유일한 라멘집. 일본 라면인데 소주가 땡기는 국물.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>900원 커피가 가성비가 좋아요. 가대생들의 카페인을 책임지는 곳.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교근처 국룰 소개팅 장소. 전 매뉴가 양식이고 대부분 새우가 들어가요. 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한상차림이 한상 가득히 나옴. 전과 막걸리가 먹고 싶을땐?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 프랜차이즈입니다. 개발자 본인이 알바 하면서 느낀.. 안주를 너무 정성스럽게 맛있게 만들어 맥주가 맛있게 느껴지는 곳</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">빙수를 진짜 추천합니다. 오티로 많이 모이는 집이죠. 안주 3+1 이벤트하는 곳 입니다. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운치킨 특성상 조리가 오래걸리기도 합니다. 하지만 구은 치킨을 좋아하시는 분들께 추천드립니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 괜찮아서 가는 곳입니다. 가격 대비 맛도 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격대비 양이 많음. 조개젓갈 맛있음. 사람들이 잘 모르는 칼국수 맛집 중 하나.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사장님께서 친절하시고 엄청 배부르게 한끼 해결 가능해요. 다만 재료들이 자극적이라 자주 못먹는게 단점입니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분이 잘 아시는 신전 떡볶이. 자극적인 떡볶이를 원하시면 추천해요. 긱사 생분들은 1인 메뉴도 추천드릴게요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분이 잘 아시는 롯데리아</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교에 가장 가까운 중국집. 전 매뉴가 평타이상은 합니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처의 꽤 괜찮은 초밥집. 가격은 좀 나가지만 학교 상권치고 퀄이 좋은편 입니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>비싼 마라전골도 맛있지만, 기본 마라탕이 맛있는곳. 마라탕 혼밥도 가능한 곳.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처의 중국집. 남경이 자리가 없으면 여기 갑니다. 남경과 맛은 동일해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기 좋고 가격도 착해요. 마라전골과 유린기가 맛있어요. 다양한 세트가 준비되서 가볼만한 곳,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레트로 감성 가득한 맥주집. 역쪽이라 언제나 사람이 많아요. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">너무 맛있고 사장님께서도 친절한 집. 분위기가 좋아서 연인이나 소개팅 자리도 가능해요. 1차,2차로도 가능한 곳. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 구워주시고 가성비도 좋고 고기도 좋아서 단골이 많은 집이에요. 볶음밥은 국룰.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역곡의 퀄리티 있는 필터 커피를 즐기고 싶다면..?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 안주가 맛있지만 특히 치킨 가라아케가 맛있는 집. 대화하기도 좋은 가게.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치가 진짜 맛있고, 술집 분위기도 좋아요. 조용히 한잔하기에 좋아요. 저녁에는 자주 매진이 되는 집.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 닭꼬치가 맛있어요. 서비스도 잘 주시는 가게.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>튀김 옷도 얇고 맛있는 집. 하지만 그때그때 맛의 편차가 좀 있다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 반찬도 맛있고 족발도 야들야들 하니 맛있다. 막국수도 양도 많고 존맛. 술도둑 입니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 국제관 1충에 있는 곳. 여러분이 아시는 메머드 커피.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장이 깔끔하고 조용해서 대화 나누거나 과제하기 좋은 곳.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기 좋은데를 고르고 싶다면. 유부초밥이 생각보다 커서 든든해요. 개발자 본인 얼굴 만합니다(저 얼굴 커요).</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥을 더 먹을 수 있습니다. 분위기도 좋아요. 덮밥 맛집입니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가톨릭대 근처에서 회덮밥을 먹고 싶으면 추천.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬뽕을 먹고싶다면 좋은 선택. 차돌 짬뽕이 진짜 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,분식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식,배달,혼밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1873,7 +1959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1921,6 +2007,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2478,15 +2567,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -2494,7 +2583,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2502,7 +2591,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2510,7 +2599,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -2518,15 +2607,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2534,7 +2623,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2542,7 +2631,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2550,7 +2639,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2558,7 +2647,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -2566,7 +2655,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -2574,7 +2663,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -2582,18 +2671,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>238</v>
+      <c r="A14" s="12" t="s">
+        <v>527</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2608,8 +2697,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -2617,49 +2706,49 @@
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.83203125" customWidth="1"/>
+    <col min="7" max="7" width="14.75" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="I1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J1" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -2668,16 +2757,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>440</v>
+        <v>511</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>201</v>
+      <c r="H2" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="I2">
         <v>37.486217440038999</v>
@@ -2686,15 +2775,15 @@
         <v>126.80527293775</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -2703,16 +2792,16 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>496</v>
+        <v>477</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>207</v>
+      <c r="H3" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="I3">
         <v>37.485605899757097</v>
@@ -2721,15 +2810,15 @@
         <v>126.80460177190599</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -2738,16 +2827,16 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>207</v>
+      <c r="H4" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="I4">
         <v>37.484743157313098</v>
@@ -2756,15 +2845,15 @@
         <v>126.808713984352</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -2773,10 +2862,10 @@
         <v>4.5</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>442</v>
+        <v>486</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -2791,15 +2880,15 @@
         <v>126.809960322531</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
@@ -2808,16 +2897,16 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>443</v>
+        <v>478</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6">
         <v>37.485043914860903</v>
@@ -2826,15 +2915,15 @@
         <v>126.809439672441</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -2843,16 +2932,16 @@
         <v>4.5</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
-        <v>207</v>
+      <c r="H7" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="I7">
         <v>37.485259103938198</v>
@@ -2861,7 +2950,7 @@
         <v>126.806024495491</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.45">
@@ -2869,7 +2958,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -2878,16 +2967,16 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
-        <v>207</v>
+      <c r="H8" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="I8">
         <v>37.4846394516712</v>
@@ -2896,15 +2985,15 @@
         <v>126.807272653455</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.45">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>38</v>
@@ -2913,16 +3002,16 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>212</v>
+      <c r="H9" s="12" t="s">
+        <v>530</v>
       </c>
       <c r="I9">
         <v>37.486252715190901</v>
@@ -2931,15 +3020,15 @@
         <v>126.804809264423</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>22</v>
@@ -2948,16 +3037,16 @@
         <v>3.5</v>
       </c>
       <c r="E10" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>497</v>
+        <v>479</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
-        <v>207</v>
+      <c r="H10" s="12" t="s">
+        <v>531</v>
       </c>
       <c r="I10">
         <v>37.485497186636003</v>
@@ -2966,15 +3055,15 @@
         <v>126.806982127745</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="42.5" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>15</v>
@@ -2983,16 +3072,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>498</v>
+        <v>465</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="I11">
         <v>37.484953499782101</v>
@@ -3001,15 +3090,15 @@
         <v>126.809244861902</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
@@ -3018,16 +3107,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>499</v>
+        <v>532</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I12">
         <v>37.485489281787402</v>
@@ -3036,15 +3125,15 @@
         <v>126.806281129108</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
@@ -3053,16 +3142,16 @@
         <v>3.5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>448</v>
+        <v>533</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I13">
         <v>37.484376124816201</v>
@@ -3071,15 +3160,15 @@
         <v>126.807406182305</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>32</v>
@@ -3088,16 +3177,16 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>450</v>
+        <v>512</v>
       </c>
       <c r="G14">
         <v>9</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I14">
         <v>37.485087045156199</v>
@@ -3106,15 +3195,15 @@
         <v>126.809645910124</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>35</v>
@@ -3123,16 +3212,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" t="s">
-        <v>198</v>
+      <c r="H15" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="I15">
         <v>37.484322028046897</v>
@@ -3141,15 +3230,15 @@
         <v>126.806007131678</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>37</v>
@@ -3158,16 +3247,16 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>451</v>
+        <v>534</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="I16">
         <v>37.484822724520697</v>
@@ -3176,15 +3265,15 @@
         <v>126.807775328921</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>23</v>
@@ -3193,16 +3282,16 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>453</v>
+        <v>499</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I17">
         <v>37.484953508909399</v>
@@ -3211,15 +3300,15 @@
         <v>126.809250515218</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>33</v>
@@ -3228,10 +3317,10 @@
         <v>3.8</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>454</v>
+        <v>441</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -3246,15 +3335,15 @@
         <v>126.807206921003</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>69</v>
@@ -3266,13 +3355,13 @@
         <v>93</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>455</v>
+        <v>442</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I19">
         <v>37.485793357720603</v>
@@ -3281,15 +3370,15 @@
         <v>126.804903740664</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.45">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>34</v>
@@ -3298,16 +3387,16 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>457</v>
+        <v>500</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I20">
         <v>37.485609802936601</v>
@@ -3316,15 +3405,15 @@
         <v>126.80560241137501</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>31</v>
@@ -3333,10 +3422,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>501</v>
+        <v>466</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3351,15 +3440,15 @@
         <v>126.804958775329</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>67</v>
@@ -3371,13 +3460,13 @@
         <v>3</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="I22">
         <v>37.485784678924702</v>
@@ -3386,15 +3475,15 @@
         <v>126.805104458966</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.45">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>49</v>
@@ -3403,16 +3492,16 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23" t="s">
-        <v>201</v>
+      <c r="H23" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="I23">
         <v>37.485472117984301</v>
@@ -3421,33 +3510,33 @@
         <v>126.806804110846</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.45">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D24">
         <v>3.5</v>
       </c>
       <c r="E24" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>460</v>
+        <v>535</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
-      <c r="H24" t="s">
-        <v>201</v>
+      <c r="H24" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="I24">
         <v>37.4876187047714</v>
@@ -3456,15 +3545,15 @@
         <v>126.809540549543</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>20</v>
@@ -3473,16 +3562,16 @@
         <v>3.5</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>462</v>
+        <v>501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="I25">
         <v>37.486371424902799</v>
@@ -3491,15 +3580,15 @@
         <v>126.80440190752201</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.45">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -3508,16 +3597,16 @@
         <v>3.5</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
-        <v>206</v>
+      <c r="H26" s="12" t="s">
+        <v>537</v>
       </c>
       <c r="I26">
         <v>37.485452852107699</v>
@@ -3526,7 +3615,7 @@
         <v>126.80604378137799</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.45">
@@ -3534,7 +3623,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>16</v>
@@ -3543,16 +3632,16 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I27">
         <v>37.4852771880539</v>
@@ -3561,15 +3650,15 @@
         <v>126.807440616127</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
@@ -3578,10 +3667,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>439</v>
+        <v>515</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -3596,33 +3685,33 @@
         <v>126.811050906527</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>502</v>
+        <v>467</v>
       </c>
       <c r="G29">
         <v>7</v>
       </c>
       <c r="H29" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I29">
         <v>37.485229754054899</v>
@@ -3631,15 +3720,15 @@
         <v>126.808746663889</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.45">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>13</v>
@@ -3648,16 +3737,16 @@
         <v>4</v>
       </c>
       <c r="E30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
       <c r="G30">
         <v>8</v>
       </c>
       <c r="H30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I30">
         <v>37.485463400737999</v>
@@ -3666,15 +3755,15 @@
         <v>126.809760849471</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>25</v>
@@ -3683,16 +3772,16 @@
         <v>3</v>
       </c>
       <c r="E31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="G31">
         <v>9</v>
       </c>
       <c r="H31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I31">
         <v>37.485134516293101</v>
@@ -3701,15 +3790,15 @@
         <v>126.80975037669999</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>17</v>
@@ -3718,16 +3807,16 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F32" s="13" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="G32">
         <v>11</v>
       </c>
       <c r="H32" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I32">
         <v>37.485578293433598</v>
@@ -3736,15 +3825,15 @@
         <v>126.811173904604</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>24</v>
@@ -3753,16 +3842,16 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>439</v>
+        <v>516</v>
       </c>
       <c r="G33">
         <v>10</v>
       </c>
       <c r="H33" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I33">
         <v>37.485546523304997</v>
@@ -3771,15 +3860,15 @@
         <v>126.811026996593</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C34" s="11" t="s">
         <v>26</v>
@@ -3788,16 +3877,16 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>439</v>
+        <v>517</v>
       </c>
       <c r="G34">
         <v>8</v>
       </c>
       <c r="H34" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I34">
         <v>37.48501471886</v>
@@ -3806,15 +3895,15 @@
         <v>126.809493453358</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>29</v>
@@ -3823,16 +3912,16 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>439</v>
+        <v>480</v>
       </c>
       <c r="G35">
         <v>9</v>
       </c>
       <c r="H35" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I35">
         <v>37.485252269681297</v>
@@ -3841,15 +3930,15 @@
         <v>126.810137333348</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>14</v>
@@ -3858,10 +3947,10 @@
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>467</v>
+        <v>505</v>
       </c>
       <c r="G36">
         <v>8</v>
@@ -3876,15 +3965,15 @@
         <v>126.80940504867399</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>21</v>
@@ -3896,13 +3985,13 @@
         <v>90</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="G37">
         <v>8</v>
       </c>
       <c r="H37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I37">
         <v>37.484953504345803</v>
@@ -3911,15 +4000,15 @@
         <v>126.80924768856001</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C38" s="11" t="s">
         <v>41</v>
@@ -3928,16 +4017,16 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>439</v>
+        <v>518</v>
       </c>
       <c r="G38">
         <v>7</v>
       </c>
       <c r="H38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I38">
         <v>37.485105646383197</v>
@@ -3946,15 +4035,15 @@
         <v>126.80861129985701</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>30</v>
@@ -3963,16 +4052,16 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="G39">
         <v>9</v>
       </c>
       <c r="H39" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I39">
         <v>37.485842245137803</v>
@@ -3981,15 +4070,15 @@
         <v>126.810022772203</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>18</v>
@@ -3998,16 +4087,16 @@
         <v>3</v>
       </c>
       <c r="E40" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>504</v>
+        <v>468</v>
       </c>
       <c r="G40">
         <v>5</v>
       </c>
       <c r="H40" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I40">
         <v>37.484711799258001</v>
@@ -4016,15 +4105,15 @@
         <v>126.80743641390001</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>27</v>
@@ -4033,16 +4122,16 @@
         <v>3.5</v>
       </c>
       <c r="E41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>469</v>
+        <v>448</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="I41">
         <v>37.485713367130501</v>
@@ -4051,15 +4140,15 @@
         <v>126.80557104935301</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C42" s="11" t="s">
         <v>28</v>
@@ -4068,16 +4157,16 @@
         <v>3</v>
       </c>
       <c r="E42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>506</v>
+        <v>470</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I42">
         <v>37.4864311346047</v>
@@ -4086,15 +4175,15 @@
         <v>126.805094299427</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>53</v>
@@ -4103,16 +4192,16 @@
         <v>2.5</v>
       </c>
       <c r="E43" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>505</v>
+        <v>469</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
-      <c r="H43" t="s">
-        <v>207</v>
+      <c r="H43" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="I43">
         <v>37.4855968850514</v>
@@ -4121,15 +4210,15 @@
         <v>126.804598968691</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>60</v>
@@ -4138,16 +4227,16 @@
         <v>3.5</v>
       </c>
       <c r="E44" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>470</v>
+        <v>449</v>
       </c>
       <c r="G44">
         <v>6</v>
       </c>
       <c r="H44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I44">
         <v>37.484507658332703</v>
@@ -4156,15 +4245,15 @@
         <v>126.80795138859099</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>86</v>
@@ -4173,16 +4262,16 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>439</v>
+        <v>488</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="I45">
         <v>37.484494157064901</v>
@@ -4191,15 +4280,15 @@
         <v>126.807959903106</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>63</v>
@@ -4208,16 +4297,16 @@
         <v>3</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>439</v>
+        <v>489</v>
       </c>
       <c r="G46">
         <v>6</v>
       </c>
       <c r="H46" s="14" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="I46">
         <v>37.484494157064901</v>
@@ -4226,15 +4315,15 @@
         <v>126.807959903106</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C47" s="8" t="s">
         <v>76</v>
@@ -4243,10 +4332,10 @@
         <v>3</v>
       </c>
       <c r="E47" s="14" t="s">
-        <v>472</v>
+        <v>451</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>473</v>
+        <v>452</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4261,15 +4350,15 @@
         <v>126.804858279291</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>43</v>
@@ -4278,10 +4367,10 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>474</v>
+        <v>490</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4296,15 +4385,15 @@
         <v>126.805126194846</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>54</v>
@@ -4313,10 +4402,10 @@
         <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>475</v>
+        <v>491</v>
       </c>
       <c r="G49">
         <v>1</v>
@@ -4331,15 +4420,15 @@
         <v>126.805043088126</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>47</v>
@@ -4348,16 +4437,16 @@
         <v>3.5</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="G50">
         <v>8</v>
       </c>
-      <c r="H50" t="s">
-        <v>207</v>
+      <c r="H50" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="I50">
         <v>37.487799763159799</v>
@@ -4366,15 +4455,15 @@
         <v>126.81007293726</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>80</v>
@@ -4383,16 +4472,16 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>517</v>
+        <v>473</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I51">
         <v>37.485764012101299</v>
@@ -4401,15 +4490,15 @@
         <v>126.80486565653</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>58</v>
@@ -4418,16 +4507,16 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="I52">
         <v>37.485587896057297</v>
@@ -4436,15 +4525,15 @@
         <v>126.804611712222</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C53" s="11" t="s">
         <v>39</v>
@@ -4453,16 +4542,16 @@
         <v>3</v>
       </c>
       <c r="E53" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>507</v>
+        <v>481</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" t="s">
-        <v>98</v>
+      <c r="H53" s="12" t="s">
+        <v>538</v>
       </c>
       <c r="I53">
         <v>37.485741491693297</v>
@@ -4471,15 +4560,15 @@
         <v>126.804868541803</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>62</v>
@@ -4488,16 +4577,16 @@
         <v>3.5</v>
       </c>
       <c r="E54" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>479</v>
+        <v>507</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I54">
         <v>37.485717869820199</v>
@@ -4506,15 +4595,15 @@
         <v>126.80556962433501</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>57</v>
@@ -4526,7 +4615,7 @@
         <v>94</v>
       </c>
       <c r="F55" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G55">
         <v>3</v>
@@ -4541,15 +4630,15 @@
         <v>126.80623441389299</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>46</v>
@@ -4558,7 +4647,7 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F56" s="14" t="s">
         <v>508</v>
@@ -4566,8 +4655,8 @@
       <c r="G56">
         <v>1</v>
       </c>
-      <c r="H56" t="s">
-        <v>212</v>
+      <c r="H56" s="12" t="s">
+        <v>530</v>
       </c>
       <c r="I56">
         <v>37.486280815262703</v>
@@ -4576,15 +4665,15 @@
         <v>126.805457923362</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>59</v>
@@ -4593,16 +4682,16 @@
         <v>3</v>
       </c>
       <c r="E57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="G57">
         <v>9</v>
       </c>
       <c r="H57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="I57">
         <v>37.485229715068598</v>
@@ -4611,15 +4700,15 @@
         <v>126.810119017007</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>61</v>
@@ -4628,16 +4717,16 @@
         <v>3.7</v>
       </c>
       <c r="E58" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="G58">
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I58">
         <v>37.485806101015598</v>
@@ -4646,15 +4735,15 @@
         <v>126.807177788738</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>51</v>
@@ -4663,16 +4752,16 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="G59">
         <v>9</v>
       </c>
       <c r="H59" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I59">
         <v>37.4856445443829</v>
@@ -4681,15 +4770,15 @@
         <v>126.810346929445</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>65</v>
@@ -4698,16 +4787,16 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>483</v>
+        <v>509</v>
       </c>
       <c r="G60">
         <v>5</v>
       </c>
-      <c r="H60" t="s">
-        <v>212</v>
+      <c r="H60" s="12" t="s">
+        <v>530</v>
       </c>
       <c r="I60">
         <v>37.484632488894697</v>
@@ -4716,15 +4805,15 @@
         <v>126.807146885097</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>64</v>
@@ -4733,16 +4822,16 @@
         <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>439</v>
+        <v>519</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I61">
         <v>37.485713029704101</v>
@@ -4751,15 +4840,15 @@
         <v>126.805366114637</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>68</v>
@@ -4768,7 +4857,7 @@
         <v>3.6</v>
       </c>
       <c r="E62" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="F62" t="s">
         <v>0</v>
@@ -4777,7 +4866,7 @@
         <v>6</v>
       </c>
       <c r="H62" s="14" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="I62">
         <v>37.484983408219797</v>
@@ -4786,15 +4875,15 @@
         <v>126.808239904519</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>56</v>
@@ -4803,16 +4892,16 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="G63">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I63">
         <v>37.485630525260497</v>
@@ -4821,15 +4910,15 @@
         <v>126.81003320175201</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>55</v>
@@ -4838,16 +4927,16 @@
         <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="G64">
         <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I64">
         <v>37.485934863757898</v>
@@ -4856,15 +4945,15 @@
         <v>126.81018789999401</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>40</v>
@@ -4873,16 +4962,16 @@
         <v>3</v>
       </c>
       <c r="E65" s="14" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>439</v>
+        <v>520</v>
       </c>
       <c r="G65">
         <v>9</v>
       </c>
       <c r="H65" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="I65">
         <v>37.485878582837401</v>
@@ -4891,15 +4980,15 @@
         <v>126.810207829315</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>66</v>
@@ -4908,10 +4997,10 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F66" s="12" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="G66">
         <v>11</v>
@@ -4926,15 +5015,15 @@
         <v>126.811227906865</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>48</v>
@@ -4943,10 +5032,10 @@
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>439</v>
+        <v>522</v>
       </c>
       <c r="G67">
         <v>10</v>
@@ -4961,15 +5050,15 @@
         <v>126.810817196481</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>42</v>
@@ -4981,7 +5070,7 @@
         <v>44</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>439</v>
+        <v>523</v>
       </c>
       <c r="G68">
         <v>9</v>
@@ -4996,15 +5085,15 @@
         <v>126.810871460472</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>45</v>
@@ -5013,16 +5102,16 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>439</v>
+        <v>524</v>
       </c>
       <c r="G69">
         <v>10</v>
       </c>
       <c r="H69" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="I69">
         <v>37.486465666514498</v>
@@ -5031,15 +5120,15 @@
         <v>126.81109958965401</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>50</v>
@@ -5048,16 +5137,16 @@
         <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="I70">
         <v>37.485496488895201</v>
@@ -5066,15 +5155,15 @@
         <v>126.80382330388299</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>74</v>
@@ -5083,16 +5172,16 @@
         <v>3.5</v>
       </c>
       <c r="E71" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>510</v>
+        <v>474</v>
       </c>
       <c r="G71">
         <v>8</v>
       </c>
       <c r="H71" s="14" t="s">
-        <v>478</v>
+        <v>539</v>
       </c>
       <c r="I71">
         <v>37.484991922466399</v>
@@ -5101,15 +5190,15 @@
         <v>126.80932532433</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>78</v>
@@ -5118,16 +5207,16 @@
         <v>2.5</v>
       </c>
       <c r="E72" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>488</v>
+        <v>461</v>
       </c>
       <c r="G72">
         <v>7</v>
       </c>
       <c r="H72" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I72">
         <v>37.485500345476098</v>
@@ -5136,15 +5225,15 @@
         <v>126.808925468913</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>89</v>
@@ -5153,16 +5242,16 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>489</v>
+        <v>462</v>
       </c>
       <c r="G73">
         <v>4</v>
       </c>
       <c r="H73" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I73">
         <v>37.4871579145832</v>
@@ -5171,15 +5260,15 @@
         <v>126.807363706692</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>82</v>
@@ -5188,16 +5277,16 @@
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>511</v>
+        <v>492</v>
       </c>
       <c r="G74">
         <v>5</v>
       </c>
       <c r="H74" s="14" t="s">
-        <v>471</v>
+        <v>450</v>
       </c>
       <c r="I74">
         <v>37.486829916063698</v>
@@ -5206,27 +5295,27 @@
         <v>126.807897389395</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>486</v>
+        <v>525</v>
       </c>
       <c r="G75">
         <v>1</v>
@@ -5241,15 +5330,15 @@
         <v>126.80379346472</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>87</v>
@@ -5258,16 +5347,16 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>514</v>
+        <v>493</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
-      <c r="H76" t="s">
-        <v>201</v>
+      <c r="H76" s="12" t="s">
+        <v>528</v>
       </c>
       <c r="I76">
         <v>37.485465777282897</v>
@@ -5276,15 +5365,15 @@
         <v>126.805684758526</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>77</v>
@@ -5293,16 +5382,16 @@
         <v>3</v>
       </c>
       <c r="E77" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F77" s="12" t="s">
-        <v>512</v>
+        <v>471</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
-      <c r="H77" t="s">
-        <v>207</v>
+      <c r="H77" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="I77">
         <v>37.4852659867394</v>
@@ -5311,15 +5400,15 @@
         <v>126.806100798082</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>88</v>
@@ -5328,16 +5417,16 @@
         <v>4.2</v>
       </c>
       <c r="E78" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="G78">
         <v>2</v>
       </c>
       <c r="H78" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I78">
         <v>37.485471043818599</v>
@@ -5346,15 +5435,15 @@
         <v>126.806148321831</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>71</v>
@@ -5363,10 +5452,10 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>439</v>
+        <v>526</v>
       </c>
       <c r="G79">
         <v>3</v>
@@ -5381,15 +5470,15 @@
         <v>126.806456179731</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>83</v>
@@ -5398,7 +5487,7 @@
         <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F80" t="s">
         <v>9</v>
@@ -5416,15 +5505,15 @@
         <v>126.807313105798</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>79</v>
@@ -5433,16 +5522,16 @@
         <v>3.7</v>
       </c>
       <c r="E81" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>490</v>
+        <v>463</v>
       </c>
       <c r="G81">
         <v>7</v>
       </c>
-      <c r="H81" t="s">
-        <v>198</v>
+      <c r="H81" s="12" t="s">
+        <v>536</v>
       </c>
       <c r="I81">
         <v>37.4851076652795</v>
@@ -5451,15 +5540,15 @@
         <v>126.808467134276</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>72</v>
@@ -5468,16 +5557,16 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>513</v>
+        <v>484</v>
       </c>
       <c r="G82">
         <v>7</v>
       </c>
       <c r="H82" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I82">
         <v>37.485008389901601</v>
@@ -5486,15 +5575,15 @@
         <v>126.80836562754401</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="51" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>81</v>
@@ -5503,16 +5592,16 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>229</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>439</v>
+        <v>227</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>475</v>
       </c>
       <c r="G83">
         <v>7</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="I83">
         <v>37.484883283856099</v>
@@ -5521,15 +5610,15 @@
         <v>126.80900477375801</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>84</v>
@@ -5538,16 +5627,16 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="G84">
         <v>9</v>
       </c>
       <c r="H84" s="14" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="I84">
         <v>37.485515772291102</v>
@@ -5556,15 +5645,15 @@
         <v>126.810111226302</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>73</v>
@@ -5573,16 +5662,16 @@
         <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>492</v>
+        <v>464</v>
       </c>
       <c r="G85">
         <v>9</v>
       </c>
       <c r="H85" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I85">
         <v>37.485506471362903</v>
@@ -5591,15 +5680,15 @@
         <v>126.809930341669</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>75</v>
@@ -5608,16 +5697,16 @@
         <v>3.9</v>
       </c>
       <c r="E86" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="G86">
         <v>9</v>
       </c>
       <c r="H86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I86">
         <v>37.485308791274598</v>
@@ -5626,15 +5715,15 @@
         <v>126.81026721772</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C87" s="11" t="s">
         <v>85</v>
@@ -5643,16 +5732,16 @@
         <v>3</v>
       </c>
       <c r="E87" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
       <c r="G87">
         <v>10</v>
       </c>
       <c r="H87" s="14" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="I87">
         <v>37.485678606400697</v>
@@ -5661,15 +5750,15 @@
         <v>126.81051785849201</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B88" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>70</v>
@@ -5678,7 +5767,7 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F88" s="14" t="s">
         <v>494</v>
@@ -5686,8 +5775,8 @@
       <c r="G88">
         <v>7</v>
       </c>
-      <c r="H88" t="s">
-        <v>207</v>
+      <c r="H88" s="12" t="s">
+        <v>529</v>
       </c>
       <c r="I88">
         <v>37.485336015207501</v>
@@ -5696,7 +5785,7 @@
         <v>126.808989487812</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spong\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangg\IdeaProjects\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8EAECCD4-B1EC-4F19-8F06-B10220021FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29318DF7-6DDA-45AF-B116-871F596056FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="512">
   <si>
     <t>분위기 좋은 에스프레소 바</t>
   </si>
@@ -317,6 +317,9 @@
     <t>술,중식</t>
   </si>
   <si>
+    <t>한식,분식</t>
+  </si>
+  <si>
     <t>한식,닭</t>
   </si>
   <si>
@@ -581,6 +584,9 @@
     <t>남경</t>
   </si>
   <si>
+    <t>안주</t>
+  </si>
+  <si>
     <t>지지고</t>
   </si>
   <si>
@@ -614,9 +620,6 @@
     <t>일식</t>
   </si>
   <si>
-    <t>녘곸</t>
-  </si>
-  <si>
     <t>맛닭꼬</t>
   </si>
   <si>
@@ -680,9 +683,6 @@
     <t>후참잘</t>
   </si>
   <si>
-    <t>보쌈</t>
-  </si>
-  <si>
     <t>국밥</t>
   </si>
   <si>
@@ -791,9 +791,6 @@
     <t>경기 부천시 원미구 부일로 718</t>
   </si>
   <si>
-    <t>경기 부천시 원미구 부일로 711</t>
-  </si>
-  <si>
     <t>경기 부천시 원미구 부일로 719</t>
   </si>
   <si>
@@ -893,9 +890,6 @@
     <t>제육볶음,김치찌개</t>
   </si>
   <si>
-    <t>010-2244</t>
-  </si>
-  <si>
     <t>010-2297</t>
   </si>
   <si>
@@ -1070,358 +1064,38 @@
     <t>경기 부천시 원미구 부일로 723 1층 일부호</t>
   </si>
   <si>
-    <t>images/남경.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/메밀꽃.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/THE 53.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/손가.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/춘천애닭갈비.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/울엄마 손칼국시.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/국밥포차.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/지지고.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/학교가는길.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/엽기떡볶이.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/나의 유부.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/쇼샤돈부리.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/매화스시.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/모야그집.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/스시마리오.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/멘야시오리.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/밀다.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/오르다.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/파로스 커피.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/메가커피.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/탕화쿵푸마라탕.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/북경.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/아빠짬뽕.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/새우식탁.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/크라이치즈버거.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/1983 PIZZA&amp;PUB.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/용용선생.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/녘곡.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/전주 막걸리 포차.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/인쌩맥주.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/삼일포차.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/금별맥주.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/낭만짚불구이.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/착한 돈삼이네.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/맛닭꼬.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/김부삼.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/꼬장 솥뚜껑 삼겹살.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/장군집 주먹고기.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/하남 돼지집.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/신동랩.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/본맛 송탄부대찌개.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/박지혜 모던순대국밥.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/조선 부뚜막.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/bbq.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/60계 치킨.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/파리바게트.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/치킨플러스.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/이디야.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/명가 순대국.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/이석민피자.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/도미노피자.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/한솥.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/토천 칼국수.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/히잇.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/꼬밥.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/소라관.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/마고 피자.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/서브웨이.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/신전떡볶이.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/네트.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/까르디.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/바다랑 회마차.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/역전할머니맥주.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/철길 부산집.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/꼬치포차 탄.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/꼬치 1호.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/장터즉석치킨.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/토시래.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/맘스터치(학교).jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/맘스터치(역곡).jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/등촌칼국수.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/피제이 피자.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/후참잘.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/매머드 익스프레스.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/황금루.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/홍천식당.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/승록이네.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/달콤할 시간.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/교촌치킨.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/나비루.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/킹콩부대찌개.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/일품 마라탕.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/청년다방.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/샐러디아.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/웰돈카츠.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/롯데리아.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>images/배불리찌개순대국감자탕.jpg</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>맛있음. 반주하기에 나쁘지 않음</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>미방문</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교에 가까운 중국집</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처 제육중 불향 가장 강합니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학교의 근처의 돼지갈비찜 맛집 </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비가 먹고싶다면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>칼국수 맛집 중에 하나</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>간단하게 먹고싶다면 나쁘지 않다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>분식,배달</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1430,14 +1104,30 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>밥을 더 먹을 수 있습니다. 분위기도 좋아요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>초밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>근처의 꽤 괜찮은 초밥집</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회덮밥도 좋은 선택입니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>일식</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>근처의 거의 유일한 라멘집</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>마들렌이 맛있습니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1450,18 +1140,50 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>900원 커피가 가성비가 좋다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>중식,데이트</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>학교 근처의 중국집 2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬뽕을 먹고싶다면 좋은 선택</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>양식,데이트</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>학교근처 국룰 소개팅 장소</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>사각피자 위에 노른자가 올라며 담백하다, tv에도 나온걸로 유명합니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>수제버거를 먹고싶다면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한상차림이 한상 가득히 나옴</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 프랜차이즈입니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운치킨 특성상 조리가 오래걸리기도 합니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>부속고기집이며 양이 꽤 괜찮습니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1486,6 +1208,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>학교앞에 있는 치킨가게</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이디야</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>순대가 수제라 맛있습니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1498,6 +1228,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>가격대비 양이 많음. 조개젓갈 맛있음</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">역 근처 중식집. </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1510,6 +1244,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>떡볶이</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>무난한 횟집</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1518,6 +1256,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>안가봄</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>맘스터치 가끔 늦게 나온다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>가끔씩 땡김</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1530,19 +1276,51 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>맛있음. 자리가 없을 수 있다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>건강해지고 싶다면.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>역 앞에 위치해 학교에서 가긴 멀지만 맛있습니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>든든한 해장이 가능</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>롯데리아</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>평범하게 한끼 떼우기 좋아요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식집을 가고싶다면 좋은 선택, tv에도 나왔다. 양 가격 부답없어요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>여러분이 잘아시는 엽기떡볶이 입니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>분위기 좋은데를 고르고 싶다면. 유부초밥이 생각보다 커서 든든해요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육의 불향이 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>여러분이 잘아시는 메가커피 입니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>여기 사라짐</t>
+    <t>빙수를 진짜 추천합니다. 오티로 많이 모이는 집이죠</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -1558,279 +1336,391 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>배고플때 학교에서 찾자.. 기숙사생 최고의 가성비 선택</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사장님께서 친절하시고 배부르게 한끼 해결 가능해요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치가 진짜 맛있고, 술집 분위기도 좋아요. 조용히 한잔하기에 좋아요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교보다 좋은 선택(컴공 이건희가 강력 추천합니다) 퀄리티가 다릅니다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격할인도 짱짱하고 맛있어요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>집밥먹는 느낌. 국물없는 제육 취향이신분들 여기 괜찮아요</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>호불호 많이 갈리는 부대찌개</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수타면이 먹을만 해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>럭셔리한 분식을 먹고 싶다면?</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
+    <t>다들 아는 역전그랜드마더맥주</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
     <t>성심여대일때 부터 존재하던 피자집. 가격도 괜찮고 먹을만 해요</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교맘터보다 좋은 선택(컴공 이건희가 매우매우 강력하게 추천합니다) 퀄리티가 다릅니다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 앞 탕화쿵부처럼 진한 땅콩소스맛 육수 안 좋아하고 라화쿵부나 홍리마라탕처럼 사골육수맛 좋아하는 사람들한테 추천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮다는 평이 많다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식위주로 매뉴가 다양해요. 평범하게 한끼 떼우기 좋아요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭갈비가 먹고싶다면? 점심 특선으로 9000원까지 합니다. 사람들이 잘 모르는 맛집.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>분식집을 가고싶다면 좋은 선택, tv에도 나왔다. 양 가격 부답없어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>생고기 전문점. 가격도 덜 부담스럽고 고기를 구워주셔서 좋아요. 만석이 자주 있는 곳.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>배고플때 학교에서 찾자.. 기숙사생 최고의 가성비 선택. 포장해서 기숙다식당에서 드셔도 좋아요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>다들 아는 역전그랜드마더비어</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛있음. 자리가 없을 수 있다. 특히 불향 나는 떡볶이가 일품이에요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>호불호 많이 갈리는 부대찌개. 밥이 무한이라서 배 채우기 걱정없어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>역 앞에 위치해 학교에서 가긴 멀지만 맛있습니다. 특히 모둠 먹으면 진짜 남길정도의 양</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교의 근처의 돼지갈비찜 맛집, 내부가 협소하고 시끄럽다는 단점도 있어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 맛있는 수제버거를 먹고싶다면? 생각보다 배가 안차서 개발자 본인은 2개 먹습니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분이 잘 아시는 bbq</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분이 잘 아시는 60계 치킨</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교앞에 있는 치킨가게. 전화 포장 주문 시 떡볶이 서비스 나갑니다. 개발자 본인은 치킨 따로먹고 떡볶이는 다음날 먹습니다. 2끼 해결가능!</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분이 잘 아시는 이디야</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격할인도 짱짱하고 맛있어요. 괜히 장사 잘 되는게 아님</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>수타면이 먹을만 해요. 사장님께서 너무 친절하심!</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 맛있는 뼈감자탕집. 뼈가 사람 뼈마냥 크고 푸짐합니다. 컴공 아저씨들은 일주일에 한번 씩은 가는집.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 근처 제육중 불향 가장 강합니다. 돼지 불백도 맛있고 반찬도 맛있는 집. 집밥이 그리울땐..?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭 칼국수 맛집 중에 하나. 여름에 판매하는 비빔국수도 일품이에요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>밥과 비빔 우동이 있다. 가격도 너무 저렴하고 맛이 있어요. 다만 너무 기름져 느끼하실 수도 있어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육의 불향이 좋아요. 자극적인 것을 좋아하시면 추천드립니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>근처의 거의 유일한 라멘집. 일본 라면인데 소주가 땡기는 국물.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>900원 커피가 가성비가 좋아요. 가대생들의 카페인을 책임지는 곳.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교근처 국룰 소개팅 장소. 전 매뉴가 양식이고 대부분 새우가 들어가요. 맛있어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>한상차림이 한상 가득히 나옴. 전과 막걸리가 먹고 싶을땐?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>무난한 프랜차이즈입니다. 개발자 본인이 알바 하면서 느낀.. 안주를 너무 정성스럽게 맛있게 만들어 맥주가 맛있게 느껴지는 곳</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">빙수를 진짜 추천합니다. 오티로 많이 모이는 집이죠. 안주 3+1 이벤트하는 곳 입니다. </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>구운치킨 특성상 조리가 오래걸리기도 합니다. 하지만 구은 치킨을 좋아하시는 분들께 추천드립니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격 괜찮아서 가는 곳입니다. 가격 대비 맛도 있어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격대비 양이 많음. 조개젓갈 맛있음. 사람들이 잘 모르는 칼국수 맛집 중 하나.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>사장님께서 친절하시고 엄청 배부르게 한끼 해결 가능해요. 다만 재료들이 자극적이라 자주 못먹는게 단점입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분이 잘 아시는 신전 떡볶이. 자극적인 떡볶이를 원하시면 추천해요. 긱사 생분들은 1인 메뉴도 추천드릴게요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분이 잘 아시는 롯데리아</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교에 가장 가까운 중국집. 전 매뉴가 평타이상은 합니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>근처의 꽤 괜찮은 초밥집. 가격은 좀 나가지만 학교 상권치고 퀄이 좋은편 입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>비싼 마라전골도 맛있지만, 기본 마라탕이 맛있는곳. 마라탕 혼밥도 가능한 곳.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 근처의 중국집. 남경이 자리가 없으면 여기 갑니다. 남경과 맛은 동일해요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>분위기 좋고 가격도 착해요. 마라전골과 유린기가 맛있어요. 다양한 세트가 준비되서 가볼만한 곳,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">레트로 감성 가득한 맥주집. 역쪽이라 언제나 사람이 많아요. </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">너무 맛있고 사장님께서도 친절한 집. 분위기가 좋아서 연인이나 소개팅 자리도 가능해요. 1차,2차로도 가능한 곳. </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>직접 구워주시고 가성비도 좋고 고기도 좋아서 단골이 많은 집이에요. 볶음밥은 국룰.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>역곡의 퀄리티 있는 필터 커피를 즐기고 싶다면..?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 안주가 맛있지만 특히 치킨 가라아케가 맛있는 집. 대화하기도 좋은 가게.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치가 진짜 맛있고, 술집 분위기도 좋아요. 조용히 한잔하기에 좋아요. 저녁에는 자주 매진이 되는 집.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여기 닭꼬치가 맛있어요. 서비스도 잘 주시는 가게.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>튀김 옷도 얇고 맛있는 집. 하지만 그때그때 맛의 편차가 좀 있다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 반찬도 맛있고 족발도 야들야들 하니 맛있다. 막국수도 양도 많고 존맛. 술도둑 입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 국제관 1충에 있는 곳. 여러분이 아시는 메머드 커피.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장이 깔끔하고 조용해서 대화 나누거나 과제하기 좋은 곳.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>혼밥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>중식,혼밥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식,혼밥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>분식,혼밥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>분위기 좋은데를 고르고 싶다면. 유부초밥이 생각보다 커서 든든해요. 개발자 본인 얼굴 만합니다(저 얼굴 커요).</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>밥을 더 먹을 수 있습니다. 분위기도 좋아요. 덮밥 맛집입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가톨릭대 근처에서 회덮밥을 먹고 싶으면 추천.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>짬뽕을 먹고싶다면 좋은 선택. 차돌 짬뽕이 진짜 맛있어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>일식,혼밥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>양식,혼밥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>한식,분식,혼밥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>양식,배달,혼밥</t>
+    <t>가격 괜찮아서 가는 곳입니다. 가격 대비 맛도 있어요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/남경.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/메밀꽃.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/THE 53.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/손가.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/춘천애닭갈비.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/울엄마 손칼국시.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/국밥포차.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/지지고.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/엽기떡볶이.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/나의 유부.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/쇼샤돈부리.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/매화스시.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/모야그집.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/스시마리오.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/멘야시오리.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/밀다.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/오르다.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/파로스 커피.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/메가커피.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/탕화쿵푸마라탕.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/북경.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/아빠짬뽕.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/새우식탁.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/크라이치즈버거.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/1983 PIZZA&amp;PUB.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/용용선생.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/전주 막걸리 포차.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/인쌩맥주.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/삼일포차.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/금별맥주.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/낭만짚불구이.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/착한 돈삼이네.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/맛닭꼬.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/김부삼.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/꼬장 솥뚜껑 삼겹살.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/장군집.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/하남 돼지집.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/신동랩.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/본맛 송탄부대찌개.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/박지혜 모던순대국.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/조선 부뚜막.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/bbq.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/60계 치킨.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/파리바게트.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/치킨플러스.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/이디야.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/명가 순대국.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/이석민피자.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/도미노피자.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/한솥.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/토천 칼국수.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/히잇.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/꼬밥.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/소라관.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/마고 피자.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/서브웨이.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/신전떡볶이.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/네트.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/까르디.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/바다랑 회마차.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/역전할머니맥주.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/철길 부산집.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/꼬치포차 탄.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/꼬치 1호.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/장터즉석치킨.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/토시래.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/맘스터치.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/등촌칼국수.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/피제이 피자.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/후참잘.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/매머드 익스프레스.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/황금루.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/홍천식당.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/승록이네.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/달콤할 시간.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/교촌치킨.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/나비루.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/킹콩부대찌개.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/일품 마라탕.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/청년다방.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/샐러디아.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/웰돈카츠.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/롯데리아.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/배불리찌개순대국감자탕.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/학교가는길.webp</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1959,7 +1849,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2007,9 +1897,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2567,122 +2454,122 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B5" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="A14" s="12" t="s">
-        <v>527</v>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>236</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2695,57 +2582,57 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K88"/>
+  <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="17.5" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.83203125" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
+    <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="H1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="I1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J1" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>249</v>
@@ -2757,16 +2644,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>511</v>
+        <v>349</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>528</v>
+      <c r="H2" t="s">
+        <v>200</v>
       </c>
       <c r="I2">
         <v>37.486217440038999</v>
@@ -2775,15 +2662,15 @@
         <v>126.80527293775</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -2792,16 +2679,16 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>477</v>
+        <v>405</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="12" t="s">
-        <v>529</v>
+      <c r="H3" t="s">
+        <v>206</v>
       </c>
       <c r="I3">
         <v>37.485605899757097</v>
@@ -2810,12 +2697,12 @@
         <v>126.80460177190599</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>252</v>
@@ -2827,16 +2714,16 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>495</v>
+        <v>350</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>529</v>
+      <c r="H4" t="s">
+        <v>206</v>
       </c>
       <c r="I4">
         <v>37.484743157313098</v>
@@ -2845,15 +2732,15 @@
         <v>126.808713984352</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -2862,10 +2749,10 @@
         <v>4.5</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>486</v>
+        <v>351</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -2880,12 +2767,12 @@
         <v>126.809960322531</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>245</v>
@@ -2900,13 +2787,13 @@
         <v>225</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>478</v>
+        <v>352</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="I6">
         <v>37.485043914860903</v>
@@ -2915,15 +2802,15 @@
         <v>126.809439672441</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -2932,16 +2819,16 @@
         <v>4.5</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>496</v>
+        <v>353</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>529</v>
+      <c r="H7" t="s">
+        <v>206</v>
       </c>
       <c r="I7">
         <v>37.485259103938198</v>
@@ -2950,15 +2837,15 @@
         <v>126.806024495491</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -2967,16 +2854,16 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>436</v>
+        <v>347</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" s="12" t="s">
-        <v>529</v>
+      <c r="H8" t="s">
+        <v>206</v>
       </c>
       <c r="I8">
         <v>37.4846394516712</v>
@@ -2985,15 +2872,15 @@
         <v>126.807272653455</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.45">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>38</v>
@@ -3002,16 +2889,16 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>497</v>
+        <v>354</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" s="12" t="s">
-        <v>530</v>
+      <c r="H9" t="s">
+        <v>211</v>
       </c>
       <c r="I9">
         <v>37.486252715190901</v>
@@ -3020,15 +2907,15 @@
         <v>126.804809264423</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.45">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>22</v>
@@ -3037,16 +2924,16 @@
         <v>3.5</v>
       </c>
       <c r="E10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" s="12" t="s">
-        <v>531</v>
+      <c r="H10" t="s">
+        <v>206</v>
       </c>
       <c r="I10">
         <v>37.485497186636003</v>
@@ -3055,12 +2942,12 @@
         <v>126.806982127745</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="42.5" x14ac:dyDescent="0.45">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>243</v>
@@ -3072,16 +2959,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>465</v>
+        <v>407</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>437</v>
+        <v>355</v>
       </c>
       <c r="I11">
         <v>37.484953499782101</v>
@@ -3090,15 +2977,15 @@
         <v>126.809244861902</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.45">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
@@ -3107,16 +2994,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>532</v>
+        <v>408</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="I12">
         <v>37.485489281787402</v>
@@ -3125,15 +3012,15 @@
         <v>126.806281129108</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
@@ -3142,16 +3029,16 @@
         <v>3.5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>533</v>
+        <v>357</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="I13">
         <v>37.484376124816201</v>
@@ -3160,12 +3047,12 @@
         <v>126.807406182305</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>255</v>
@@ -3177,16 +3064,16 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>439</v>
+        <v>358</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>512</v>
+        <v>359</v>
       </c>
       <c r="G14">
         <v>9</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>438</v>
+        <v>356</v>
       </c>
       <c r="I14">
         <v>37.485087045156199</v>
@@ -3195,15 +3082,15 @@
         <v>126.809645910124</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>35</v>
@@ -3212,16 +3099,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>498</v>
+        <v>409</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" s="12" t="s">
-        <v>536</v>
+      <c r="H15" t="s">
+        <v>198</v>
       </c>
       <c r="I15">
         <v>37.484322028046897</v>
@@ -3230,15 +3117,15 @@
         <v>126.806007131678</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.45">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>37</v>
@@ -3250,13 +3137,13 @@
         <v>223</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>534</v>
+        <v>360</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>440</v>
+        <v>361</v>
       </c>
       <c r="I16">
         <v>37.484822724520697</v>
@@ -3265,15 +3152,15 @@
         <v>126.807775328921</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.45">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>23</v>
@@ -3285,13 +3172,13 @@
         <v>222</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>499</v>
+        <v>362</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="I17">
         <v>37.484953508909399</v>
@@ -3300,15 +3187,15 @@
         <v>126.809250515218</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.45">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>33</v>
@@ -3320,7 +3207,7 @@
         <v>221</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>441</v>
+        <v>363</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -3335,12 +3222,12 @@
         <v>126.807206921003</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.45">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>251</v>
@@ -3355,13 +3242,13 @@
         <v>93</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>442</v>
+        <v>364</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="I19">
         <v>37.485793357720603</v>
@@ -3370,15 +3257,15 @@
         <v>126.804903740664</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>34</v>
@@ -3390,13 +3277,13 @@
         <v>238</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>500</v>
+        <v>366</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I20">
         <v>37.485609802936601</v>
@@ -3405,12 +3292,12 @@
         <v>126.80560241137501</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.45">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>246</v>
@@ -3425,7 +3312,7 @@
         <v>238</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>466</v>
+        <v>410</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3440,15 +3327,15 @@
         <v>126.804958775329</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.45">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>67</v>
@@ -3460,13 +3347,13 @@
         <v>3</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>513</v>
+        <v>348</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>444</v>
+        <v>367</v>
       </c>
       <c r="I22">
         <v>37.485784678924702</v>
@@ -3475,15 +3362,15 @@
         <v>126.805104458966</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>49</v>
@@ -3492,16 +3379,16 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>514</v>
+        <v>368</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23" s="12" t="s">
-        <v>528</v>
+      <c r="H23" t="s">
+        <v>200</v>
       </c>
       <c r="I23">
         <v>37.485472117984301</v>
@@ -3510,12 +3397,12 @@
         <v>126.806804110846</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>248</v>
@@ -3530,13 +3417,13 @@
         <v>234</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>535</v>
+        <v>369</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
-      <c r="H24" s="12" t="s">
-        <v>528</v>
+      <c r="H24" t="s">
+        <v>200</v>
       </c>
       <c r="I24">
         <v>37.4876187047714</v>
@@ -3545,15 +3432,15 @@
         <v>126.809540549543</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.45">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>20</v>
@@ -3562,16 +3449,16 @@
         <v>3.5</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>501</v>
+        <v>371</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>445</v>
+        <v>370</v>
       </c>
       <c r="I25">
         <v>37.486371424902799</v>
@@ -3580,15 +3467,15 @@
         <v>126.80440190752201</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -3597,16 +3484,16 @@
         <v>3.5</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>487</v>
+        <v>373</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>537</v>
+      <c r="H26" t="s">
+        <v>205</v>
       </c>
       <c r="I26">
         <v>37.485452852107699</v>
@@ -3615,15 +3502,15 @@
         <v>126.80604378137799</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="34" x14ac:dyDescent="0.45">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>16</v>
@@ -3632,16 +3519,16 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="I27">
         <v>37.4852771880539</v>
@@ -3650,15 +3537,15 @@
         <v>126.807440616127</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.45">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
@@ -3667,10 +3554,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>515</v>
+        <v>348</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -3685,593 +3572,593 @@
         <v>126.811050906527</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.45">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>197</v>
+        <v>332</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="C29" s="10" t="s">
-        <v>290</v>
+      <c r="C29" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>219</v>
-      </c>
-      <c r="F29" s="14" t="s">
-        <v>467</v>
+        <v>334</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>374</v>
       </c>
       <c r="G29">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>217</v>
+        <v>100</v>
       </c>
       <c r="I29">
-        <v>37.485229754054899</v>
+        <v>37.485463400737999</v>
       </c>
       <c r="J29">
-        <v>126.808746663889</v>
+        <v>126.809760849471</v>
       </c>
       <c r="K29" s="12" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>168</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="G30">
+        <v>9</v>
+      </c>
+      <c r="H30" t="s">
+        <v>218</v>
+      </c>
+      <c r="I30">
+        <v>37.485134516293101</v>
+      </c>
+      <c r="J30">
+        <v>126.80975037669999</v>
+      </c>
+      <c r="K30" s="12" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>230</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="G31">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>218</v>
+      </c>
+      <c r="I31">
+        <v>37.485578293433598</v>
+      </c>
+      <c r="J31">
+        <v>126.811173904604</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>111</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>168</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G32">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>218</v>
+      </c>
+      <c r="I32">
+        <v>37.485546523304997</v>
+      </c>
+      <c r="J32">
+        <v>126.811026996593</v>
+      </c>
+      <c r="K32" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>181</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G33">
+        <v>8</v>
+      </c>
+      <c r="H33" t="s">
+        <v>213</v>
+      </c>
+      <c r="I33">
+        <v>37.48501471886</v>
+      </c>
+      <c r="J33">
+        <v>126.809493453358</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34" t="s">
+        <v>213</v>
+      </c>
+      <c r="I34">
+        <v>37.485252269681297</v>
+      </c>
+      <c r="J34">
+        <v>126.810137333348</v>
+      </c>
+      <c r="K34" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>162</v>
+      </c>
+      <c r="F35" s="13" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A30" t="s">
-        <v>334</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>336</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>502</v>
-      </c>
-      <c r="G30">
+      <c r="G35">
         <v>8</v>
       </c>
-      <c r="H30" t="s">
-        <v>99</v>
-      </c>
-      <c r="I30">
-        <v>37.485463400737999</v>
-      </c>
-      <c r="J30">
-        <v>126.809760849471</v>
-      </c>
-      <c r="K30" s="12" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A31" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31">
-        <v>3</v>
-      </c>
-      <c r="E31" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>503</v>
-      </c>
-      <c r="G31">
-        <v>9</v>
-      </c>
-      <c r="H31" t="s">
-        <v>217</v>
-      </c>
-      <c r="I31">
-        <v>37.485134516293101</v>
-      </c>
-      <c r="J31">
-        <v>126.80975037669999</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="34" x14ac:dyDescent="0.45">
-      <c r="A32" t="s">
-        <v>124</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="G32">
-        <v>11</v>
-      </c>
-      <c r="H32" t="s">
-        <v>217</v>
-      </c>
-      <c r="I32">
-        <v>37.485578293433598</v>
-      </c>
-      <c r="J32">
-        <v>126.811173904604</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" t="s">
-        <v>167</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>516</v>
-      </c>
-      <c r="G33">
-        <v>10</v>
-      </c>
-      <c r="H33" t="s">
-        <v>217</v>
-      </c>
-      <c r="I33">
-        <v>37.485546523304997</v>
-      </c>
-      <c r="J33">
-        <v>126.811026996593</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A34" t="s">
-        <v>181</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>180</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>517</v>
-      </c>
-      <c r="G34">
-        <v>8</v>
-      </c>
-      <c r="H34" t="s">
-        <v>212</v>
-      </c>
-      <c r="I34">
-        <v>37.48501471886</v>
-      </c>
-      <c r="J34">
-        <v>126.809493453358</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>226</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>480</v>
-      </c>
-      <c r="G35">
-        <v>9</v>
-      </c>
       <c r="H35" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
       <c r="I35">
-        <v>37.485252269681297</v>
+        <v>37.485320918690398</v>
       </c>
       <c r="J35">
-        <v>126.810137333348</v>
+        <v>126.80940504867399</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="51" x14ac:dyDescent="0.45">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>161</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>505</v>
+        <v>90</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>426</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="I36">
-        <v>37.485320918690398</v>
+        <v>37.484953504345803</v>
       </c>
       <c r="J36">
-        <v>126.80940504867399</v>
+        <v>126.80924768856001</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>209</v>
+        <v>335</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>90</v>
+        <v>297</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>506</v>
+        <v>348</v>
       </c>
       <c r="G37">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I37">
-        <v>37.484953504345803</v>
+        <v>37.485105646383197</v>
       </c>
       <c r="J37">
-        <v>126.80924768856001</v>
+        <v>126.80861129985701</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>41</v>
+        <v>319</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>30</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>299</v>
+        <v>149</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>518</v>
+        <v>377</v>
       </c>
       <c r="G38">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H38" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I38">
-        <v>37.485105646383197</v>
+        <v>37.485842245137803</v>
       </c>
       <c r="J38">
-        <v>126.80861129985701</v>
+        <v>126.810022772203</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>284</v>
+        <v>101</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>30</v>
+        <v>275</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>18</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>148</v>
+        <v>293</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>447</v>
+        <v>412</v>
       </c>
       <c r="G39">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I39">
-        <v>37.485842245137803</v>
+        <v>37.484711799258001</v>
       </c>
       <c r="J39">
-        <v>126.810022772203</v>
+        <v>126.80743641390001</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>276</v>
+        <v>344</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E40" t="s">
-        <v>295</v>
+        <v>158</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>468</v>
+        <v>378</v>
       </c>
       <c r="G40">
-        <v>5</v>
-      </c>
-      <c r="H40" t="s">
-        <v>212</v>
+        <v>1</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>356</v>
       </c>
       <c r="I40">
-        <v>37.484711799258001</v>
+        <v>37.485713367130501</v>
       </c>
       <c r="J40">
-        <v>126.80743641390001</v>
+        <v>126.80557104935301</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>285</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>346</v>
+        <v>265</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D41">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>157</v>
+        <v>177</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
-      <c r="H41" s="14" t="s">
-        <v>438</v>
+      <c r="H41" t="s">
+        <v>206</v>
       </c>
       <c r="I41">
-        <v>37.485713367130501</v>
+        <v>37.4864311346047</v>
       </c>
       <c r="J41">
-        <v>126.80557104935301</v>
+        <v>126.805094299427</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>28</v>
+        <v>258</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="D42">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E42" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>470</v>
+        <v>413</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I42">
-        <v>37.4864311346047</v>
+        <v>37.4855968850514</v>
       </c>
       <c r="J42">
-        <v>126.805094299427</v>
+        <v>126.804598968691</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>121</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>53</v>
+        <v>267</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>60</v>
       </c>
       <c r="D43">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="E43" t="s">
-        <v>220</v>
+        <v>281</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>469</v>
+        <v>379</v>
       </c>
       <c r="G43">
-        <v>1</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>529</v>
+        <v>6</v>
+      </c>
+      <c r="H43" t="s">
+        <v>213</v>
       </c>
       <c r="I43">
-        <v>37.4855968850514</v>
+        <v>37.484507658332703</v>
       </c>
       <c r="J43">
-        <v>126.804598968691</v>
+        <v>126.80795138859099</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="D44">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>449</v>
+        <v>348</v>
       </c>
       <c r="G44">
         <v>6</v>
       </c>
-      <c r="H44" t="s">
-        <v>212</v>
+      <c r="H44" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="I44">
-        <v>37.484507658332703</v>
+        <v>37.484494157064901</v>
       </c>
       <c r="J44">
-        <v>126.80795138859099</v>
+        <v>126.807959903106</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>124</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>288</v>
+        <v>150</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>488</v>
+        <v>348</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>450</v>
+        <v>380</v>
       </c>
       <c r="I45">
         <v>37.484494157064901</v>
@@ -4280,193 +4167,193 @@
         <v>126.807959903106</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>123</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>268</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>63</v>
+        <v>262</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>76</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
-      <c r="E46" t="s">
-        <v>149</v>
+      <c r="E46" s="14" t="s">
+        <v>381</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>489</v>
+        <v>382</v>
       </c>
       <c r="G46">
-        <v>6</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>450</v>
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>95</v>
       </c>
       <c r="I46">
-        <v>37.484494157064901</v>
+        <v>37.485883383334297</v>
       </c>
       <c r="J46">
-        <v>126.807959903106</v>
+        <v>126.804858279291</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.45">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>76</v>
+        <v>269</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47" s="14" t="s">
-        <v>451</v>
+      <c r="E47" t="s">
+        <v>179</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>452</v>
+        <v>383</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I47">
-        <v>37.485883383334297</v>
+        <v>37.486122592368602</v>
       </c>
       <c r="J47">
-        <v>126.804858279291</v>
+        <v>126.805126194846</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>194</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>43</v>
+        <v>269</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>490</v>
+        <v>384</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I48">
-        <v>37.486122592368602</v>
+        <v>37.486014334435502</v>
       </c>
       <c r="J48">
-        <v>126.805126194846</v>
+        <v>126.805043088126</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.45">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>192</v>
+        <v>138</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>54</v>
+        <v>276</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="D49">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E49" t="s">
-        <v>238</v>
+        <v>155</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>491</v>
+        <v>385</v>
       </c>
       <c r="G49">
+        <v>8</v>
+      </c>
+      <c r="H49" t="s">
+        <v>206</v>
+      </c>
+      <c r="I49">
+        <v>37.487799763159799</v>
+      </c>
+      <c r="J49">
+        <v>126.81007293726</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>122</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>230</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="G50">
         <v>1</v>
       </c>
-      <c r="H49" t="s">
-        <v>95</v>
-      </c>
-      <c r="I49">
-        <v>37.486014334435502</v>
-      </c>
-      <c r="J49">
-        <v>126.805043088126</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D50">
-        <v>3.5</v>
-      </c>
-      <c r="E50" t="s">
-        <v>154</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="G50">
-        <v>8</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>529</v>
+      <c r="H50" t="s">
+        <v>205</v>
       </c>
       <c r="I50">
-        <v>37.487799763159799</v>
+        <v>37.485764012101299</v>
       </c>
       <c r="J50">
-        <v>126.81007293726</v>
+        <v>126.80486565653</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.45">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>80</v>
+        <v>318</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="D51">
         <v>3</v>
@@ -4475,1317 +4362,1282 @@
         <v>230</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>473</v>
+        <v>386</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
-      <c r="H51" t="s">
-        <v>204</v>
+      <c r="H51" s="14" t="s">
+        <v>387</v>
       </c>
       <c r="I51">
-        <v>37.485764012101299</v>
+        <v>37.485587896057297</v>
       </c>
       <c r="J51">
-        <v>126.80486565653</v>
+        <v>126.804611712222</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.45">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>212</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>320</v>
+        <v>251</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>454</v>
+        <v>415</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" s="14" t="s">
-        <v>455</v>
+      <c r="H52" t="s">
+        <v>98</v>
       </c>
       <c r="I52">
-        <v>37.485587896057297</v>
+        <v>37.485741491693297</v>
       </c>
       <c r="J52">
-        <v>126.804611712222</v>
+        <v>126.804868541803</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.45">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>211</v>
+        <v>147</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>39</v>
+        <v>344</v>
+      </c>
+      <c r="C53" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="D53">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E53" t="s">
-        <v>175</v>
+        <v>233</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>481</v>
+        <v>388</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
-      <c r="H53" s="12" t="s">
-        <v>538</v>
+      <c r="H53" t="s">
+        <v>206</v>
       </c>
       <c r="I53">
-        <v>37.485741491693297</v>
+        <v>37.485717869820199</v>
       </c>
       <c r="J53">
-        <v>126.804868541803</v>
+        <v>126.80556962433501</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.45">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>346</v>
+        <v>304</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="D54">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="E54" t="s">
-        <v>233</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>507</v>
+        <v>94</v>
+      </c>
+      <c r="F54" t="s">
+        <v>340</v>
       </c>
       <c r="G54">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>95</v>
+      </c>
+      <c r="I54">
+        <v>37.484423764315302</v>
+      </c>
+      <c r="J54">
+        <v>126.80623441389299</v>
+      </c>
+      <c r="K54" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" t="s">
+        <v>232</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="G55">
         <v>1</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
+        <v>211</v>
+      </c>
+      <c r="I55">
+        <v>37.486280815262703</v>
+      </c>
+      <c r="J55">
+        <v>126.805457923362</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="G56">
+        <v>9</v>
+      </c>
+      <c r="H56" t="s">
+        <v>200</v>
+      </c>
+      <c r="I56">
+        <v>37.485229715068598</v>
+      </c>
+      <c r="J56">
+        <v>126.810119017007</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>132</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57">
+        <v>3.7</v>
+      </c>
+      <c r="E57" t="s">
+        <v>294</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G57">
+        <v>3</v>
+      </c>
+      <c r="H57" t="s">
         <v>205</v>
       </c>
-      <c r="I54">
-        <v>37.485717869820199</v>
-      </c>
-      <c r="J54">
-        <v>126.80556962433501</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A55" t="s">
-        <v>231</v>
-      </c>
-      <c r="B55" s="3" t="s">
+      <c r="I57">
+        <v>37.485806101015598</v>
+      </c>
+      <c r="J57">
+        <v>126.807177788738</v>
+      </c>
+      <c r="K57" s="12" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>126</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D58">
+        <v>3</v>
+      </c>
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="G58">
+        <v>9</v>
+      </c>
+      <c r="H58" t="s">
+        <v>205</v>
+      </c>
+      <c r="I58">
+        <v>37.4856445443829</v>
+      </c>
+      <c r="J58">
+        <v>126.810346929445</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59" t="s">
+        <v>167</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>392</v>
+      </c>
+      <c r="G59">
+        <v>5</v>
+      </c>
+      <c r="H59" t="s">
+        <v>211</v>
+      </c>
+      <c r="I59">
+        <v>37.484632488894697</v>
+      </c>
+      <c r="J59">
+        <v>126.807146885097</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C55" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D55">
-        <v>4.5</v>
-      </c>
-      <c r="E55" t="s">
-        <v>94</v>
-      </c>
-      <c r="F55" t="s">
-        <v>342</v>
-      </c>
-      <c r="G55">
-        <v>3</v>
-      </c>
-      <c r="H55" t="s">
-        <v>95</v>
-      </c>
-      <c r="I55">
-        <v>37.484423764315302</v>
-      </c>
-      <c r="J55">
-        <v>126.80623441389299</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A56" t="s">
-        <v>190</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>274</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D56">
-        <v>3</v>
-      </c>
-      <c r="E56" t="s">
-        <v>232</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="G56">
+      <c r="C60" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60">
+        <v>3</v>
+      </c>
+      <c r="E60" t="s">
+        <v>238</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G60">
         <v>1</v>
       </c>
-      <c r="H56" s="12" t="s">
-        <v>530</v>
-      </c>
-      <c r="I56">
-        <v>37.486280815262703</v>
-      </c>
-      <c r="J56">
-        <v>126.805457923362</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A57" t="s">
-        <v>241</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D57">
-        <v>3</v>
-      </c>
-      <c r="E57" t="s">
-        <v>183</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="G57">
-        <v>9</v>
-      </c>
-      <c r="H57" t="s">
-        <v>199</v>
-      </c>
-      <c r="I57">
-        <v>37.485229715068598</v>
-      </c>
-      <c r="J57">
-        <v>126.810119017007</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="D58">
-        <v>3.7</v>
-      </c>
-      <c r="E58" t="s">
-        <v>296</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="G58">
-        <v>3</v>
-      </c>
-      <c r="H58" t="s">
-        <v>204</v>
-      </c>
-      <c r="I58">
-        <v>37.485806101015598</v>
-      </c>
-      <c r="J58">
-        <v>126.807177788738</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A59" t="s">
-        <v>125</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59">
-        <v>3</v>
-      </c>
-      <c r="E59" t="s">
-        <v>168</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="G59">
-        <v>9</v>
-      </c>
-      <c r="H59" t="s">
-        <v>204</v>
-      </c>
-      <c r="I59">
-        <v>37.4856445443829</v>
-      </c>
-      <c r="J59">
-        <v>126.810346929445</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A60" t="s">
-        <v>139</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D60">
-        <v>3</v>
-      </c>
-      <c r="E60" t="s">
-        <v>166</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>509</v>
-      </c>
-      <c r="G60">
-        <v>5</v>
-      </c>
-      <c r="H60" s="12" t="s">
-        <v>530</v>
+      <c r="H60" s="14" t="s">
+        <v>365</v>
       </c>
       <c r="I60">
-        <v>37.484632488894697</v>
+        <v>37.485713029704101</v>
       </c>
       <c r="J60">
-        <v>126.807146885097</v>
+        <v>126.805366114637</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.45">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C61" s="6" t="s">
-        <v>64</v>
+        <v>266</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="D61">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="E61" t="s">
         <v>238</v>
       </c>
-      <c r="F61" s="14" t="s">
-        <v>519</v>
+      <c r="F61" t="s">
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>443</v>
+        <v>365</v>
       </c>
       <c r="I61">
-        <v>37.485713029704101</v>
+        <v>37.484983408219797</v>
       </c>
       <c r="J61">
-        <v>126.805366114637</v>
+        <v>126.808239904519</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.45">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>141</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>68</v>
+        <v>274</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="D62">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>238</v>
-      </c>
-      <c r="F62" t="s">
-        <v>0</v>
+        <v>217</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>393</v>
       </c>
       <c r="G62">
-        <v>6</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>443</v>
+        <v>9</v>
+      </c>
+      <c r="H62" t="s">
+        <v>206</v>
       </c>
       <c r="I62">
-        <v>37.484983408219797</v>
+        <v>37.485630525260497</v>
       </c>
       <c r="J62">
-        <v>126.808239904519</v>
+        <v>126.81003320175201</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.45">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>140</v>
+        <v>185</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="C63" s="6" t="s">
-        <v>56</v>
+        <v>310</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>459</v>
+        <v>424</v>
       </c>
       <c r="G63">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="I63">
-        <v>37.485630525260497</v>
+        <v>37.485934863757898</v>
       </c>
       <c r="J63">
-        <v>126.81003320175201</v>
+        <v>126.81018789999401</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.45">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
-      <c r="E64" t="s">
-        <v>167</v>
+      <c r="E64" s="14" t="s">
+        <v>394</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>482</v>
+        <v>348</v>
       </c>
       <c r="G64">
         <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I64">
-        <v>37.485934863757898</v>
+        <v>37.485878582837401</v>
       </c>
       <c r="J64">
-        <v>126.81018789999401</v>
+        <v>126.810207829315</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.45">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C65" s="11" t="s">
-        <v>40</v>
+        <v>311</v>
+      </c>
+      <c r="C65" s="6" t="s">
+        <v>66</v>
       </c>
       <c r="D65">
-        <v>3</v>
-      </c>
-      <c r="E65" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>520</v>
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>180</v>
+      </c>
+      <c r="F65" s="12" t="s">
+        <v>417</v>
       </c>
       <c r="G65">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H65" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="I65">
-        <v>37.485878582837401</v>
+        <v>37.487146131786702</v>
       </c>
       <c r="J65">
-        <v>126.810207829315</v>
+        <v>126.811227906865</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.45">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C66" s="6" t="s">
-        <v>66</v>
+        <v>321</v>
+      </c>
+      <c r="C66" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="D66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>179</v>
-      </c>
-      <c r="F66" s="12" t="s">
-        <v>521</v>
+        <v>237</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>348</v>
       </c>
       <c r="G66">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H66" t="s">
         <v>96</v>
       </c>
       <c r="I66">
-        <v>37.487146131786702</v>
+        <v>37.486354841323397</v>
       </c>
       <c r="J66">
-        <v>126.811227906865</v>
+        <v>126.810817196481</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.45">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>183</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>48</v>
+        <v>328</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>42</v>
       </c>
       <c r="D67">
         <v>3</v>
       </c>
       <c r="E67" t="s">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>522</v>
+        <v>348</v>
       </c>
       <c r="G67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H67" t="s">
         <v>96</v>
       </c>
       <c r="I67">
-        <v>37.486354841323397</v>
+        <v>37.4861341814998</v>
       </c>
       <c r="J67">
-        <v>126.810817196481</v>
+        <v>126.810871460472</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.45">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>214</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>523</v>
+        <v>348</v>
       </c>
       <c r="G68">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H68" t="s">
-        <v>96</v>
+        <v>213</v>
       </c>
       <c r="I68">
-        <v>37.4861341814998</v>
+        <v>37.486465666514498</v>
       </c>
       <c r="J68">
-        <v>126.810871460472</v>
+        <v>126.81109958965401</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.45">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>339</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>327</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>45</v>
+        <v>268</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>50</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>213</v>
+        <v>173</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>524</v>
+        <v>396</v>
       </c>
       <c r="G69">
-        <v>10</v>
-      </c>
-      <c r="H69" t="s">
-        <v>212</v>
+        <v>1</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>387</v>
       </c>
       <c r="I69">
-        <v>37.486465666514498</v>
+        <v>37.485496488895201</v>
       </c>
       <c r="J69">
-        <v>126.81109958965401</v>
+        <v>126.80382330388299</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.45">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
         <v>341</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>269</v>
+        <v>253</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="D70">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>476</v>
+        <v>418</v>
       </c>
       <c r="G70">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>539</v>
+        <v>387</v>
       </c>
       <c r="I70">
-        <v>37.485496488895201</v>
+        <v>37.484991922466399</v>
       </c>
       <c r="J70">
-        <v>126.80382330388299</v>
+        <v>126.80932532433</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.45">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>343</v>
+        <v>131</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>253</v>
+        <v>345</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D71">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="E71" t="s">
         <v>172</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>474</v>
+        <v>397</v>
       </c>
       <c r="G71">
-        <v>8</v>
-      </c>
-      <c r="H71" s="14" t="s">
-        <v>539</v>
+        <v>7</v>
+      </c>
+      <c r="H71" t="s">
+        <v>206</v>
       </c>
       <c r="I71">
-        <v>37.484991922466399</v>
+        <v>37.485500345476098</v>
       </c>
       <c r="J71">
-        <v>126.80932532433</v>
+        <v>126.808925468913</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.45">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C72" s="11" t="s">
-        <v>78</v>
+        <v>277</v>
+      </c>
+      <c r="C72" s="6" t="s">
+        <v>89</v>
       </c>
       <c r="D72">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>171</v>
+        <v>215</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>461</v>
+        <v>398</v>
       </c>
       <c r="G72">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H72" t="s">
         <v>205</v>
       </c>
       <c r="I72">
-        <v>37.485500345476098</v>
+        <v>37.4871579145832</v>
       </c>
       <c r="J72">
-        <v>126.808925468913</v>
+        <v>126.807363706692</v>
       </c>
       <c r="K72" s="12" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>219</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C73" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>179</v>
+      </c>
+      <c r="F73" s="14" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A73" t="s">
-        <v>135</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="C73" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D73">
-        <v>3</v>
-      </c>
-      <c r="E73" t="s">
-        <v>214</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>462</v>
-      </c>
       <c r="G73">
-        <v>4</v>
-      </c>
-      <c r="H73" t="s">
-        <v>204</v>
+        <v>5</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="I73">
-        <v>37.4871579145832</v>
+        <v>37.486829916063698</v>
       </c>
       <c r="J73">
-        <v>126.807363706692</v>
+        <v>126.807897389395</v>
       </c>
       <c r="K73" s="12" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>284</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
+        <v>290</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>95</v>
+      </c>
+      <c r="I74">
+        <v>37.485557257315101</v>
+      </c>
+      <c r="J74">
+        <v>126.80379346472</v>
+      </c>
+      <c r="K74" s="12" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D75">
+        <v>3</v>
+      </c>
+      <c r="E75" t="s">
+        <v>144</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="G75">
+        <v>2</v>
+      </c>
+      <c r="H75" t="s">
+        <v>200</v>
+      </c>
+      <c r="I75">
+        <v>37.485465777282897</v>
+      </c>
+      <c r="J75">
+        <v>126.805684758526</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>153</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="C76" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>3</v>
+      </c>
+      <c r="E76" t="s">
+        <v>288</v>
+      </c>
+      <c r="F76" s="12" t="s">
         <v>420</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A74" t="s">
-        <v>218</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C74" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>178</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>492</v>
-      </c>
-      <c r="G74">
-        <v>5</v>
-      </c>
-      <c r="H74" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="I74">
-        <v>37.486829916063698</v>
-      </c>
-      <c r="J74">
-        <v>126.807897389395</v>
-      </c>
-      <c r="K74" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A75" t="s">
-        <v>285</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>291</v>
-      </c>
-      <c r="D75">
-        <v>3</v>
-      </c>
-      <c r="E75" t="s">
-        <v>292</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>525</v>
-      </c>
-      <c r="G75">
-        <v>1</v>
-      </c>
-      <c r="H75" t="s">
-        <v>95</v>
-      </c>
-      <c r="I75">
-        <v>37.485557257315101</v>
-      </c>
-      <c r="J75">
-        <v>126.80379346472</v>
-      </c>
-      <c r="K75" s="12" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A76" t="s">
-        <v>228</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C76" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="D76">
-        <v>3</v>
-      </c>
-      <c r="E76" t="s">
-        <v>143</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>493</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
-      <c r="H76" s="12" t="s">
-        <v>528</v>
+      <c r="H76" t="s">
+        <v>206</v>
       </c>
       <c r="I76">
-        <v>37.485465777282897</v>
+        <v>37.4852659867394</v>
       </c>
       <c r="J76">
-        <v>126.805684758526</v>
+        <v>126.806100798082</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.45">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>152</v>
+        <v>175</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="D77">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="E77" t="s">
-        <v>289</v>
-      </c>
-      <c r="F77" s="12" t="s">
-        <v>471</v>
+        <v>178</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>400</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
-      <c r="H77" s="12" t="s">
-        <v>529</v>
+      <c r="H77" t="s">
+        <v>211</v>
       </c>
       <c r="I77">
-        <v>37.4852659867394</v>
+        <v>37.485471043818599</v>
       </c>
       <c r="J77">
-        <v>126.806100798082</v>
+        <v>126.806148321831</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.45">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>174</v>
+        <v>154</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="C78" s="6" t="s">
-        <v>88</v>
+        <v>322</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="D78">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
+        <v>235</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="G78">
+        <v>3</v>
+      </c>
+      <c r="H78" t="s">
+        <v>95</v>
+      </c>
+      <c r="I78">
+        <v>37.485568406787102</v>
+      </c>
+      <c r="J78">
+        <v>126.806456179731</v>
+      </c>
+      <c r="K78" s="12" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>160</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79">
+        <v>3</v>
+      </c>
+      <c r="E79" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79">
+        <v>6</v>
+      </c>
+      <c r="H79" t="s">
+        <v>96</v>
+      </c>
+      <c r="I79">
+        <v>37.484297134927999</v>
+      </c>
+      <c r="J79">
+        <v>126.807313105798</v>
+      </c>
+      <c r="K79" s="12" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>240</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>3.7</v>
+      </c>
+      <c r="E80" t="s">
+        <v>229</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="G80">
+        <v>7</v>
+      </c>
+      <c r="H80" t="s">
+        <v>198</v>
+      </c>
+      <c r="I80">
+        <v>37.4851076652795</v>
+      </c>
+      <c r="J80">
+        <v>126.808467134276</v>
+      </c>
+      <c r="K80" s="12" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>166</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="E81" t="s">
         <v>177</v>
       </c>
-      <c r="F78" s="14" t="s">
-        <v>483</v>
-      </c>
-      <c r="G78">
-        <v>2</v>
-      </c>
-      <c r="H78" t="s">
-        <v>210</v>
-      </c>
-      <c r="I78">
-        <v>37.485471043818599</v>
-      </c>
-      <c r="J78">
-        <v>126.806148321831</v>
-      </c>
-      <c r="K78" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A79" t="s">
-        <v>153</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="C79" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D79">
-        <v>3</v>
-      </c>
-      <c r="E79" t="s">
-        <v>235</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>526</v>
-      </c>
-      <c r="G79">
-        <v>3</v>
-      </c>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-      <c r="I79">
-        <v>37.485568406787102</v>
-      </c>
-      <c r="J79">
-        <v>126.806456179731</v>
-      </c>
-      <c r="K79" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A80" t="s">
-        <v>159</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>281</v>
-      </c>
-      <c r="C80" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D80">
-        <v>3</v>
-      </c>
-      <c r="E80" t="s">
-        <v>163</v>
-      </c>
-      <c r="F80" t="s">
-        <v>9</v>
-      </c>
-      <c r="G80">
-        <v>6</v>
-      </c>
-      <c r="H80" t="s">
-        <v>96</v>
-      </c>
-      <c r="I80">
-        <v>37.484297134927999</v>
-      </c>
-      <c r="J80">
-        <v>126.807313105798</v>
-      </c>
-      <c r="K80" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A81" t="s">
-        <v>240</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C81" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="D81">
-        <v>3.7</v>
-      </c>
-      <c r="E81" t="s">
-        <v>229</v>
-      </c>
       <c r="F81" s="14" t="s">
-        <v>463</v>
+        <v>421</v>
       </c>
       <c r="G81">
         <v>7</v>
       </c>
-      <c r="H81" s="12" t="s">
-        <v>536</v>
+      <c r="H81" t="s">
+        <v>206</v>
       </c>
       <c r="I81">
-        <v>37.4851076652795</v>
+        <v>37.485008389901601</v>
       </c>
       <c r="J81">
-        <v>126.808467134276</v>
+        <v>126.80836562754401</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.45">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>271</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>484</v>
+        <v>348</v>
       </c>
       <c r="G82">
         <v>7</v>
       </c>
-      <c r="H82" t="s">
-        <v>205</v>
+      <c r="H82" s="14" t="s">
+        <v>367</v>
       </c>
       <c r="I82">
-        <v>37.485008389901601</v>
+        <v>37.484883283856099</v>
       </c>
       <c r="J82">
-        <v>126.80836562754401</v>
+        <v>126.80900477375801</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="51" x14ac:dyDescent="0.45">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>272</v>
+        <v>346</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>227</v>
-      </c>
-      <c r="F83" s="16" t="s">
-        <v>475</v>
+        <v>167</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>423</v>
       </c>
       <c r="G83">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>444</v>
+        <v>355</v>
       </c>
       <c r="I83">
-        <v>37.484883283856099</v>
+        <v>37.485515772291102</v>
       </c>
       <c r="J83">
-        <v>126.80900477375801</v>
+        <v>126.810111226302</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.45">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C84" s="11" t="s">
-        <v>84</v>
+        <v>279</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D84">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>224</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>472</v>
+        <v>401</v>
       </c>
       <c r="G84">
         <v>9</v>
       </c>
-      <c r="H84" s="14" t="s">
-        <v>437</v>
+      <c r="H84" t="s">
+        <v>205</v>
       </c>
       <c r="I84">
-        <v>37.485515772291102</v>
+        <v>37.485506471362903</v>
       </c>
       <c r="J84">
-        <v>126.810111226302</v>
+        <v>126.809930341669</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.45">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D85">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="E85" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>464</v>
+        <v>402</v>
       </c>
       <c r="G85">
         <v>9</v>
       </c>
       <c r="H85" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="I85">
-        <v>37.485506471362903</v>
+        <v>37.485308791274598</v>
       </c>
       <c r="J85">
-        <v>126.809930341669</v>
+        <v>126.81026721772</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.45">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>265</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>75</v>
+        <v>263</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D86">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>293</v>
+        <v>242</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="G86">
-        <v>9</v>
-      </c>
-      <c r="H86" t="s">
-        <v>196</v>
+        <v>10</v>
+      </c>
+      <c r="H86" s="14" t="s">
+        <v>387</v>
       </c>
       <c r="I86">
-        <v>37.485308791274598</v>
+        <v>37.485678606400697</v>
       </c>
       <c r="J86">
-        <v>126.81026721772</v>
+        <v>126.81051785849201</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.45">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>162</v>
-      </c>
-      <c r="B87" s="3" t="s">
-        <v>264</v>
-      </c>
-      <c r="C87" s="11" t="s">
-        <v>85</v>
+        <v>295</v>
+      </c>
+      <c r="B87" t="s">
+        <v>326</v>
+      </c>
+      <c r="C87" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="D87">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="F87" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="G87">
+        <v>7</v>
+      </c>
+      <c r="H87" t="s">
+        <v>206</v>
+      </c>
+      <c r="I87">
+        <v>37.485336015207501</v>
+      </c>
+      <c r="J87">
+        <v>126.808989487812</v>
+      </c>
+      <c r="K87" s="12" t="s">
         <v>510</v>
-      </c>
-      <c r="G87">
-        <v>10</v>
-      </c>
-      <c r="H87" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="I87">
-        <v>37.485678606400697</v>
-      </c>
-      <c r="J87">
-        <v>126.81051785849201</v>
-      </c>
-      <c r="K87" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A88" t="s">
-        <v>297</v>
-      </c>
-      <c r="B88" t="s">
-        <v>328</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="D88">
-        <v>4</v>
-      </c>
-      <c r="E88" t="s">
-        <v>294</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>494</v>
-      </c>
-      <c r="G88">
-        <v>7</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>529</v>
-      </c>
-      <c r="I88">
-        <v>37.485336015207501</v>
-      </c>
-      <c r="J88">
-        <v>126.808989487812</v>
-      </c>
-      <c r="K88" s="12" t="s">
-        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangg\IdeaProjects\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29318DF7-6DDA-45AF-B116-871F596056FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4067A66-C831-4DB5-92DE-9B943B217894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="533">
   <si>
     <t>분위기 좋은 에스프레소 바</t>
   </si>
@@ -317,9 +317,6 @@
     <t>술,중식</t>
   </si>
   <si>
-    <t>한식,분식</t>
-  </si>
-  <si>
     <t>한식,닭</t>
   </si>
   <si>
@@ -584,9 +581,6 @@
     <t>남경</t>
   </si>
   <si>
-    <t>안주</t>
-  </si>
-  <si>
     <t>지지고</t>
   </si>
   <si>
@@ -1068,34 +1062,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>미방문</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교에 가까운 중국집</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 근처 제육중 불향 가장 강합니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">학교의 근처의 돼지갈비찜 맛집 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭갈비가 먹고싶다면</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>칼국수 맛집 중에 하나</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>간단하게 먹고싶다면 나쁘지 않다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>분식,배달</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1104,30 +1070,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>밥을 더 먹을 수 있습니다. 분위기도 좋아요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>초밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>근처의 꽤 괜찮은 초밥집</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>회덮밥도 좋은 선택입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>일식</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>근처의 거의 유일한 라멘집</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>마들렌이 맛있습니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1140,50 +1090,18 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>900원 커피가 가성비가 좋다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>중식,데이트</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교 근처의 중국집 2</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>짬뽕을 먹고싶다면 좋은 선택</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>양식,데이트</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교근처 국룰 소개팅 장소</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>사각피자 위에 노른자가 올라며 담백하다, tv에도 나온걸로 유명합니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>수제버거를 먹고싶다면</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>한상차림이 한상 가득히 나옴</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>무난한 프랜차이즈입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>구운치킨 특성상 조리가 오래걸리기도 합니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>부속고기집이며 양이 꽤 괜찮습니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1208,14 +1126,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교앞에 있는 치킨가게</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>이디야</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>순대가 수제라 맛있습니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1228,10 +1138,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>가격대비 양이 많음. 조개젓갈 맛있음</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">역 근처 중식집. </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1244,10 +1150,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>떡볶이</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>무난한 횟집</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1256,14 +1158,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>안가봄</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>맘스터치 가끔 늦게 나온다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>가끔씩 땡김</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1276,54 +1170,18 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>맛있음. 자리가 없을 수 있다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>건강해지고 싶다면.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>역 앞에 위치해 학교에서 가긴 멀지만 맛있습니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>든든한 해장이 가능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>롯데리아</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>평범하게 한끼 떼우기 좋아요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>분식집을 가고싶다면 좋은 선택, tv에도 나왔다. 양 가격 부답없어요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>여러분이 잘아시는 엽기떡볶이 입니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>분위기 좋은데를 고르고 싶다면. 유부초밥이 생각보다 커서 든든해요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육의 불향이 좋아요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>여러분이 잘아시는 메가커피 입니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>빙수를 진짜 추천합니다. 오티로 많이 모이는 집이죠</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>돈이 많은 대학생이라면..돈값은 해요</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1336,54 +1194,18 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>배고플때 학교에서 찾자.. 기숙사생 최고의 가성비 선택</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>사장님께서 친절하시고 배부르게 한끼 해결 가능해요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>꼬치가 진짜 맛있고, 술집 분위기도 좋아요. 조용히 한잔하기에 좋아요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교보다 좋은 선택(컴공 이건희가 강력 추천합니다) 퀄리티가 다릅니다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격할인도 짱짱하고 맛있어요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>집밥먹는 느낌. 국물없는 제육 취향이신분들 여기 괜찮아요</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>호불호 많이 갈리는 부대찌개</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>수타면이 먹을만 해요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>럭셔리한 분식을 먹고 싶다면?</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>다들 아는 역전그랜드마더맥주</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>성심여대일때 부터 존재하던 피자집. 가격도 괜찮고 먹을만 해요</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>가격 괜찮아서 가는 곳입니다. 가격 대비 맛도 있어요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>images/남경.webp</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1721,6 +1543,270 @@
   </si>
   <si>
     <t>images/학교가는길.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교에 가장 가까운 중국집. 전 매뉴가 평타이상은 합니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>중식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식위주로 매뉴가 다양해요. 평범하게 한끼 떼우기 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처 제육중 불향 가장 강합니다. 돼지 불백도 맛있고 반찬도 맛있는 집. 집밥이 그리울땐..?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교의 근처의 돼지갈비찜 맛집, 내부가 협소하고 시끄럽다는 단점도 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭갈비가 먹고싶다면? 점심 특선으로 9000원까지 합니다. 사람들이 잘 모르는 맛집.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭 칼국수 맛집 중에 하나. 여름에 판매하는 비빔국수도 일품이에요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥과 비빔 우동이 있다. 가격도 너무 저렴하고 맛이 있어요. 다만 너무 기름져 느끼하실 수도 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식집을 가고싶다면 좋은 선택, tv에도 나왔다. 양 가격 부답없어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기 좋은데를 고르고 싶다면. 유부초밥이 생각보다 커서 든든해요. 개발자 본인 얼굴 만합니다(저 얼굴 커요).</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥을 더 먹을 수 있습니다. 분위기도 좋아요. 덮밥 맛집입니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처의 꽤 괜찮은 초밥집. 가격은 좀 나가지만 학교 상권치고 퀄이 좋은편 입니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육의 불향이 좋아요. 자극적인 것을 좋아하시면 추천드립니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가톨릭대 근처에서 회덮밥을 먹고 싶으면 추천.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처의 거의 유일한 라멘집. 일본 라면인데 소주가 땡기는 국물.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>900원 커피가 가성비가 좋아요. 가대생들의 카페인을 책임지는 곳.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>비싼 마라전골도 맛있지만, 기본 마라탕이 맛있는곳. 마라탕 혼밥도 가능한 곳.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처의 중국집. 남경이 자리가 없으면 여기 갑니다. 남경과 맛은 동일해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>짬뽕을 먹고싶다면 좋은 선택. 차돌 짬뽕이 진짜 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교근처 국룰 소개팅 장소. 전 매뉴가 양식이고 대부분 새우가 들어가요. 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 맛있는 수제버거를 먹고싶다면? 생각보다 배가 안차서 개발자 본인은 2개 먹습니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기 좋고 가격도 착해요. 마라전골과 유린기가 맛있어요. 다양한 세트가 준비되서 가볼만한 곳,</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한상차림이 한상 가득히 나옴. 전과 막걸리가 먹고 싶을땐?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>무난한 프랜차이즈입니다. 개발자 본인이 알바 하면서 느낀.. 안주를 너무 정성스럽게 맛있게 만들어 맥주가 맛있게 느껴지는 곳</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">빙수를 진짜 추천합니다. 오티로 많이 모이는 집이죠. 안주 3+1 이벤트하는 곳 입니다. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">레트로 감성 가득한 맥주집. 역쪽이라 언제나 사람이 많아요. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">너무 맛있고 사장님께서도 친절한 집. 분위기가 좋아서 연인이나 소개팅 자리도 가능해요. 1차,2차로도 가능한 곳. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>생고기 전문점. 가격도 덜 부담스럽고 고기를 구워주셔서 좋아요. 만석이 자주 있는 곳.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운치킨 특성상 조리가 오래걸리기도 합니다. 하지만 구은 치킨을 좋아하시는 분들께 추천드립니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 괜찮아서 가는 곳입니다. 가격 대비 맛도 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접 구워주시고 가성비도 좋고 고기도 좋아서 단골이 많은 집이에요. 볶음밥은 국룰.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분이 잘 아시는 bbq</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분이 잘 아시는 60계 치킨</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교앞에 있는 치킨가게. 전화 포장 주문 시 떡볶이 서비스 나갑니다. 개발자 본인은 치킨 따로먹고 떡볶이는 다음날 먹습니다. 2끼 해결가능!</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분이 잘 아시는 이디야</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>배고플때 학교에서 찾자.. 기숙사생 최고의 가성비 선택. 포장해서 기숙다식당에서 드셔도 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,분식,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격대비 양이 많음. 조개젓갈 맛있음. 사람들이 잘 모르는 칼국수 맛집 중 하나.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사장님께서 친절하시고 엄청 배부르게 한끼 해결 가능해요. 다만 재료들이 자극적이라 자주 못먹는게 단점입니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분이 잘 아시는 신전 떡볶이. 자극적인 떡볶이를 원하시면 추천해요. 긱사 생분들은 1인 메뉴도 추천드릴게요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역곡의 퀄리티 있는 필터 커피를 즐기고 싶다면..?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>다들 아는 역전그랜드마더비어</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 안주가 맛있지만 특히 치킨 가라아케가 맛있는 집. 대화하기도 좋은 가게.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치가 진짜 맛있고, 술집 분위기도 좋아요. 조용히 한잔하기에 좋아요. 저녁에는 자주 매진이 되는 집.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 닭꼬치가 맛있어요. 서비스도 잘 주시는 가게.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>튀김 옷도 얇고 맛있는 집. 하지만 그때그때 맛의 편차가 좀 있다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 반찬도 맛있고 족발도 야들야들 하니 맛있다. 막국수도 양도 많고 존맛. 술도둑 입니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>괜찮다는 평이 많다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식,배달,혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교맘터보다 좋은 선택(컴공 이건희가 매우매우 강력하게 추천합니다) 퀄리티가 다릅니다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격할인도 짱짱하고 맛있어요. 괜히 장사 잘 되는게 아님</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 국제관 1충에 있는 곳. 여러분이 아시는 메머드 커피.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수타면이 먹을만 해요. 사장님께서 너무 친절하심!</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>맛있음. 자리가 없을 수 있다. 특히 불향 나는 떡볶이가 일품이에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장이 깔끔하고 조용해서 대화 나누거나 과제하기 좋은 곳.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>호불호 많이 갈리는 부대찌개. 밥이 무한이라서 배 채우기 걱정없어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 앞 탕화쿵부처럼 진한 땅콩소스맛 육수 안 좋아하고 라화쿵부나 홍리마라탕처럼 사골육수맛 좋아하는 사람들한테 추천</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치해 학교에서 가긴 멀지만 맛있습니다. 특히 모둠 먹으면 진짜 남길정도의 양</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러분이 잘 아시는 롯데리아</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>정말 맛있는 뼈감자탕집. 뼈가 사람 뼈마냥 크고 푸짐합니다. 컴공 아저씨들은 일주일에 한번 씩은 가는집.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>혼밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1849,7 +1935,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1897,6 +1983,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2454,7 +2543,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2462,7 +2551,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
         <v>8</v>
@@ -2470,7 +2559,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -2478,7 +2567,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -2486,7 +2575,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -2494,15 +2583,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -2510,7 +2599,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -2518,7 +2607,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -2526,7 +2615,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -2534,7 +2623,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -2542,7 +2631,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -2550,7 +2639,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>187</v>
+        <v>237</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -2558,18 +2647,18 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>236</v>
+      <c r="A14" s="12" t="s">
+        <v>532</v>
       </c>
       <c r="B14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2584,8 +2673,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="A78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2600,42 +2689,42 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="I1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -2644,16 +2733,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>349</v>
+        <v>467</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>200</v>
+      <c r="H2" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="I2">
         <v>37.486217440038999</v>
@@ -2662,15 +2751,15 @@
         <v>126.80527293775</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -2679,16 +2768,16 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>405</v>
+        <v>469</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
-        <v>206</v>
+      <c r="H3" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="I3">
         <v>37.485605899757097</v>
@@ -2697,15 +2786,15 @@
         <v>126.80460177190599</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -2714,16 +2803,16 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>350</v>
+        <v>471</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
-      <c r="H4" t="s">
-        <v>206</v>
+      <c r="H4" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="I4">
         <v>37.484743157313098</v>
@@ -2732,15 +2821,15 @@
         <v>126.808713984352</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -2749,10 +2838,10 @@
         <v>4.5</v>
       </c>
       <c r="E5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>351</v>
+        <v>472</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -2767,15 +2856,15 @@
         <v>126.809960322531</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
@@ -2784,16 +2873,16 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>352</v>
+        <v>473</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I6">
         <v>37.485043914860903</v>
@@ -2802,15 +2891,15 @@
         <v>126.809439672441</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -2819,16 +2908,16 @@
         <v>4.5</v>
       </c>
       <c r="E7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>353</v>
+        <v>474</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
-      <c r="H7" t="s">
-        <v>206</v>
+      <c r="H7" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="I7">
         <v>37.485259103938198</v>
@@ -2837,7 +2926,7 @@
         <v>126.806024495491</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>432</v>
+        <v>387</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -2845,7 +2934,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -2854,16 +2943,16 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
-        <v>206</v>
+      <c r="H8" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="I8">
         <v>37.4846394516712</v>
@@ -2872,15 +2961,15 @@
         <v>126.807272653455</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>38</v>
@@ -2889,16 +2978,16 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>354</v>
+        <v>475</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="H9" t="s">
-        <v>211</v>
+      <c r="H9" s="12" t="s">
+        <v>476</v>
       </c>
       <c r="I9">
         <v>37.486252715190901</v>
@@ -2907,15 +2996,15 @@
         <v>126.804809264423</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>434</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>22</v>
@@ -2924,16 +3013,16 @@
         <v>3.5</v>
       </c>
       <c r="E10" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>406</v>
+        <v>477</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
-      <c r="H10" t="s">
-        <v>206</v>
+      <c r="H10" s="12" t="s">
+        <v>478</v>
       </c>
       <c r="I10">
         <v>37.485497186636003</v>
@@ -2942,15 +3031,15 @@
         <v>126.806982127745</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>511</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>15</v>
@@ -2959,16 +3048,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>407</v>
+        <v>374</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I11">
         <v>37.484953499782101</v>
@@ -2977,15 +3066,15 @@
         <v>126.809244861902</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>435</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
@@ -2994,16 +3083,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>408</v>
+        <v>479</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I12">
         <v>37.485489281787402</v>
@@ -3012,15 +3101,15 @@
         <v>126.806281129108</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>436</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
@@ -3029,16 +3118,16 @@
         <v>3.5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>357</v>
+        <v>480</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I13">
         <v>37.484376124816201</v>
@@ -3047,15 +3136,15 @@
         <v>126.807406182305</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>437</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>32</v>
@@ -3064,16 +3153,16 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>359</v>
+        <v>481</v>
       </c>
       <c r="G14">
         <v>9</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I14">
         <v>37.485087045156199</v>
@@ -3082,15 +3171,15 @@
         <v>126.809645910124</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>438</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>35</v>
@@ -3099,16 +3188,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>409</v>
+        <v>482</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
-      <c r="H15" t="s">
-        <v>198</v>
+      <c r="H15" s="12" t="s">
+        <v>483</v>
       </c>
       <c r="I15">
         <v>37.484322028046897</v>
@@ -3117,15 +3206,15 @@
         <v>126.806007131678</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>439</v>
+        <v>394</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>37</v>
@@ -3134,16 +3223,16 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>360</v>
+        <v>484</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="I16">
         <v>37.484822724520697</v>
@@ -3152,15 +3241,15 @@
         <v>126.807775328921</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>440</v>
+        <v>395</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>23</v>
@@ -3169,16 +3258,16 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>362</v>
+        <v>485</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I17">
         <v>37.484953508909399</v>
@@ -3187,15 +3276,15 @@
         <v>126.809250515218</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>441</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>33</v>
@@ -3204,10 +3293,10 @@
         <v>3.8</v>
       </c>
       <c r="E18" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -3222,15 +3311,15 @@
         <v>126.807206921003</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>442</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>69</v>
@@ -3242,13 +3331,13 @@
         <v>93</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>364</v>
+        <v>351</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="I19">
         <v>37.485793357720603</v>
@@ -3257,15 +3346,15 @@
         <v>126.804903740664</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>34</v>
@@ -3274,16 +3363,16 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>366</v>
+        <v>486</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I20">
         <v>37.485609802936601</v>
@@ -3292,15 +3381,15 @@
         <v>126.80560241137501</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>31</v>
@@ -3309,10 +3398,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>410</v>
+        <v>375</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -3327,15 +3416,15 @@
         <v>126.804958775329</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>445</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>67</v>
@@ -3347,13 +3436,13 @@
         <v>3</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>348</v>
+        <v>487</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="I22">
         <v>37.485784678924702</v>
@@ -3362,15 +3451,15 @@
         <v>126.805104458966</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>49</v>
@@ -3379,16 +3468,16 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>368</v>
+        <v>488</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
-      <c r="H23" t="s">
-        <v>200</v>
+      <c r="H23" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="I23">
         <v>37.485472117984301</v>
@@ -3397,33 +3486,33 @@
         <v>126.806804110846</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D24">
         <v>3.5</v>
       </c>
       <c r="E24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>369</v>
+        <v>489</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
-      <c r="H24" t="s">
-        <v>200</v>
+      <c r="H24" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="I24">
         <v>37.4876187047714</v>
@@ -3432,15 +3521,15 @@
         <v>126.809540549543</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>448</v>
+        <v>403</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>20</v>
@@ -3449,16 +3538,16 @@
         <v>3.5</v>
       </c>
       <c r="E25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>371</v>
+        <v>490</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="I25">
         <v>37.486371424902799</v>
@@ -3467,15 +3556,15 @@
         <v>126.80440190752201</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -3484,16 +3573,16 @@
         <v>3.5</v>
       </c>
       <c r="E26" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>373</v>
+        <v>491</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
-      <c r="H26" t="s">
-        <v>205</v>
+      <c r="H26" s="12" t="s">
+        <v>492</v>
       </c>
       <c r="I26">
         <v>37.485452852107699</v>
@@ -3502,7 +3591,7 @@
         <v>126.80604378137799</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>450</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -3510,7 +3599,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>16</v>
@@ -3519,16 +3608,16 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>372</v>
+        <v>355</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I27">
         <v>37.4852771880539</v>
@@ -3537,15 +3626,15 @@
         <v>126.807440616127</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
@@ -3554,10 +3643,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>348</v>
+        <v>493</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -3572,15 +3661,15 @@
         <v>126.811050906527</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>13</v>
@@ -3589,16 +3678,16 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>374</v>
+        <v>494</v>
       </c>
       <c r="G29">
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I29">
         <v>37.485463400737999</v>
@@ -3607,15 +3696,15 @@
         <v>126.809760849471</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>453</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>25</v>
@@ -3624,16 +3713,16 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>375</v>
+        <v>495</v>
       </c>
       <c r="G30">
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I30">
         <v>37.485134516293101</v>
@@ -3642,15 +3731,15 @@
         <v>126.80975037669999</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>454</v>
+        <v>409</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>17</v>
@@ -3659,16 +3748,16 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>411</v>
+        <v>496</v>
       </c>
       <c r="G31">
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I31">
         <v>37.485578293433598</v>
@@ -3677,15 +3766,15 @@
         <v>126.811173904604</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>455</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>24</v>
@@ -3694,16 +3783,16 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>348</v>
+        <v>497</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I32">
         <v>37.485546523304997</v>
@@ -3712,15 +3801,15 @@
         <v>126.811026996593</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>456</v>
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>26</v>
@@ -3729,16 +3818,16 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>348</v>
+        <v>498</v>
       </c>
       <c r="G33">
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I33">
         <v>37.48501471886</v>
@@ -3747,15 +3836,15 @@
         <v>126.809493453358</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>457</v>
+        <v>412</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>29</v>
@@ -3764,16 +3853,16 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>348</v>
+        <v>499</v>
       </c>
       <c r="G34">
         <v>9</v>
       </c>
       <c r="H34" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I34">
         <v>37.485252269681297</v>
@@ -3782,15 +3871,15 @@
         <v>126.810137333348</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>14</v>
@@ -3799,10 +3888,10 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>376</v>
+        <v>500</v>
       </c>
       <c r="G35">
         <v>8</v>
@@ -3817,15 +3906,15 @@
         <v>126.80940504867399</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>459</v>
+        <v>414</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>21</v>
@@ -3837,13 +3926,13 @@
         <v>90</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>426</v>
+        <v>501</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I36">
         <v>37.484953504345803</v>
@@ -3852,15 +3941,15 @@
         <v>126.80924768856001</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>460</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>41</v>
@@ -3869,16 +3958,16 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>348</v>
+        <v>502</v>
       </c>
       <c r="G37">
         <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I37">
         <v>37.485105646383197</v>
@@ -3887,15 +3976,15 @@
         <v>126.80861129985701</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>461</v>
+        <v>416</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>30</v>
@@ -3904,16 +3993,16 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="G38">
         <v>9</v>
       </c>
       <c r="H38" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I38">
         <v>37.485842245137803</v>
@@ -3922,15 +4011,15 @@
         <v>126.810022772203</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>462</v>
+        <v>417</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>18</v>
@@ -3939,16 +4028,16 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
       <c r="G39">
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I39">
         <v>37.484711799258001</v>
@@ -3957,15 +4046,15 @@
         <v>126.80743641390001</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>463</v>
+        <v>418</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>27</v>
@@ -3974,16 +4063,16 @@
         <v>3.5</v>
       </c>
       <c r="E40" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="I40">
         <v>37.485713367130501</v>
@@ -3992,15 +4081,15 @@
         <v>126.80557104935301</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>464</v>
+        <v>419</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>28</v>
@@ -4009,16 +4098,16 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>414</v>
+        <v>378</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I41">
         <v>37.4864311346047</v>
@@ -4027,15 +4116,15 @@
         <v>126.805094299427</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>465</v>
+        <v>420</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>53</v>
@@ -4044,16 +4133,16 @@
         <v>2.5</v>
       </c>
       <c r="E42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>413</v>
+        <v>377</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" t="s">
-        <v>206</v>
+      <c r="H42" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="I42">
         <v>37.4855968850514</v>
@@ -4062,15 +4151,15 @@
         <v>126.804598968691</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>466</v>
+        <v>421</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>60</v>
@@ -4079,16 +4168,16 @@
         <v>3.5</v>
       </c>
       <c r="E43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="G43">
         <v>6</v>
       </c>
       <c r="H43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I43">
         <v>37.484507658332703</v>
@@ -4097,15 +4186,15 @@
         <v>126.80795138859099</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>467</v>
+        <v>422</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>86</v>
@@ -4114,16 +4203,16 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>348</v>
+        <v>503</v>
       </c>
       <c r="G44">
         <v>6</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="I44">
         <v>37.484494157064901</v>
@@ -4132,15 +4221,15 @@
         <v>126.807959903106</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>468</v>
+        <v>423</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>63</v>
@@ -4149,16 +4238,16 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>348</v>
+        <v>504</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="I45">
         <v>37.484494157064901</v>
@@ -4167,15 +4256,15 @@
         <v>126.807959903106</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>469</v>
+        <v>424</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>76</v>
@@ -4184,10 +4273,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -4202,15 +4291,15 @@
         <v>126.804858279291</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>470</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>43</v>
@@ -4219,10 +4308,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>383</v>
+        <v>505</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -4237,15 +4326,15 @@
         <v>126.805126194846</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>471</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>54</v>
@@ -4254,10 +4343,10 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>384</v>
+        <v>506</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -4272,15 +4361,15 @@
         <v>126.805043088126</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>472</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>47</v>
@@ -4289,16 +4378,16 @@
         <v>3.5</v>
       </c>
       <c r="E49" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="G49">
         <v>8</v>
       </c>
-      <c r="H49" t="s">
-        <v>206</v>
+      <c r="H49" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="I49">
         <v>37.487799763159799</v>
@@ -4307,15 +4396,15 @@
         <v>126.81007293726</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>473</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>80</v>
@@ -4324,16 +4413,16 @@
         <v>3</v>
       </c>
       <c r="E50" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>425</v>
+        <v>381</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I50">
         <v>37.485764012101299</v>
@@ -4342,15 +4431,15 @@
         <v>126.80486565653</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>58</v>
@@ -4359,16 +4448,16 @@
         <v>3</v>
       </c>
       <c r="E51" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="I51">
         <v>37.485587896057297</v>
@@ -4377,15 +4466,15 @@
         <v>126.804611712222</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>39</v>
@@ -4394,16 +4483,16 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>415</v>
+        <v>507</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
-      <c r="H52" t="s">
-        <v>98</v>
+      <c r="H52" s="12" t="s">
+        <v>508</v>
       </c>
       <c r="I52">
         <v>37.485741491693297</v>
@@ -4412,15 +4501,15 @@
         <v>126.804868541803</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>62</v>
@@ -4429,16 +4518,16 @@
         <v>3.5</v>
       </c>
       <c r="E53" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>388</v>
+        <v>509</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I53">
         <v>37.485717869820199</v>
@@ -4447,15 +4536,15 @@
         <v>126.80556962433501</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>57</v>
@@ -4467,7 +4556,7 @@
         <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -4482,15 +4571,15 @@
         <v>126.80623441389299</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>46</v>
@@ -4499,16 +4588,16 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>416</v>
+        <v>510</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
-      <c r="H55" t="s">
-        <v>211</v>
+      <c r="H55" s="12" t="s">
+        <v>476</v>
       </c>
       <c r="I55">
         <v>37.486280815262703</v>
@@ -4517,15 +4606,15 @@
         <v>126.805457923362</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>59</v>
@@ -4534,16 +4623,16 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>389</v>
+        <v>365</v>
       </c>
       <c r="G56">
         <v>9</v>
       </c>
       <c r="H56" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I56">
         <v>37.485229715068598</v>
@@ -4552,15 +4641,15 @@
         <v>126.810119017007</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>61</v>
@@ -4569,16 +4658,16 @@
         <v>3.7</v>
       </c>
       <c r="E57" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I57">
         <v>37.485806101015598</v>
@@ -4587,15 +4676,15 @@
         <v>126.807177788738</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>481</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>51</v>
@@ -4604,16 +4693,16 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>391</v>
+        <v>367</v>
       </c>
       <c r="G58">
         <v>9</v>
       </c>
       <c r="H58" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I58">
         <v>37.4856445443829</v>
@@ -4622,15 +4711,15 @@
         <v>126.810346929445</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>482</v>
+        <v>437</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>65</v>
@@ -4639,16 +4728,16 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>392</v>
+        <v>511</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
-      <c r="H59" t="s">
-        <v>211</v>
+      <c r="H59" s="12" t="s">
+        <v>476</v>
       </c>
       <c r="I59">
         <v>37.484632488894697</v>
@@ -4657,15 +4746,15 @@
         <v>126.807146885097</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>483</v>
+        <v>438</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>64</v>
@@ -4674,16 +4763,16 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>348</v>
+        <v>512</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="I60">
         <v>37.485713029704101</v>
@@ -4692,15 +4781,15 @@
         <v>126.805366114637</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>484</v>
+        <v>439</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>68</v>
@@ -4709,7 +4798,7 @@
         <v>3.6</v>
       </c>
       <c r="E61" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -4718,7 +4807,7 @@
         <v>6</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>365</v>
+        <v>352</v>
       </c>
       <c r="I61">
         <v>37.484983408219797</v>
@@ -4727,15 +4816,15 @@
         <v>126.808239904519</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>485</v>
+        <v>440</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>56</v>
@@ -4744,16 +4833,16 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>393</v>
+        <v>368</v>
       </c>
       <c r="G62">
         <v>9</v>
       </c>
       <c r="H62" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I62">
         <v>37.485630525260497</v>
@@ -4762,15 +4851,15 @@
         <v>126.81003320175201</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>486</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>55</v>
@@ -4779,16 +4868,16 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>424</v>
+        <v>513</v>
       </c>
       <c r="G63">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I63">
         <v>37.485934863757898</v>
@@ -4797,15 +4886,15 @@
         <v>126.81018789999401</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>487</v>
+        <v>442</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>40</v>
@@ -4814,16 +4903,16 @@
         <v>3</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>394</v>
+        <v>369</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>348</v>
+        <v>514</v>
       </c>
       <c r="G64">
         <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="I64">
         <v>37.485878582837401</v>
@@ -4832,15 +4921,15 @@
         <v>126.810207829315</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>488</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>66</v>
@@ -4849,10 +4938,10 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>417</v>
+        <v>515</v>
       </c>
       <c r="G65">
         <v>11</v>
@@ -4867,15 +4956,15 @@
         <v>126.811227906865</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>489</v>
+        <v>444</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>48</v>
@@ -4884,10 +4973,10 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>348</v>
+        <v>516</v>
       </c>
       <c r="G66">
         <v>10</v>
@@ -4902,15 +4991,15 @@
         <v>126.810817196481</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>490</v>
+        <v>445</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>42</v>
@@ -4922,7 +5011,7 @@
         <v>44</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>348</v>
+        <v>517</v>
       </c>
       <c r="G67">
         <v>9</v>
@@ -4937,15 +5026,15 @@
         <v>126.810871460472</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>491</v>
+        <v>446</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>45</v>
@@ -4954,16 +5043,16 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>348</v>
+        <v>518</v>
       </c>
       <c r="G68">
         <v>10</v>
       </c>
       <c r="H68" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="I68">
         <v>37.486465666514498</v>
@@ -4972,15 +5061,15 @@
         <v>126.81109958965401</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>492</v>
+        <v>447</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>50</v>
@@ -4989,16 +5078,16 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>396</v>
+        <v>519</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>387</v>
+        <v>520</v>
       </c>
       <c r="I69">
         <v>37.485496488895201</v>
@@ -5007,15 +5096,15 @@
         <v>126.80382330388299</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>74</v>
@@ -5024,16 +5113,16 @@
         <v>3.5</v>
       </c>
       <c r="E70" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>418</v>
+        <v>521</v>
       </c>
       <c r="G70">
         <v>8</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>387</v>
+        <v>520</v>
       </c>
       <c r="I70">
         <v>37.484991922466399</v>
@@ -5042,15 +5131,15 @@
         <v>126.80932532433</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>78</v>
@@ -5059,16 +5148,16 @@
         <v>2.5</v>
       </c>
       <c r="E71" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="G71">
         <v>7</v>
       </c>
       <c r="H71" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I71">
         <v>37.485500345476098</v>
@@ -5077,15 +5166,15 @@
         <v>126.808925468913</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>89</v>
@@ -5094,16 +5183,16 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="G72">
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I72">
         <v>37.4871579145832</v>
@@ -5112,15 +5201,15 @@
         <v>126.807363706692</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>495</v>
+        <v>450</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>82</v>
@@ -5129,16 +5218,16 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>419</v>
+        <v>522</v>
       </c>
       <c r="G73">
         <v>5</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>380</v>
+        <v>359</v>
       </c>
       <c r="I73">
         <v>37.486829916063698</v>
@@ -5147,27 +5236,27 @@
         <v>126.807897389395</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>496</v>
+        <v>451</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>395</v>
+        <v>523</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -5182,15 +5271,15 @@
         <v>126.80379346472</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>497</v>
+        <v>452</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>87</v>
@@ -5199,16 +5288,16 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>422</v>
+        <v>524</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
-      <c r="H75" t="s">
-        <v>200</v>
+      <c r="H75" s="12" t="s">
+        <v>468</v>
       </c>
       <c r="I75">
         <v>37.485465777282897</v>
@@ -5217,15 +5306,15 @@
         <v>126.805684758526</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>498</v>
+        <v>453</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>77</v>
@@ -5234,16 +5323,16 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>420</v>
+        <v>379</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
-      <c r="H76" t="s">
-        <v>206</v>
+      <c r="H76" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="I76">
         <v>37.4852659867394</v>
@@ -5252,15 +5341,15 @@
         <v>126.806100798082</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>499</v>
+        <v>454</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>88</v>
@@ -5269,16 +5358,16 @@
         <v>4.2</v>
       </c>
       <c r="E77" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>400</v>
+        <v>525</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I77">
         <v>37.485471043818599</v>
@@ -5287,15 +5376,15 @@
         <v>126.806148321831</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>500</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>71</v>
@@ -5304,10 +5393,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>348</v>
+        <v>526</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -5322,15 +5411,15 @@
         <v>126.806456179731</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>501</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>83</v>
@@ -5339,7 +5428,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -5357,15 +5446,15 @@
         <v>126.807313105798</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>502</v>
+        <v>457</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>79</v>
@@ -5374,16 +5463,16 @@
         <v>3.7</v>
       </c>
       <c r="E80" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="G80">
         <v>7</v>
       </c>
-      <c r="H80" t="s">
-        <v>198</v>
+      <c r="H80" s="12" t="s">
+        <v>483</v>
       </c>
       <c r="I80">
         <v>37.4851076652795</v>
@@ -5392,15 +5481,15 @@
         <v>126.808467134276</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>503</v>
+        <v>458</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>72</v>
@@ -5409,16 +5498,16 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>421</v>
+        <v>527</v>
       </c>
       <c r="G81">
         <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I81">
         <v>37.485008389901601</v>
@@ -5427,15 +5516,15 @@
         <v>126.80836562754401</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.4">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>81</v>
@@ -5444,16 +5533,16 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>227</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>348</v>
+        <v>225</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>528</v>
       </c>
       <c r="G82">
         <v>7</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="I82">
         <v>37.484883283856099</v>
@@ -5462,15 +5551,15 @@
         <v>126.80900477375801</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>505</v>
+        <v>460</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>84</v>
@@ -5479,16 +5568,16 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>423</v>
+        <v>380</v>
       </c>
       <c r="G83">
         <v>9</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="I83">
         <v>37.485515772291102</v>
@@ -5497,15 +5586,15 @@
         <v>126.810111226302</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>506</v>
+        <v>461</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>73</v>
@@ -5514,16 +5603,16 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>401</v>
+        <v>373</v>
       </c>
       <c r="G84">
         <v>9</v>
       </c>
       <c r="H84" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="I84">
         <v>37.485506471362903</v>
@@ -5532,15 +5621,15 @@
         <v>126.809930341669</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>507</v>
+        <v>462</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>75</v>
@@ -5549,16 +5638,16 @@
         <v>3.9</v>
       </c>
       <c r="E85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>402</v>
+        <v>529</v>
       </c>
       <c r="G85">
         <v>9</v>
       </c>
       <c r="H85" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I85">
         <v>37.485308791274598</v>
@@ -5567,15 +5656,15 @@
         <v>126.81026721772</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>508</v>
+        <v>463</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>85</v>
@@ -5584,16 +5673,16 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>404</v>
+        <v>530</v>
       </c>
       <c r="G86">
         <v>10</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="I86">
         <v>37.485678606400697</v>
@@ -5602,15 +5691,15 @@
         <v>126.81051785849201</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B87" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>70</v>
@@ -5619,16 +5708,16 @@
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>403</v>
+        <v>531</v>
       </c>
       <c r="G87">
         <v>7</v>
       </c>
-      <c r="H87" t="s">
-        <v>206</v>
+      <c r="H87" s="12" t="s">
+        <v>470</v>
       </c>
       <c r="I87">
         <v>37.485336015207501</v>
@@ -5637,13 +5726,13 @@
         <v>126.808989487812</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>510</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3E7A6B36-672D-4F5F-AC3E-13196A85D070}"/>
   </hyperlinks>
   <pageMargins left="0.69972223043441772" right="0.69972223043441772" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait"/>

--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangg\IdeaProjects\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4067A66-C831-4DB5-92DE-9B943B217894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C981312E-6A68-4716-8982-B6AD957BC89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Category" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="692">
   <si>
     <t>분위기 좋은 에스프레소 바</t>
   </si>
@@ -1807,6 +1807,810 @@
   </si>
   <si>
     <t>혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>털보네오리불고기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 부천시 원미구 부일로 722</t>
+  </si>
+  <si>
+    <t>032-342-5210</t>
+  </si>
+  <si>
+    <t>가정식 백반, 오리불고기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>인생김밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-346-1009</t>
+  </si>
+  <si>
+    <t>인생김밥, 참치김밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨랑 보리보리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로 16</t>
+  </si>
+  <si>
+    <t>032-341-9080</t>
+  </si>
+  <si>
+    <t>들깨 칼국수, 들깨 수제비</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>오무야</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로763번길 10</t>
+  </si>
+  <si>
+    <t>0507-1303-6519</t>
+  </si>
+  <si>
+    <t>삿포로식 야채스프카레, 새우투움바파스타</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>호식당</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로619번길 25</t>
+  </si>
+  <si>
+    <t>070-7774-4207</t>
+  </si>
+  <si>
+    <t>호라멘, 돈카츠카레</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 후문 근처에 위치한 일식당. 인테리어가 깔끔하다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>삼복가</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-343-0388</t>
+  </si>
+  <si>
+    <t>돈까스, 물냉면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈까스 엄청 커요…</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>쪼계찜닭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-343-8588</t>
+  </si>
+  <si>
+    <t>찜닭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜닭 종류가 많다. 양이 부족하면 볶음밥과 주먹밥이 채워준다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분더커피바</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로763번길 30</t>
+  </si>
+  <si>
+    <t>010-3439-6334</t>
+  </si>
+  <si>
+    <t>분더가토, 분더커피</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장을 지나야 나오는 먼 거리의 카페. 하지만 시그니처 메뉴가 맛있다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페,디저트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>일식,양식</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,분식</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기,닭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로685번길 36</t>
+  </si>
+  <si>
+    <t>이삭토스트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-341-5475</t>
+  </si>
+  <si>
+    <t>햄치즈 토스트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이삭토스트 소스는 한번만 먹은 사람이 없다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식, 혼밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>따붕</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-4211-6659</t>
+  </si>
+  <si>
+    <t>붕어빵, 와플</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>팥붕 vs 슈붕 당신의 선택은?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>디저트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>조아저씨 빵집</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로 46</t>
+  </si>
+  <si>
+    <t>0507-1462-3437</t>
+  </si>
+  <si>
+    <t>몽블랑, 메론빵</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장이 넓고 쾌적하다. 멀지만 빵을 좋아하면 한번쯤 가보자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>립플레이</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부천시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원미구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부일로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 718 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>립플레이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>층</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1463-7793</t>
+  </si>
+  <si>
+    <t>숙성회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙성회가 비싼건 감안하자.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>꿈꾸는다락방</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로13번길 49</t>
+  </si>
+  <si>
+    <t>032-351-0976</t>
+  </si>
+  <si>
+    <t>브런치</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교에 몇없는 브런치 식당. 맛있다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>양식</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>정이든 소곱창전골</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>잇츠</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>강씨네 양푼이포차</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>우후죽순</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>고품달</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭발자국</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>로지야</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>황제한우곱창</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>소곱창일번지</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자카야 감</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>펀비어킹</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>하노이맥주밤거리</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1314-6922</t>
+  </si>
+  <si>
+    <t>소곱창전골, 소곱창모듬구이</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>전골에 소주 한잔 마시면 크~~~</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-349-6200</t>
+  </si>
+  <si>
+    <t>스테이크 파스타, 바베큐샐러드플레이트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가게 인테리어와 플레이팅이 예쁘다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부천시</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원미구</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>부일로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 698 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>층</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 101</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호</t>
+    </r>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1482-8257</t>
+  </si>
+  <si>
+    <t>술집이 메인이지만 점심 메뉴도 따로 있다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>양푼이 김치찌개, 오돌뼈세트</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식,술</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 725 1층</t>
+  </si>
+  <si>
+    <t>0507-1372-1441</t>
+  </si>
+  <si>
+    <t>한우대창 곱도리탕</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>술</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대나무숲 컨셉 퓨전 한식 주점. 판다가 역시 귀엽다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1338-8411</t>
+  </si>
+  <si>
+    <t>통삼겹살, 꽃목살</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃목살 진짜 맛있당</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 698</t>
+  </si>
+  <si>
+    <t>032-346-5858</t>
+  </si>
+  <si>
+    <t>국물닭발, 무뼈닭발</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭발 종류가 많으니 싸우지 말고 하나씩 시키자!</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭,술</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 741 1층 안쪽</t>
+  </si>
+  <si>
+    <t>032-345-6969</t>
+  </si>
+  <si>
+    <t>한우 대창나베, 미즈타키</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이자카야인 만큼 가격은 비싸나 맛있다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>술,일식</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1325-9994</t>
+  </si>
+  <si>
+    <t>소곱창, 모듬구이, 육회</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱창은 소주 스펀지…</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기,술</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로14번길 5</t>
+  </si>
+  <si>
+    <t>032-342-3400</t>
+  </si>
+  <si>
+    <t>소곱창, 모듬구이, 소주물럭</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로 18-1</t>
+  </si>
+  <si>
+    <t>010-4725-8678</t>
+  </si>
+  <si>
+    <t>참치타다끼, 튀김</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>고로케가 고로케 맛있다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>크라운호프</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로1번길 6</t>
+  </si>
+  <si>
+    <t>0507-1376-0771</t>
+  </si>
+  <si>
+    <t>통오징어한판떡볶킹, 소맥타워</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체 모임 단골 픽. 역이 바로 앞에 있어 후다닥 나갈 수 있다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1387-6900</t>
+  </si>
+  <si>
+    <t>플래터, 하이볼, 과일소주</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이볼, 소주 종류가 많아 골라 먹는 재미가 있다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1347-8775</t>
+  </si>
+  <si>
+    <t>우유튀김, 오지치즈후라이, 생맥주</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차장 안쪽에 입구가 있어 찾기 어려울 수 있다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>소, 돼지, 닭이 질렸다면 오리를 드셔보시는 건 어떨까요?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>김밥천국 같은 느낌?</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격이 점점 오르지만 그래도 맛있다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교에서 멀지만 카레랑 파스타가 맛있어요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/털보네오리불고기.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/인생김밥.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/들깨랑 보리보리.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/오무야.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/호식당.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/삼복가.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/쪼계찜닭.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/분더커피바.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/이삭토스트.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/따붕.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/조아저씨 빵집.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/립플레이.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/꿈꾸는다락방.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/정이든 소곱창전골.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/잇츠.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/강씨네 양푼이포차.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/우후죽순.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/고품달.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/닭발자국.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/로지야.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/황제한우곱창.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/소곱창일번지.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/이자카야 감.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/펀비어킹.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/하노이맥주밤거리.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/크라운호프.webp</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1818,7 +2622,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1906,6 +2710,20 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF444447"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1935,7 +2753,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1986,6 +2804,15 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2543,7 +3370,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2671,10 +3498,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K87"/>
+  <dimension ref="A1:M113"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5729,6 +6556,917 @@
         <v>465</v>
       </c>
     </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A88" s="12" t="s">
+        <v>533</v>
+      </c>
+      <c r="B88" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>535</v>
+      </c>
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>662</v>
+      </c>
+      <c r="G88">
+        <v>9</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="I88">
+        <v>37.485231969848599</v>
+      </c>
+      <c r="J88">
+        <v>126.810120424641</v>
+      </c>
+      <c r="K88" s="12" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A89" s="12" t="s">
+        <v>537</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>538</v>
+      </c>
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>663</v>
+      </c>
+      <c r="G89">
+        <v>9</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="I89">
+        <v>37.485299772161603</v>
+      </c>
+      <c r="J89">
+        <v>126.81026158716401</v>
+      </c>
+      <c r="K89" s="12" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A90" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="B90" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>543</v>
+      </c>
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>664</v>
+      </c>
+      <c r="G90">
+        <v>10</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="I90">
+        <v>37.486698223482101</v>
+      </c>
+      <c r="J90">
+        <v>126.811442452414</v>
+      </c>
+      <c r="K90" s="12" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A91" s="12" t="s">
+        <v>545</v>
+      </c>
+      <c r="B91" s="18" t="s">
+        <v>546</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>547</v>
+      </c>
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>665</v>
+      </c>
+      <c r="G91">
+        <v>16</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="I91">
+        <v>37.487029465777198</v>
+      </c>
+      <c r="J91">
+        <v>126.814364477006</v>
+      </c>
+      <c r="K91" s="12" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A92" s="12" t="s">
+        <v>549</v>
+      </c>
+      <c r="B92" s="18" t="s">
+        <v>550</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>551</v>
+      </c>
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>552</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="G92">
+        <v>13</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>483</v>
+      </c>
+      <c r="I92">
+        <v>37.485092117613704</v>
+      </c>
+      <c r="J92">
+        <v>126.799105228622</v>
+      </c>
+      <c r="K92" s="12" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A93" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>555</v>
+      </c>
+      <c r="D93">
+        <v>3.2</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>556</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="I93">
+        <v>37.485782421754102</v>
+      </c>
+      <c r="J93">
+        <v>126.805101638129</v>
+      </c>
+      <c r="K93" s="12" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A94" s="12" t="s">
+        <v>558</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>559</v>
+      </c>
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>560</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="G94">
+        <v>10</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>570</v>
+      </c>
+      <c r="I94">
+        <v>37.487382453104303</v>
+      </c>
+      <c r="J94">
+        <v>126.811107174875</v>
+      </c>
+      <c r="K94" s="12" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A95" s="12" t="s">
+        <v>562</v>
+      </c>
+      <c r="B95" s="18" t="s">
+        <v>563</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>564</v>
+      </c>
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>565</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="G95">
+        <v>14</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>567</v>
+      </c>
+      <c r="I95">
+        <v>37.4880467187281</v>
+      </c>
+      <c r="J95">
+        <v>126.81380225615899</v>
+      </c>
+      <c r="K95" s="12" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A96" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>571</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>573</v>
+      </c>
+      <c r="D96">
+        <v>3.3</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>574</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>575</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="I96">
+        <v>37.485587305762799</v>
+      </c>
+      <c r="J96">
+        <v>126.805619429826</v>
+      </c>
+      <c r="K96" s="12" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A97" s="12" t="s">
+        <v>577</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>321</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>578</v>
+      </c>
+      <c r="D97">
+        <v>3.3</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="F97" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="I97">
+        <v>37.4854973123931</v>
+      </c>
+      <c r="J97">
+        <v>126.80568467685001</v>
+      </c>
+      <c r="K97" s="12" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A98" s="12" t="s">
+        <v>582</v>
+      </c>
+      <c r="B98" s="18" t="s">
+        <v>583</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>584</v>
+      </c>
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" s="12" t="s">
+        <v>585</v>
+      </c>
+      <c r="F98" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="G98">
+        <v>11</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="I98">
+        <v>37.489254939670197</v>
+      </c>
+      <c r="J98">
+        <v>126.81010458841899</v>
+      </c>
+      <c r="K98" s="12" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A99" s="12" t="s">
+        <v>587</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>588</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>589</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" s="12" t="s">
+        <v>590</v>
+      </c>
+      <c r="F99" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="G99">
+        <v>9</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="I99">
+        <v>37.485109674969301</v>
+      </c>
+      <c r="J99">
+        <v>126.809710866239</v>
+      </c>
+      <c r="K99" s="12" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A100" s="12" t="s">
+        <v>592</v>
+      </c>
+      <c r="B100" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>594</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" s="12" t="s">
+        <v>595</v>
+      </c>
+      <c r="F100" s="12" t="s">
+        <v>596</v>
+      </c>
+      <c r="G100">
+        <v>7</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>597</v>
+      </c>
+      <c r="I100">
+        <v>37.485504848207</v>
+      </c>
+      <c r="J100">
+        <v>126.8089240441</v>
+      </c>
+      <c r="K100" s="12" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A101" s="12" t="s">
+        <v>598</v>
+      </c>
+      <c r="B101" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>610</v>
+      </c>
+      <c r="D101">
+        <v>3.7</v>
+      </c>
+      <c r="E101" s="12" t="s">
+        <v>611</v>
+      </c>
+      <c r="F101" s="12" t="s">
+        <v>612</v>
+      </c>
+      <c r="G101">
+        <v>9</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="I101">
+        <v>37.485513233435498</v>
+      </c>
+      <c r="J101">
+        <v>126.809933151229</v>
+      </c>
+      <c r="K101" s="12" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A102" s="12" t="s">
+        <v>599</v>
+      </c>
+      <c r="B102" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>613</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" s="12" t="s">
+        <v>614</v>
+      </c>
+      <c r="F102" s="12" t="s">
+        <v>615</v>
+      </c>
+      <c r="G102">
+        <v>11</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>354</v>
+      </c>
+      <c r="I102">
+        <v>37.485546812520496</v>
+      </c>
+      <c r="J102">
+        <v>126.811207904138</v>
+      </c>
+      <c r="K102" s="12" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A103" s="12" t="s">
+        <v>600</v>
+      </c>
+      <c r="B103" s="18" t="s">
+        <v>616</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>617</v>
+      </c>
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>619</v>
+      </c>
+      <c r="F103" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="G103">
+        <v>6</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="I103">
+        <v>37.484392081233302</v>
+      </c>
+      <c r="J103">
+        <v>126.807522033918</v>
+      </c>
+      <c r="K103" s="12" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A104" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="B104" s="18" t="s">
+        <v>621</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>622</v>
+      </c>
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="F104" s="12" t="s">
+        <v>625</v>
+      </c>
+      <c r="G104">
+        <v>9</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>620</v>
+      </c>
+      <c r="I104">
+        <v>37.485658039014297</v>
+      </c>
+      <c r="J104">
+        <v>126.81033417520101</v>
+      </c>
+      <c r="K104" s="12" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A105" s="12" t="s">
+        <v>602</v>
+      </c>
+      <c r="B105" s="18" t="s">
+        <v>278</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>626</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105" s="12" t="s">
+        <v>627</v>
+      </c>
+      <c r="F105" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="G105">
+        <v>6</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>629</v>
+      </c>
+      <c r="I105">
+        <v>37.484285876995102</v>
+      </c>
+      <c r="J105">
+        <v>126.807315961355</v>
+      </c>
+      <c r="K105" s="12" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A106" s="12" t="s">
+        <v>603</v>
+      </c>
+      <c r="B106" s="18" t="s">
+        <v>630</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>631</v>
+      </c>
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106" s="12" t="s">
+        <v>632</v>
+      </c>
+      <c r="F106" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="G106">
+        <v>6</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="I106">
+        <v>37.484398857177901</v>
+      </c>
+      <c r="J106">
+        <v>126.807533323128</v>
+      </c>
+      <c r="K106" s="12" t="s">
+        <v>684</v>
+      </c>
+      <c r="M106" s="12"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A107" s="12" t="s">
+        <v>604</v>
+      </c>
+      <c r="B107" s="18" t="s">
+        <v>635</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>636</v>
+      </c>
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" s="12" t="s">
+        <v>637</v>
+      </c>
+      <c r="F107" s="12" t="s">
+        <v>638</v>
+      </c>
+      <c r="G107">
+        <v>12</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="I107">
+        <v>37.486189976541603</v>
+      </c>
+      <c r="J107">
+        <v>126.811958192125</v>
+      </c>
+      <c r="K107" s="12" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A108" s="12" t="s">
+        <v>605</v>
+      </c>
+      <c r="B108" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>640</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108" s="12" t="s">
+        <v>641</v>
+      </c>
+      <c r="F108" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="G108">
+        <v>10</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="I108">
+        <v>37.487422803847601</v>
+      </c>
+      <c r="J108">
+        <v>126.81098552249</v>
+      </c>
+      <c r="K108" s="12" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A109" s="12" t="s">
+        <v>606</v>
+      </c>
+      <c r="B109" s="18" t="s">
+        <v>644</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>645</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109" s="12" t="s">
+        <v>646</v>
+      </c>
+      <c r="F109" s="12" t="s">
+        <v>642</v>
+      </c>
+      <c r="G109">
+        <v>11</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>643</v>
+      </c>
+      <c r="I109">
+        <v>37.486680595646597</v>
+      </c>
+      <c r="J109">
+        <v>126.811688422621</v>
+      </c>
+      <c r="K109" s="12" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A110" s="12" t="s">
+        <v>607</v>
+      </c>
+      <c r="B110" s="18" t="s">
+        <v>647</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>648</v>
+      </c>
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" s="12" t="s">
+        <v>649</v>
+      </c>
+      <c r="F110" s="12" t="s">
+        <v>650</v>
+      </c>
+      <c r="G110">
+        <v>10</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>639</v>
+      </c>
+      <c r="I110">
+        <v>37.486927667865302</v>
+      </c>
+      <c r="J110">
+        <v>126.81124683041</v>
+      </c>
+      <c r="K110" s="12" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A111" s="12" t="s">
+        <v>608</v>
+      </c>
+      <c r="B111" s="18" t="s">
+        <v>652</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>653</v>
+      </c>
+      <c r="D111">
+        <v>3.5</v>
+      </c>
+      <c r="E111" s="12" t="s">
+        <v>654</v>
+      </c>
+      <c r="F111" s="12" t="s">
+        <v>655</v>
+      </c>
+      <c r="G111">
+        <v>12</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I111">
+        <v>37.485423281164103</v>
+      </c>
+      <c r="J111">
+        <v>126.81143152327201</v>
+      </c>
+      <c r="K111" s="12" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A112" s="12" t="s">
+        <v>609</v>
+      </c>
+      <c r="B112" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>656</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" s="12" t="s">
+        <v>657</v>
+      </c>
+      <c r="F112" s="12" t="s">
+        <v>658</v>
+      </c>
+      <c r="G112">
+        <v>9</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I112">
+        <v>37.485646276911503</v>
+      </c>
+      <c r="J112">
+        <v>126.81002326843399</v>
+      </c>
+      <c r="K112" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A113" s="12" t="s">
+        <v>651</v>
+      </c>
+      <c r="B113" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>659</v>
+      </c>
+      <c r="D113">
+        <v>3.5</v>
+      </c>
+      <c r="E113" s="12" t="s">
+        <v>660</v>
+      </c>
+      <c r="F113" s="12" t="s">
+        <v>661</v>
+      </c>
+      <c r="G113">
+        <v>11</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="I113">
+        <v>37.485544546461099</v>
+      </c>
+      <c r="J113">
+        <v>126.811199429765</v>
+      </c>
+      <c r="K113" s="12" t="s">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>

--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangg\IdeaProjects\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C981312E-6A68-4716-8982-B6AD957BC89A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A723435F-0B71-4B7C-B4D1-6193B8C975BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="809" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="778">
   <si>
     <t>분위기 좋은 에스프레소 바</t>
   </si>
@@ -405,9 +405,6 @@
   </si>
   <si>
     <t>꼬치 1호</t>
-  </si>
-  <si>
-    <t>메가커피</t>
   </si>
   <si>
     <t>도미노피자</t>
@@ -2611,6 +2608,330 @@
   </si>
   <si>
     <t>images/크라운호프.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>블랑제르베네</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>읍천리382</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가커피 가톨릭대점</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메가커피 역곡북부역점</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>88닭발</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>오닭꼬치</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주창고 소주본부</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>육회지존</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>꽃님맥주</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>썬더치킨</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>맥주가 맛있는 집</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역전우동0410</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>병천토속순대</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>김밥보석비빔밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>달빛 사냥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>백소정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 699</t>
+  </si>
+  <si>
+    <t>032-345-4280</t>
+  </si>
+  <si>
+    <t>가격이 저렴하고 빵이 맛있당</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>미소램양꼬치</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 710 , 1층 일부호(역곡동)</t>
+  </si>
+  <si>
+    <t>0507-1401-8185</t>
+  </si>
+  <si>
+    <t>오리지널 양꼬치, 숙성 양꼬치</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리지널, 숙성 둘 다 맛있다. 취향 차이일듯</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 712 102호</t>
+  </si>
+  <si>
+    <t>0507-1399-0469</t>
+  </si>
+  <si>
+    <t>1L 시리즈, 뚱 샌드위치</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름부터 정감가는 읍천리. 매장도 레트로 느낌이다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로 7</t>
+  </si>
+  <si>
+    <t>032-345-1123</t>
+  </si>
+  <si>
+    <t>피자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 713</t>
+  </si>
+  <si>
+    <t>0507-1406-1921</t>
+  </si>
+  <si>
+    <t>88닭발, 직화닭발</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>양이 모자르다면 곱빼기와 세트도 있으니 참고하자</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-349-8288</t>
+  </si>
+  <si>
+    <t>파닭꼬치</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 꼬치와 세트로도 판매하고 있다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-343-6363</t>
+  </si>
+  <si>
+    <t>육개장 만두전골, 순대강정</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>안주가 비싸지 않아 부담없다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1302-5329</t>
+  </si>
+  <si>
+    <t>육회, 육사시미</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>육회가 9,900원?!</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1356-5547</t>
+  </si>
+  <si>
+    <t>로제에 빠진 닭, 삼겹두부김치</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체들이 종종 이용하는 곳. 전반적으로 괜찮다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-343-7709</t>
+  </si>
+  <si>
+    <t>치킨</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체들이 종종 이용하는 곳. 넓은 치킨집</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1342-6522</t>
+  </si>
+  <si>
+    <t>레드락 생맥주</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름부터 맥주맛을 증명하는 곳</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>032-344-0410</t>
+  </si>
+  <si>
+    <t>우동</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 731</t>
+  </si>
+  <si>
+    <t>032-345-6630</t>
+  </si>
+  <si>
+    <t>순대국, 얼큰 순대국</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>24시간 운영. 이름처럼 역앞에 있음</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>24시간 운영. 첫차 타기 전 해장으로 좋다</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 부일로 740</t>
+  </si>
+  <si>
+    <t>032-346-7719</t>
+  </si>
+  <si>
+    <t>계란김밥, 라면</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>24시간 운영. 계란김밥 추천!</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기 부천시 원미구 역곡로 3</t>
+  </si>
+  <si>
+    <t>0507-1349-7945</t>
+  </si>
+  <si>
+    <t>달빛치킨, 해물파스타</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 근처 무난한 술집</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>0507-1340-0812</t>
+  </si>
+  <si>
+    <t>돈카츠, 덮밥, 소바</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴가 많아 다양하게 먹을 수 있다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/블랑제르베네.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/미소램양꼬치.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/읍천리382.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/88닭발.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/오닭꼬치.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/맥주창고 소주본부.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/육회지존.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/꽃님맥주.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/썬더치킨.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/맥주가 맛있는 집.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/역전우동0410.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/병천토속순대.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/김밥보석비빔밥.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/달빛 사냥.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>images/백소정.webp</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>롤케잌</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3386,7 +3707,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3394,7 +3715,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3402,7 +3723,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -3410,7 +3731,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3418,7 +3739,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3426,7 +3747,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3434,7 +3755,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3442,7 +3763,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3450,7 +3771,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -3458,7 +3779,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -3466,7 +3787,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -3474,7 +3795,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -3482,7 +3803,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B14" t="b">
         <v>1</v>
@@ -3498,10 +3819,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:M113"/>
+  <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E114" sqref="E114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3522,36 +3843,36 @@
         <v>107</v>
       </c>
       <c r="C1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
       </c>
       <c r="E1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>6</v>
@@ -3560,16 +3881,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I2">
         <v>37.486217440038999</v>
@@ -3578,15 +3899,15 @@
         <v>126.80527293775</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>1</v>
@@ -3595,16 +3916,16 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I3">
         <v>37.485605899757097</v>
@@ -3613,7 +3934,7 @@
         <v>126.80460177190599</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
@@ -3621,7 +3942,7 @@
         <v>103</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>11</v>
@@ -3630,16 +3951,16 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I4">
         <v>37.484743157313098</v>
@@ -3648,15 +3969,15 @@
         <v>126.808713984352</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
@@ -3665,10 +3986,10 @@
         <v>4.5</v>
       </c>
       <c r="E5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G5">
         <v>9</v>
@@ -3683,7 +4004,7 @@
         <v>126.809960322531</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -3691,7 +4012,7 @@
         <v>105</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>5</v>
@@ -3700,10 +4021,10 @@
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G6">
         <v>9</v>
@@ -3718,15 +4039,15 @@
         <v>126.809439672441</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>10</v>
@@ -3735,16 +4056,16 @@
         <v>4.5</v>
       </c>
       <c r="E7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I7">
         <v>37.485259103938198</v>
@@ -3753,7 +4074,7 @@
         <v>126.806024495491</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -3761,7 +4082,7 @@
         <v>91</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>2</v>
@@ -3773,13 +4094,13 @@
         <v>119</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I8">
         <v>37.4846394516712</v>
@@ -3788,15 +4109,15 @@
         <v>126.807272653455</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>38</v>
@@ -3805,16 +4126,16 @@
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I9">
         <v>37.486252715190901</v>
@@ -3823,15 +4144,15 @@
         <v>126.804809264423</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>22</v>
@@ -3840,16 +4161,16 @@
         <v>3.5</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I10">
         <v>37.485497186636003</v>
@@ -3858,7 +4179,7 @@
         <v>126.806982127745</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.4">
@@ -3866,7 +4187,7 @@
         <v>111</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>15</v>
@@ -3875,16 +4196,16 @@
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I11">
         <v>37.484953499782101</v>
@@ -3893,15 +4214,15 @@
         <v>126.809244861902</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>52</v>
@@ -3910,16 +4231,16 @@
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I12">
         <v>37.485489281787402</v>
@@ -3928,15 +4249,15 @@
         <v>126.806281129108</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>19</v>
@@ -3945,16 +4266,16 @@
         <v>3.5</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I13">
         <v>37.484376124816201</v>
@@ -3963,7 +4284,7 @@
         <v>126.807406182305</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -3971,7 +4292,7 @@
         <v>104</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>32</v>
@@ -3980,16 +4301,16 @@
         <v>3.5</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G14">
         <v>9</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I14">
         <v>37.485087045156199</v>
@@ -3998,7 +4319,7 @@
         <v>126.809645910124</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -4006,7 +4327,7 @@
         <v>115</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>35</v>
@@ -4015,16 +4336,16 @@
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F15" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="12" t="s">
         <v>482</v>
-      </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>483</v>
       </c>
       <c r="I15">
         <v>37.484322028046897</v>
@@ -4033,7 +4354,7 @@
         <v>126.806007131678</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -4041,7 +4362,7 @@
         <v>114</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>37</v>
@@ -4050,16 +4371,16 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I16">
         <v>37.484822724520697</v>
@@ -4068,7 +4389,7 @@
         <v>126.807775328921</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
@@ -4076,7 +4397,7 @@
         <v>117</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>23</v>
@@ -4085,16 +4406,16 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I17">
         <v>37.484953508909399</v>
@@ -4103,15 +4424,15 @@
         <v>126.809250515218</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>33</v>
@@ -4120,10 +4441,10 @@
         <v>3.8</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G18">
         <v>4</v>
@@ -4138,15 +4459,15 @@
         <v>126.807206921003</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>69</v>
@@ -4158,13 +4479,13 @@
         <v>93</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I19">
         <v>37.485793357720603</v>
@@ -4173,7 +4494,7 @@
         <v>126.804903740664</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4181,7 +4502,7 @@
         <v>102</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>34</v>
@@ -4190,16 +4511,16 @@
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="I20">
         <v>37.485609802936601</v>
@@ -4208,15 +4529,15 @@
         <v>126.80560241137501</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>128</v>
+      <c r="A21" s="12" t="s">
+        <v>693</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>31</v>
@@ -4225,10 +4546,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G21">
         <v>1</v>
@@ -4243,7 +4564,7 @@
         <v>126.804958775329</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
@@ -4251,7 +4572,7 @@
         <v>116</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>67</v>
@@ -4263,13 +4584,13 @@
         <v>3</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I22">
         <v>37.485784678924702</v>
@@ -4278,15 +4599,15 @@
         <v>126.805104458966</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>49</v>
@@ -4295,16 +4616,16 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I23">
         <v>37.485472117984301</v>
@@ -4313,7 +4634,7 @@
         <v>126.806804110846</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4321,25 +4642,25 @@
         <v>106</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D24">
         <v>3.5</v>
       </c>
       <c r="E24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I24">
         <v>37.4876187047714</v>
@@ -4348,7 +4669,7 @@
         <v>126.809540549543</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
@@ -4356,7 +4677,7 @@
         <v>101</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>20</v>
@@ -4365,16 +4686,16 @@
         <v>3.5</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I25">
         <v>37.486371424902799</v>
@@ -4383,7 +4704,7 @@
         <v>126.80440190752201</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4391,7 +4712,7 @@
         <v>108</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>36</v>
@@ -4400,16 +4721,16 @@
         <v>3.5</v>
       </c>
       <c r="E26" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I26">
         <v>37.485452852107699</v>
@@ -4418,7 +4739,7 @@
         <v>126.80604378137799</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4426,7 +4747,7 @@
         <v>4</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>16</v>
@@ -4435,16 +4756,16 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I27">
         <v>37.4852771880539</v>
@@ -4453,7 +4774,7 @@
         <v>126.807440616127</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.4">
@@ -4461,7 +4782,7 @@
         <v>109</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>12</v>
@@ -4470,10 +4791,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G28">
         <v>10</v>
@@ -4488,15 +4809,15 @@
         <v>126.811050906527</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>13</v>
@@ -4505,10 +4826,10 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G29">
         <v>8</v>
@@ -4523,7 +4844,7 @@
         <v>126.809760849471</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.4">
@@ -4531,7 +4852,7 @@
         <v>113</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>25</v>
@@ -4540,16 +4861,16 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G30">
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I30">
         <v>37.485134516293101</v>
@@ -4558,7 +4879,7 @@
         <v>126.80975037669999</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
@@ -4566,7 +4887,7 @@
         <v>124</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>17</v>
@@ -4575,16 +4896,16 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G31">
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I31">
         <v>37.485578293433598</v>
@@ -4593,7 +4914,7 @@
         <v>126.811173904604</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.4">
@@ -4601,7 +4922,7 @@
         <v>110</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>24</v>
@@ -4610,16 +4931,16 @@
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I32">
         <v>37.485546523304997</v>
@@ -4628,15 +4949,15 @@
         <v>126.811026996593</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>26</v>
@@ -4645,16 +4966,16 @@
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G33">
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I33">
         <v>37.48501471886</v>
@@ -4663,7 +4984,7 @@
         <v>126.809493453358</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.4">
@@ -4671,7 +4992,7 @@
         <v>112</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>29</v>
@@ -4680,16 +5001,16 @@
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G34">
         <v>9</v>
       </c>
       <c r="H34" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I34">
         <v>37.485252269681297</v>
@@ -4698,15 +5019,15 @@
         <v>126.810137333348</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C35" s="11" t="s">
         <v>14</v>
@@ -4715,10 +5036,10 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G35">
         <v>8</v>
@@ -4733,15 +5054,15 @@
         <v>126.80940504867399</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C36" s="11" t="s">
         <v>21</v>
@@ -4753,13 +5074,13 @@
         <v>90</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I36">
         <v>37.484953504345803</v>
@@ -4768,15 +5089,15 @@
         <v>126.80924768856001</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>41</v>
@@ -4785,16 +5106,16 @@
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G37">
         <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I37">
         <v>37.485105646383197</v>
@@ -4803,15 +5124,15 @@
         <v>126.80861129985701</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>30</v>
@@ -4820,16 +5141,16 @@
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G38">
         <v>9</v>
       </c>
       <c r="H38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I38">
         <v>37.485842245137803</v>
@@ -4838,7 +5159,7 @@
         <v>126.810022772203</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.4">
@@ -4846,7 +5167,7 @@
         <v>100</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C39" s="11" t="s">
         <v>18</v>
@@ -4855,16 +5176,16 @@
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G39">
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I39">
         <v>37.484711799258001</v>
@@ -4873,15 +5194,15 @@
         <v>126.80743641390001</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>27</v>
@@ -4890,16 +5211,16 @@
         <v>3.5</v>
       </c>
       <c r="E40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I40">
         <v>37.485713367130501</v>
@@ -4908,15 +5229,15 @@
         <v>126.80557104935301</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C41" s="11" t="s">
         <v>28</v>
@@ -4925,16 +5246,16 @@
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I41">
         <v>37.4864311346047</v>
@@ -4943,15 +5264,15 @@
         <v>126.805094299427</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>53</v>
@@ -4960,16 +5281,16 @@
         <v>2.5</v>
       </c>
       <c r="E42" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I42">
         <v>37.4855968850514</v>
@@ -4978,7 +5299,7 @@
         <v>126.804598968691</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.4">
@@ -4986,7 +5307,7 @@
         <v>120</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C43" s="11" t="s">
         <v>60</v>
@@ -4995,16 +5316,16 @@
         <v>3.5</v>
       </c>
       <c r="E43" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G43">
         <v>6</v>
       </c>
       <c r="H43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I43">
         <v>37.484507658332703</v>
@@ -5013,15 +5334,15 @@
         <v>126.80795138859099</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>86</v>
@@ -5030,16 +5351,16 @@
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G44">
         <v>6</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I44">
         <v>37.484494157064901</v>
@@ -5048,7 +5369,7 @@
         <v>126.807959903106</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
@@ -5056,7 +5377,7 @@
         <v>123</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>63</v>
@@ -5065,16 +5386,16 @@
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I45">
         <v>37.484494157064901</v>
@@ -5083,7 +5404,7 @@
         <v>126.807959903106</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.4">
@@ -5091,7 +5412,7 @@
         <v>122</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C46" s="8" t="s">
         <v>76</v>
@@ -5100,10 +5421,10 @@
         <v>3</v>
       </c>
       <c r="E46" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>360</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>361</v>
       </c>
       <c r="G46">
         <v>1</v>
@@ -5118,15 +5439,15 @@
         <v>126.804858279291</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>43</v>
@@ -5135,10 +5456,10 @@
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G47">
         <v>1</v>
@@ -5153,15 +5474,15 @@
         <v>126.805126194846</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>54</v>
@@ -5170,10 +5491,10 @@
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G48">
         <v>1</v>
@@ -5188,15 +5509,15 @@
         <v>126.805043088126</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>47</v>
@@ -5205,16 +5526,16 @@
         <v>3.5</v>
       </c>
       <c r="E49" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G49">
         <v>8</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I49">
         <v>37.487799763159799</v>
@@ -5223,7 +5544,7 @@
         <v>126.81007293726</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.4">
@@ -5231,7 +5552,7 @@
         <v>121</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>80</v>
@@ -5239,17 +5560,17 @@
       <c r="D50">
         <v>3</v>
       </c>
-      <c r="E50" t="s">
-        <v>228</v>
+      <c r="E50" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I50">
         <v>37.485764012101299</v>
@@ -5258,15 +5579,15 @@
         <v>126.80486565653</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>58</v>
@@ -5274,17 +5595,17 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
-        <v>228</v>
+      <c r="E51" s="12" t="s">
+        <v>721</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I51">
         <v>37.485587896057297</v>
@@ -5293,15 +5614,15 @@
         <v>126.804611712222</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C52" s="11" t="s">
         <v>39</v>
@@ -5310,16 +5631,16 @@
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I52">
         <v>37.485741491693297</v>
@@ -5328,15 +5649,15 @@
         <v>126.804868541803</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>62</v>
@@ -5345,16 +5666,16 @@
         <v>3.5</v>
       </c>
       <c r="E53" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I53">
         <v>37.485717869820199</v>
@@ -5363,15 +5684,15 @@
         <v>126.80556962433501</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>57</v>
@@ -5383,7 +5704,7 @@
         <v>94</v>
       </c>
       <c r="F54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G54">
         <v>3</v>
@@ -5398,15 +5719,15 @@
         <v>126.80623441389299</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>46</v>
@@ -5415,16 +5736,16 @@
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I55">
         <v>37.486280815262703</v>
@@ -5433,15 +5754,15 @@
         <v>126.805457923362</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>59</v>
@@ -5450,16 +5771,16 @@
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G56">
         <v>9</v>
       </c>
       <c r="H56" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I56">
         <v>37.485229715068598</v>
@@ -5468,15 +5789,15 @@
         <v>126.810119017007</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C57" s="11" t="s">
         <v>61</v>
@@ -5485,16 +5806,16 @@
         <v>3.7</v>
       </c>
       <c r="E57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I57">
         <v>37.485806101015598</v>
@@ -5503,7 +5824,7 @@
         <v>126.807177788738</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.4">
@@ -5511,7 +5832,7 @@
         <v>125</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C58" s="11" t="s">
         <v>51</v>
@@ -5520,16 +5841,16 @@
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G58">
         <v>9</v>
       </c>
       <c r="H58" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I58">
         <v>37.4856445443829</v>
@@ -5538,15 +5859,15 @@
         <v>126.810346929445</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>65</v>
@@ -5555,16 +5876,16 @@
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I59">
         <v>37.484632488894697</v>
@@ -5573,15 +5894,15 @@
         <v>126.807146885097</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>64</v>
@@ -5590,16 +5911,16 @@
         <v>3</v>
       </c>
       <c r="E60" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I60">
         <v>37.485713029704101</v>
@@ -5608,15 +5929,15 @@
         <v>126.805366114637</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>68</v>
@@ -5625,7 +5946,7 @@
         <v>3.6</v>
       </c>
       <c r="E61" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5634,7 +5955,7 @@
         <v>6</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I61">
         <v>37.484983408219797</v>
@@ -5643,15 +5964,15 @@
         <v>126.808239904519</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>56</v>
@@ -5660,16 +5981,16 @@
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G62">
         <v>9</v>
       </c>
       <c r="H62" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I62">
         <v>37.485630525260497</v>
@@ -5678,15 +5999,15 @@
         <v>126.81003320175201</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>55</v>
@@ -5695,16 +6016,16 @@
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G63">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I63">
         <v>37.485934863757898</v>
@@ -5713,15 +6034,15 @@
         <v>126.81018789999401</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C64" s="11" t="s">
         <v>40</v>
@@ -5730,16 +6051,16 @@
         <v>3</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G64">
         <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I64">
         <v>37.485878582837401</v>
@@ -5748,15 +6069,15 @@
         <v>126.810207829315</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>66</v>
@@ -5765,16 +6086,16 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F65" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G65">
         <v>11</v>
       </c>
-      <c r="H65" t="s">
-        <v>96</v>
+      <c r="H65" s="12" t="s">
+        <v>633</v>
       </c>
       <c r="I65">
         <v>37.487146131786702</v>
@@ -5783,7 +6104,7 @@
         <v>126.811227906865</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.4">
@@ -5791,7 +6112,7 @@
         <v>127</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C66" s="11" t="s">
         <v>48</v>
@@ -5800,16 +6121,16 @@
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G66">
         <v>10</v>
       </c>
-      <c r="H66" t="s">
-        <v>96</v>
+      <c r="H66" s="12" t="s">
+        <v>633</v>
       </c>
       <c r="I66">
         <v>37.486354841323397</v>
@@ -5818,15 +6139,15 @@
         <v>126.810817196481</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>42</v>
@@ -5838,7 +6159,7 @@
         <v>44</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G67">
         <v>9</v>
@@ -5853,15 +6174,15 @@
         <v>126.810871460472</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>45</v>
@@ -5870,16 +6191,16 @@
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G68">
         <v>10</v>
       </c>
       <c r="H68" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I68">
         <v>37.486465666514498</v>
@@ -5888,15 +6209,15 @@
         <v>126.81109958965401</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C69" s="11" t="s">
         <v>50</v>
@@ -5905,16 +6226,16 @@
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I69">
         <v>37.485496488895201</v>
@@ -5923,15 +6244,15 @@
         <v>126.80382330388299</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>74</v>
@@ -5940,16 +6261,16 @@
         <v>3.5</v>
       </c>
       <c r="E70" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G70">
         <v>8</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I70">
         <v>37.484991922466399</v>
@@ -5958,15 +6279,15 @@
         <v>126.80932532433</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>78</v>
@@ -5975,16 +6296,16 @@
         <v>2.5</v>
       </c>
       <c r="E71" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G71">
         <v>7</v>
       </c>
       <c r="H71" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I71">
         <v>37.485500345476098</v>
@@ -5993,15 +6314,15 @@
         <v>126.808925468913</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>89</v>
@@ -6010,16 +6331,16 @@
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G72">
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I72">
         <v>37.4871579145832</v>
@@ -6028,15 +6349,15 @@
         <v>126.807363706692</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>82</v>
@@ -6045,16 +6366,16 @@
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G73">
         <v>5</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I73">
         <v>37.486829916063698</v>
@@ -6063,27 +6384,27 @@
         <v>126.807897389395</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C74" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74">
+        <v>3</v>
+      </c>
+      <c r="E74" t="s">
         <v>287</v>
       </c>
-      <c r="D74">
-        <v>3</v>
-      </c>
-      <c r="E74" t="s">
-        <v>288</v>
-      </c>
       <c r="F74" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G74">
         <v>1</v>
@@ -6098,15 +6419,15 @@
         <v>126.80379346472</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>87</v>
@@ -6115,16 +6436,16 @@
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I75">
         <v>37.485465777282897</v>
@@ -6133,15 +6454,15 @@
         <v>126.805684758526</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>77</v>
@@ -6150,16 +6471,16 @@
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F76" s="12" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I76">
         <v>37.4852659867394</v>
@@ -6168,15 +6489,15 @@
         <v>126.806100798082</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>88</v>
@@ -6185,16 +6506,16 @@
         <v>4.2</v>
       </c>
       <c r="E77" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I77">
         <v>37.485471043818599</v>
@@ -6203,15 +6524,15 @@
         <v>126.806148321831</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>71</v>
@@ -6220,10 +6541,10 @@
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G78">
         <v>3</v>
@@ -6238,15 +6559,15 @@
         <v>126.806456179731</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C79" s="11" t="s">
         <v>83</v>
@@ -6255,7 +6576,7 @@
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F79" t="s">
         <v>9</v>
@@ -6273,15 +6594,15 @@
         <v>126.807313105798</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>79</v>
@@ -6290,16 +6611,16 @@
         <v>3.7</v>
       </c>
       <c r="E80" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G80">
         <v>7</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I80">
         <v>37.4851076652795</v>
@@ -6308,15 +6629,15 @@
         <v>126.808467134276</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C81" s="11" t="s">
         <v>72</v>
@@ -6325,16 +6646,16 @@
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G81">
         <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="I81">
         <v>37.485008389901601</v>
@@ -6343,15 +6664,15 @@
         <v>126.80836562754401</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>81</v>
@@ -6360,16 +6681,16 @@
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G82">
         <v>7</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I82">
         <v>37.484883283856099</v>
@@ -6378,15 +6699,15 @@
         <v>126.80900477375801</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C83" s="11" t="s">
         <v>84</v>
@@ -6395,16 +6716,16 @@
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G83">
         <v>9</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I83">
         <v>37.485515772291102</v>
@@ -6413,15 +6734,15 @@
         <v>126.810111226302</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>73</v>
@@ -6430,16 +6751,16 @@
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G84">
         <v>9</v>
       </c>
       <c r="H84" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="I84">
         <v>37.485506471362903</v>
@@ -6448,15 +6769,15 @@
         <v>126.809930341669</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>75</v>
@@ -6465,16 +6786,16 @@
         <v>3.9</v>
       </c>
       <c r="E85" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="G85">
         <v>9</v>
       </c>
       <c r="H85" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="I85">
         <v>37.485308791274598</v>
@@ -6483,15 +6804,15 @@
         <v>126.81026721772</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C86" s="11" t="s">
         <v>85</v>
@@ -6500,16 +6821,16 @@
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="G86">
         <v>10</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I86">
         <v>37.485678606400697</v>
@@ -6518,15 +6839,15 @@
         <v>126.81051785849201</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B87" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>70</v>
@@ -6535,16 +6856,16 @@
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="G87">
         <v>7</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I87">
         <v>37.485336015207501</v>
@@ -6553,33 +6874,33 @@
         <v>126.808989487812</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A88" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="B88" s="17" t="s">
         <v>533</v>
       </c>
-      <c r="B88" s="17" t="s">
+      <c r="C88" s="18" t="s">
         <v>534</v>
       </c>
-      <c r="C88" s="18" t="s">
+      <c r="D88">
+        <v>3</v>
+      </c>
+      <c r="E88" s="12" t="s">
         <v>535</v>
       </c>
-      <c r="D88">
-        <v>3</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>536</v>
-      </c>
       <c r="F88" s="12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="G88">
         <v>9</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I88">
         <v>37.485231969848599</v>
@@ -6588,33 +6909,33 @@
         <v>126.810120424641</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A89" s="12" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="C89" s="18" t="s">
         <v>537</v>
       </c>
-      <c r="B89" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="C89" s="18" t="s">
+      <c r="D89">
+        <v>3</v>
+      </c>
+      <c r="E89" s="12" t="s">
         <v>538</v>
       </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89" s="12" t="s">
-        <v>539</v>
-      </c>
       <c r="F89" s="12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G89">
         <v>9</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I89">
         <v>37.485299772161603</v>
@@ -6623,33 +6944,33 @@
         <v>126.81026158716401</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A90" s="12" t="s">
+        <v>540</v>
+      </c>
+      <c r="B90" s="18" t="s">
         <v>541</v>
       </c>
-      <c r="B90" s="18" t="s">
+      <c r="C90" s="18" t="s">
         <v>542</v>
       </c>
-      <c r="C90" s="18" t="s">
+      <c r="D90">
+        <v>3</v>
+      </c>
+      <c r="E90" s="12" t="s">
         <v>543</v>
       </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>544</v>
-      </c>
       <c r="F90" s="12" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="G90">
         <v>10</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I90">
         <v>37.486698223482101</v>
@@ -6658,33 +6979,33 @@
         <v>126.811442452414</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A91" s="12" t="s">
+        <v>544</v>
+      </c>
+      <c r="B91" s="18" t="s">
         <v>545</v>
       </c>
-      <c r="B91" s="18" t="s">
+      <c r="C91" s="18" t="s">
         <v>546</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="D91">
+        <v>3</v>
+      </c>
+      <c r="E91" s="12" t="s">
         <v>547</v>
       </c>
-      <c r="D91">
-        <v>3</v>
-      </c>
-      <c r="E91" s="12" t="s">
-        <v>548</v>
-      </c>
       <c r="F91" s="12" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="G91">
         <v>16</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I91">
         <v>37.487029465777198</v>
@@ -6693,33 +7014,33 @@
         <v>126.814364477006</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A92" s="12" t="s">
+        <v>548</v>
+      </c>
+      <c r="B92" s="18" t="s">
         <v>549</v>
       </c>
-      <c r="B92" s="18" t="s">
+      <c r="C92" s="18" t="s">
         <v>550</v>
       </c>
-      <c r="C92" s="18" t="s">
+      <c r="D92">
+        <v>3</v>
+      </c>
+      <c r="E92" s="12" t="s">
         <v>551</v>
       </c>
-      <c r="D92">
-        <v>3</v>
-      </c>
-      <c r="E92" s="12" t="s">
+      <c r="F92" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>553</v>
       </c>
       <c r="G92">
         <v>13</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I92">
         <v>37.485092117613704</v>
@@ -6728,33 +7049,33 @@
         <v>126.799105228622</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A93" s="12" t="s">
+        <v>553</v>
+      </c>
+      <c r="B93" s="18" t="s">
+        <v>305</v>
+      </c>
+      <c r="C93" s="18" t="s">
         <v>554</v>
-      </c>
-      <c r="B93" s="18" t="s">
-        <v>306</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>555</v>
       </c>
       <c r="D93">
         <v>3.2</v>
       </c>
       <c r="E93" s="12" t="s">
+        <v>555</v>
+      </c>
+      <c r="F93" s="12" t="s">
         <v>556</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>557</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I93">
         <v>37.485782421754102</v>
@@ -6763,33 +7084,33 @@
         <v>126.805101638129</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A94" s="12" t="s">
+        <v>557</v>
+      </c>
+      <c r="B94" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="C94" s="18" t="s">
         <v>558</v>
       </c>
-      <c r="B94" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="C94" s="18" t="s">
+      <c r="D94">
+        <v>3</v>
+      </c>
+      <c r="E94" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="D94">
-        <v>3</v>
-      </c>
-      <c r="E94" s="12" t="s">
+      <c r="F94" s="12" t="s">
         <v>560</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>561</v>
       </c>
       <c r="G94">
         <v>10</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I94">
         <v>37.487382453104303</v>
@@ -6798,33 +7119,33 @@
         <v>126.811107174875</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A95" s="12" t="s">
+        <v>561</v>
+      </c>
+      <c r="B95" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="B95" s="18" t="s">
+      <c r="C95" s="18" t="s">
         <v>563</v>
       </c>
-      <c r="C95" s="18" t="s">
+      <c r="D95">
+        <v>3</v>
+      </c>
+      <c r="E95" s="12" t="s">
         <v>564</v>
       </c>
-      <c r="D95">
-        <v>3</v>
-      </c>
-      <c r="E95" s="12" t="s">
+      <c r="F95" s="12" t="s">
         <v>565</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>566</v>
       </c>
       <c r="G95">
         <v>14</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I95">
         <v>37.4880467187281</v>
@@ -6833,33 +7154,33 @@
         <v>126.81380225615899</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A96" s="12" t="s">
+        <v>571</v>
+      </c>
+      <c r="B96" s="18" t="s">
+        <v>570</v>
+      </c>
+      <c r="C96" s="18" t="s">
         <v>572</v>
-      </c>
-      <c r="B96" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>573</v>
       </c>
       <c r="D96">
         <v>3.3</v>
       </c>
       <c r="E96" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="F96" s="12" t="s">
         <v>574</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>575</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I96">
         <v>37.485587305762799</v>
@@ -6868,33 +7189,33 @@
         <v>126.805619429826</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="12" t="s">
+        <v>576</v>
+      </c>
+      <c r="B97" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>577</v>
-      </c>
-      <c r="B97" s="18" t="s">
-        <v>321</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>578</v>
       </c>
       <c r="D97">
         <v>3.3</v>
       </c>
       <c r="E97" s="12" t="s">
+        <v>578</v>
+      </c>
+      <c r="F97" s="12" t="s">
         <v>579</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>580</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I97">
         <v>37.4854973123931</v>
@@ -6903,33 +7224,33 @@
         <v>126.80568467685001</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="B98" s="18" t="s">
         <v>582</v>
       </c>
-      <c r="B98" s="18" t="s">
+      <c r="C98" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="C98" s="18" t="s">
+      <c r="D98">
+        <v>3</v>
+      </c>
+      <c r="E98" s="12" t="s">
         <v>584</v>
       </c>
-      <c r="D98">
-        <v>3</v>
-      </c>
-      <c r="E98" s="12" t="s">
+      <c r="F98" s="12" t="s">
         <v>585</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>586</v>
       </c>
       <c r="G98">
         <v>11</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I98">
         <v>37.489254939670197</v>
@@ -6938,33 +7259,33 @@
         <v>126.81010458841899</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="12" t="s">
+        <v>586</v>
+      </c>
+      <c r="B99" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="C99" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="C99" s="18" t="s">
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="D99">
-        <v>3</v>
-      </c>
-      <c r="E99" s="12" t="s">
+      <c r="F99" s="12" t="s">
         <v>590</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>591</v>
       </c>
       <c r="G99">
         <v>9</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I99">
         <v>37.485109674969301</v>
@@ -6973,33 +7294,33 @@
         <v>126.809710866239</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="12" t="s">
+        <v>591</v>
+      </c>
+      <c r="B100" s="18" t="s">
         <v>592</v>
       </c>
-      <c r="B100" s="18" t="s">
+      <c r="C100" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="C100" s="18" t="s">
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" s="12" t="s">
         <v>594</v>
       </c>
-      <c r="D100">
-        <v>3</v>
-      </c>
-      <c r="E100" s="12" t="s">
+      <c r="F100" s="12" t="s">
         <v>595</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>596</v>
       </c>
       <c r="G100">
         <v>7</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I100">
         <v>37.485504848207</v>
@@ -7008,33 +7329,33 @@
         <v>126.8089240441</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="12" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D101">
         <v>3.7</v>
       </c>
       <c r="E101" s="12" t="s">
+        <v>610</v>
+      </c>
+      <c r="F101" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>612</v>
       </c>
       <c r="G101">
         <v>9</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I101">
         <v>37.485513233435498</v>
@@ -7043,33 +7364,33 @@
         <v>126.809933151229</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="12" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C102" s="18" t="s">
+        <v>612</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" s="12" t="s">
         <v>613</v>
       </c>
-      <c r="D102">
-        <v>3</v>
-      </c>
-      <c r="E102" s="12" t="s">
+      <c r="F102" s="12" t="s">
         <v>614</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>615</v>
       </c>
       <c r="G102">
         <v>11</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I102">
         <v>37.485546812520496</v>
@@ -7078,33 +7399,33 @@
         <v>126.811207904138</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="12" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B103" s="18" t="s">
+        <v>615</v>
+      </c>
+      <c r="C103" s="18" t="s">
         <v>616</v>
       </c>
-      <c r="C103" s="18" t="s">
+      <c r="D103">
+        <v>3</v>
+      </c>
+      <c r="E103" s="12" t="s">
+        <v>618</v>
+      </c>
+      <c r="F103" s="12" t="s">
         <v>617</v>
-      </c>
-      <c r="D103">
-        <v>3</v>
-      </c>
-      <c r="E103" s="12" t="s">
-        <v>619</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>618</v>
       </c>
       <c r="G103">
         <v>6</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I103">
         <v>37.484392081233302</v>
@@ -7113,33 +7434,33 @@
         <v>126.807522033918</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="12" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B104" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="C104" s="18" t="s">
         <v>621</v>
       </c>
-      <c r="C104" s="18" t="s">
+      <c r="D104">
+        <v>3</v>
+      </c>
+      <c r="E104" s="12" t="s">
         <v>622</v>
       </c>
-      <c r="D104">
-        <v>3</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>623</v>
-      </c>
       <c r="F104" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G104">
         <v>9</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I104">
         <v>37.485658039014297</v>
@@ -7148,33 +7469,33 @@
         <v>126.81033417520101</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="12" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C105" s="18" t="s">
+        <v>625</v>
+      </c>
+      <c r="D105">
+        <v>3</v>
+      </c>
+      <c r="E105" s="12" t="s">
         <v>626</v>
       </c>
-      <c r="D105">
-        <v>3</v>
-      </c>
-      <c r="E105" s="12" t="s">
+      <c r="F105" s="12" t="s">
         <v>627</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>628</v>
       </c>
       <c r="G105">
         <v>6</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I105">
         <v>37.484285876995102</v>
@@ -7183,33 +7504,33 @@
         <v>126.807315961355</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="12" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B106" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="C106" s="18" t="s">
         <v>630</v>
       </c>
-      <c r="C106" s="18" t="s">
+      <c r="D106">
+        <v>3</v>
+      </c>
+      <c r="E106" s="12" t="s">
         <v>631</v>
       </c>
-      <c r="D106">
-        <v>3</v>
-      </c>
-      <c r="E106" s="12" t="s">
+      <c r="F106" s="12" t="s">
         <v>632</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>633</v>
       </c>
       <c r="G106">
         <v>6</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I106">
         <v>37.484398857177901</v>
@@ -7218,34 +7539,34 @@
         <v>126.807533323128</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="M106" s="12"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="12" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B107" s="18" t="s">
+        <v>634</v>
+      </c>
+      <c r="C107" s="18" t="s">
         <v>635</v>
       </c>
-      <c r="C107" s="18" t="s">
+      <c r="D107">
+        <v>3</v>
+      </c>
+      <c r="E107" s="12" t="s">
         <v>636</v>
       </c>
-      <c r="D107">
-        <v>3</v>
-      </c>
-      <c r="E107" s="12" t="s">
+      <c r="F107" s="12" t="s">
         <v>637</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>638</v>
       </c>
       <c r="G107">
         <v>12</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I107">
         <v>37.486189976541603</v>
@@ -7254,33 +7575,33 @@
         <v>126.811958192125</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C108" s="18" t="s">
+        <v>639</v>
+      </c>
+      <c r="D108">
+        <v>3</v>
+      </c>
+      <c r="E108" s="12" t="s">
         <v>640</v>
       </c>
-      <c r="D108">
-        <v>3</v>
-      </c>
-      <c r="E108" s="12" t="s">
+      <c r="F108" s="12" t="s">
         <v>641</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>642</v>
       </c>
       <c r="G108">
         <v>10</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I108">
         <v>37.487422803847601</v>
@@ -7289,33 +7610,33 @@
         <v>126.81098552249</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B109" s="18" t="s">
+        <v>643</v>
+      </c>
+      <c r="C109" s="18" t="s">
         <v>644</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="E109" s="12" t="s">
         <v>645</v>
       </c>
-      <c r="D109">
-        <v>3</v>
-      </c>
-      <c r="E109" s="12" t="s">
-        <v>646</v>
-      </c>
       <c r="F109" s="12" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="G109">
         <v>11</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I109">
         <v>37.486680595646597</v>
@@ -7324,33 +7645,33 @@
         <v>126.811688422621</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B110" s="18" t="s">
+        <v>646</v>
+      </c>
+      <c r="C110" s="18" t="s">
         <v>647</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="D110">
+        <v>3</v>
+      </c>
+      <c r="E110" s="12" t="s">
         <v>648</v>
       </c>
-      <c r="D110">
-        <v>3</v>
-      </c>
-      <c r="E110" s="12" t="s">
+      <c r="F110" s="12" t="s">
         <v>649</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>650</v>
       </c>
       <c r="G110">
         <v>10</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I110">
         <v>37.486927667865302</v>
@@ -7359,33 +7680,33 @@
         <v>126.81124683041</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="12" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B111" s="18" t="s">
+        <v>651</v>
+      </c>
+      <c r="C111" s="18" t="s">
         <v>652</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>653</v>
       </c>
       <c r="D111">
         <v>3.5</v>
       </c>
       <c r="E111" s="12" t="s">
+        <v>653</v>
+      </c>
+      <c r="F111" s="12" t="s">
         <v>654</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>655</v>
       </c>
       <c r="G111">
         <v>12</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I111">
         <v>37.485423281164103</v>
@@ -7394,33 +7715,33 @@
         <v>126.81143152327201</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C112" s="18" t="s">
+        <v>655</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+      <c r="E112" s="12" t="s">
         <v>656</v>
       </c>
-      <c r="D112">
-        <v>3</v>
-      </c>
-      <c r="E112" s="12" t="s">
+      <c r="F112" s="12" t="s">
         <v>657</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>658</v>
       </c>
       <c r="G112">
         <v>9</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I112">
         <v>37.485646276911503</v>
@@ -7429,33 +7750,33 @@
         <v>126.81002326843399</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A113" s="12" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D113">
         <v>3.5</v>
       </c>
       <c r="E113" s="12" t="s">
+        <v>659</v>
+      </c>
+      <c r="F113" s="12" t="s">
         <v>660</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>661</v>
       </c>
       <c r="G113">
         <v>11</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I113">
         <v>37.485544546461099</v>
@@ -7464,7 +7785,567 @@
         <v>126.811199429765</v>
       </c>
       <c r="K113" s="12" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A114" s="12" t="s">
         <v>691</v>
+      </c>
+      <c r="B114" s="18" t="s">
+        <v>707</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>708</v>
+      </c>
+      <c r="D114">
+        <v>3</v>
+      </c>
+      <c r="E114" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="F114" s="12" t="s">
+        <v>709</v>
+      </c>
+      <c r="G114">
+        <v>6</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="I114">
+        <v>37.484754942250802</v>
+      </c>
+      <c r="J114">
+        <v>126.807648302803</v>
+      </c>
+      <c r="K114" s="12" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A115" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="B115" s="18" t="s">
+        <v>711</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>712</v>
+      </c>
+      <c r="D115">
+        <v>3</v>
+      </c>
+      <c r="E115" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="F115" s="12" t="s">
+        <v>714</v>
+      </c>
+      <c r="G115">
+        <v>7</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="I115">
+        <v>37.484776940364902</v>
+      </c>
+      <c r="J115">
+        <v>126.808711071557</v>
+      </c>
+      <c r="K115" s="12" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A116" s="12" t="s">
+        <v>692</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D116">
+        <v>3</v>
+      </c>
+      <c r="E116" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="F116" s="12" t="s">
+        <v>718</v>
+      </c>
+      <c r="G116">
+        <v>7</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>566</v>
+      </c>
+      <c r="I116">
+        <v>37.484867424893402</v>
+      </c>
+      <c r="J116">
+        <v>126.808948280808</v>
+      </c>
+      <c r="K116" s="12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A117" s="12" t="s">
+        <v>694</v>
+      </c>
+      <c r="B117" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>720</v>
+      </c>
+      <c r="D117">
+        <v>3</v>
+      </c>
+      <c r="E117" t="s">
+        <v>235</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>374</v>
+      </c>
+      <c r="G117">
+        <v>11</v>
+      </c>
+      <c r="H117" t="s">
+        <v>95</v>
+      </c>
+      <c r="I117">
+        <v>37.485902821766103</v>
+      </c>
+      <c r="J117">
+        <v>126.811277675903</v>
+      </c>
+      <c r="K117" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A118" s="12" t="s">
+        <v>695</v>
+      </c>
+      <c r="B118" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>723</v>
+      </c>
+      <c r="D118">
+        <v>3</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>724</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="G118">
+        <v>7</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="I118">
+        <v>37.485279752762501</v>
+      </c>
+      <c r="J118">
+        <v>126.80902072455</v>
+      </c>
+      <c r="K118" s="12" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A119" s="12" t="s">
+        <v>696</v>
+      </c>
+      <c r="B119" s="18" t="s">
+        <v>722</v>
+      </c>
+      <c r="C119" s="18" t="s">
+        <v>726</v>
+      </c>
+      <c r="D119">
+        <v>3</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>728</v>
+      </c>
+      <c r="G119">
+        <v>8</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="I119">
+        <v>37.485210039208702</v>
+      </c>
+      <c r="J119">
+        <v>126.809091568982</v>
+      </c>
+      <c r="K119" s="12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A120" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="B120" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>729</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120" s="12" t="s">
+        <v>730</v>
+      </c>
+      <c r="F120" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="G120">
+        <v>8</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="I120">
+        <v>37.4854363615338</v>
+      </c>
+      <c r="J120">
+        <v>126.80975526465799</v>
+      </c>
+      <c r="K120" s="12" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A121" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="B121" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>732</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="F121" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="G121">
+        <v>9</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>628</v>
+      </c>
+      <c r="I121">
+        <v>37.485506407692803</v>
+      </c>
+      <c r="J121">
+        <v>126.809890768168</v>
+      </c>
+      <c r="K121" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A122" s="12" t="s">
+        <v>699</v>
+      </c>
+      <c r="B122" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>735</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" s="12" t="s">
+        <v>736</v>
+      </c>
+      <c r="F122" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="G122">
+        <v>9</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="I122">
+        <v>37.485632757315997</v>
+      </c>
+      <c r="J122">
+        <v>126.810020475973</v>
+      </c>
+      <c r="K122" s="12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A123" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="B123" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="F123" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="G123">
+        <v>9</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>569</v>
+      </c>
+      <c r="I123">
+        <v>37.485640028022203</v>
+      </c>
+      <c r="J123">
+        <v>126.810339874124</v>
+      </c>
+      <c r="K123" s="12" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A124" s="12" t="s">
+        <v>701</v>
+      </c>
+      <c r="B124" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>741</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="G124">
+        <v>10</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="I124">
+        <v>37.485757480460201</v>
+      </c>
+      <c r="J124">
+        <v>126.81054027288501</v>
+      </c>
+      <c r="K124" s="12" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A125" s="12" t="s">
+        <v>702</v>
+      </c>
+      <c r="B125" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>744</v>
+      </c>
+      <c r="D125">
+        <v>3</v>
+      </c>
+      <c r="E125" s="12" t="s">
+        <v>745</v>
+      </c>
+      <c r="F125" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="G125">
+        <v>10</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="I125">
+        <v>37.485503779891197</v>
+      </c>
+      <c r="J125">
+        <v>126.811061024537</v>
+      </c>
+      <c r="K125" s="12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A126" s="12" t="s">
+        <v>703</v>
+      </c>
+      <c r="B126" s="18" t="s">
+        <v>746</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>747</v>
+      </c>
+      <c r="D126">
+        <v>3</v>
+      </c>
+      <c r="E126" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="F126" s="12" t="s">
+        <v>750</v>
+      </c>
+      <c r="G126">
+        <v>10</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>477</v>
+      </c>
+      <c r="I126">
+        <v>37.485888759882002</v>
+      </c>
+      <c r="J126">
+        <v>126.81093568001199</v>
+      </c>
+      <c r="K126" s="12" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A127" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="B127" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>752</v>
+      </c>
+      <c r="D127">
+        <v>3</v>
+      </c>
+      <c r="E127" s="12" t="s">
+        <v>753</v>
+      </c>
+      <c r="F127" s="12" t="s">
+        <v>754</v>
+      </c>
+      <c r="G127">
+        <v>13</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>539</v>
+      </c>
+      <c r="I127">
+        <v>37.485822718664302</v>
+      </c>
+      <c r="J127">
+        <v>126.811896925179</v>
+      </c>
+      <c r="K127" s="12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A128" s="12" t="s">
+        <v>705</v>
+      </c>
+      <c r="B128" s="18" t="s">
+        <v>755</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>756</v>
+      </c>
+      <c r="D128">
+        <v>3</v>
+      </c>
+      <c r="E128" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="F128" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="G128">
+        <v>11</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>623</v>
+      </c>
+      <c r="I128">
+        <v>37.485653032530898</v>
+      </c>
+      <c r="J128">
+        <v>126.811428119117</v>
+      </c>
+      <c r="K128" s="12" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A129" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>751</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>759</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="F129" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="G129">
+        <v>13</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>348</v>
+      </c>
+      <c r="I129">
+        <v>37.485822718664302</v>
+      </c>
+      <c r="J129">
+        <v>126.811896925179</v>
+      </c>
+      <c r="K129" s="12" t="s">
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/Data/nyumData.xlsx
+++ b/src/main/resources/Data/nyumData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jangg\IdeaProjects\nyum-tolic\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A723435F-0B71-4B7C-B4D1-6193B8C975BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1DEA9CF-E40A-401A-8619-9F85F3FD7FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,10 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="778">
-  <si>
-    <t>분위기 좋은 에스프레소 바</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="782">
   <si>
     <t>032-345-4670</t>
   </si>
@@ -50,9 +47,6 @@
     <t>MainCategory</t>
   </si>
   <si>
-    <t>무난한 프랜차이즈 맛임.</t>
-  </si>
-  <si>
     <t>0507-1340-4825</t>
   </si>
   <si>
@@ -491,9 +485,6 @@
     <t>일품 마라탕</t>
   </si>
   <si>
-    <t>덮밥,카츠</t>
-  </si>
-  <si>
     <t>샐러디아</t>
   </si>
   <si>
@@ -530,9 +521,6 @@
     <t>파스타,감바스</t>
   </si>
   <si>
-    <t>일본식 덮밥</t>
-  </si>
-  <si>
     <t>샤브샤브</t>
   </si>
   <si>
@@ -677,15 +665,6 @@
     <t>국밥</t>
   </si>
   <si>
-    <t>마들렌</t>
-  </si>
-  <si>
-    <t>라멘</t>
-  </si>
-  <si>
-    <t>초밥</t>
-  </si>
-  <si>
     <t>샐러드</t>
   </si>
   <si>
@@ -1034,15 +1013,9 @@
     <t>맘스터치(학교)</t>
   </si>
   <si>
-    <t>봄날의 달콤한 여유</t>
-  </si>
-  <si>
     <t>맘스터치(역곡)</t>
   </si>
   <si>
-    <t>박지혜 모던순대국밥</t>
-  </si>
-  <si>
     <t>경기 부천시 원미구 지봉로34번길 38 1층</t>
   </si>
   <si>
@@ -1055,10 +1028,6 @@
     <t>경기 부천시 원미구 부일로 723 1층 일부호</t>
   </si>
   <si>
-    <t>맛있음. 반주하기에 나쁘지 않음</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>분식,배달</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1067,22 +1036,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>초밥</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>일식</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>마들렌이 맛있습니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 앞의 카페를 가고 싶다면..</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>카페,디저트,데이트</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1095,22 +1052,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>사각피자 위에 노른자가 올라며 담백하다, tv에도 나온걸로 유명합니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>부속고기집이며 양이 꽤 괜찮습니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가성비는 쪼끔 떨어지지만… 분위기가 좋다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>점심 특선 메뉴가 좋습니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>고기,닭,배달</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1119,90 +1060,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>파리바게트</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>순대가 수제라 맛있습니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>목요일에 가면 1+1 참고하자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>양식,배달</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">역 근처 중식집. </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>시그니쳐 메뉴가 신기하다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>서브웨이, 건강해진다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>무난한 횟집</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>연어사시미, 한우 육회</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>가끔씩 땡김</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장식사시 떡볶이 나옴</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>회덮밥 으로 좋은선택, 회 추가 가능</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>건강해지고 싶다면.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분이 잘아시는 엽기떡볶이 입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분이 잘아시는 메가커피 입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>돈이 많은 대학생이라면..돈값은 해요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가까워서 좋은 선택. 하하하하하..!</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>양 가격 든든하게 먹을 수 있어요. 컴공 이건희가 추천합니다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>집밥먹는 느낌. 국물없는 제육 취향이신분들 여기 괜찮아요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>럭셔리한 분식을 먹고 싶다면?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>성심여대일때 부터 존재하던 피자집. 가격도 괜찮고 먹을만 해요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>images/남경.webp</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1543,82 +1408,30 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교에 가장 가까운 중국집. 전 매뉴가 평타이상은 합니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>중식,혼밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>한식위주로 매뉴가 다양해요. 평범하게 한끼 떼우기 좋아요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>한식,혼밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교 근처 제육중 불향 가장 강합니다. 돼지 불백도 맛있고 반찬도 맛있는 집. 집밥이 그리울땐..?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교의 근처의 돼지갈비찜 맛집, 내부가 협소하고 시끄럽다는 단점도 있어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>닭갈비가 먹고싶다면? 점심 특선으로 9000원까지 합니다. 사람들이 잘 모르는 맛집.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>닭 칼국수 맛집 중에 하나. 여름에 판매하는 비빔국수도 일품이에요</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>밥과 비빔 우동이 있다. 가격도 너무 저렴하고 맛이 있어요. 다만 너무 기름져 느끼하실 수도 있어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>분식,혼밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>분식집을 가고싶다면 좋은 선택, tv에도 나왔다. 양 가격 부답없어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>한식</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>분위기 좋은데를 고르고 싶다면. 유부초밥이 생각보다 커서 든든해요. 개발자 본인 얼굴 만합니다(저 얼굴 커요).</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>밥을 더 먹을 수 있습니다. 분위기도 좋아요. 덮밥 맛집입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>근처의 꽤 괜찮은 초밥집. 가격은 좀 나가지만 학교 상권치고 퀄이 좋은편 입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>제육의 불향이 좋아요. 자극적인 것을 좋아하시면 추천드립니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>일식,혼밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>가톨릭대 근처에서 회덮밥을 먹고 싶으면 추천.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>근처의 거의 유일한 라멘집. 일본 라면인데 소주가 땡기는 국물.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>900원 커피가 가성비가 좋아요. 가대생들의 카페인을 책임지는 곳.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1627,18 +1440,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교 근처의 중국집. 남경이 자리가 없으면 여기 갑니다. 남경과 맛은 동일해요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>짬뽕을 먹고싶다면 좋은 선택. 차돌 짬뽕이 진짜 맛있어요.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교근처 국룰 소개팅 장소. 전 매뉴가 양식이고 대부분 새우가 들어가요. 맛있어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>정말 맛있는 수제버거를 먹고싶다면? 생각보다 배가 안차서 개발자 본인은 2개 먹습니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1647,62 +1452,22 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>분위기 좋고 가격도 착해요. 마라전골과 유린기가 맛있어요. 다양한 세트가 준비되서 가볼만한 곳,</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>한상차림이 한상 가득히 나옴. 전과 막걸리가 먹고 싶을땐?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>무난한 프랜차이즈입니다. 개발자 본인이 알바 하면서 느낀.. 안주를 너무 정성스럽게 맛있게 만들어 맥주가 맛있게 느껴지는 곳</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">빙수를 진짜 추천합니다. 오티로 많이 모이는 집이죠. 안주 3+1 이벤트하는 곳 입니다. </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">레트로 감성 가득한 맥주집. 역쪽이라 언제나 사람이 많아요. </t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">너무 맛있고 사장님께서도 친절한 집. 분위기가 좋아서 연인이나 소개팅 자리도 가능해요. 1차,2차로도 가능한 곳. </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>생고기 전문점. 가격도 덜 부담스럽고 고기를 구워주셔서 좋아요. 만석이 자주 있는 곳.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>구운치킨 특성상 조리가 오래걸리기도 합니다. 하지만 구은 치킨을 좋아하시는 분들께 추천드립니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격 괜찮아서 가는 곳입니다. 가격 대비 맛도 있어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>직접 구워주시고 가성비도 좋고 고기도 좋아서 단골이 많은 집이에요. 볶음밥은 국룰.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>여러분이 잘 아시는 bbq</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분이 잘 아시는 60계 치킨</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교앞에 있는 치킨가게. 전화 포장 주문 시 떡볶이 서비스 나갑니다. 개발자 본인은 치킨 따로먹고 떡볶이는 다음날 먹습니다. 2끼 해결가능!</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분이 잘 아시는 이디야</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>배고플때 학교에서 찾자.. 기숙사생 최고의 가성비 선택. 포장해서 기숙다식당에서 드셔도 좋아요.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1711,10 +1476,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>가격대비 양이 많음. 조개젓갈 맛있음. 사람들이 잘 모르는 칼국수 맛집 중 하나.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>사장님께서 친절하시고 엄청 배부르게 한끼 해결 가능해요. 다만 재료들이 자극적이라 자주 못먹는게 단점입니다.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1723,86 +1484,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>역곡의 퀄리티 있는 필터 커피를 즐기고 싶다면..?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>다들 아는 역전그랜드마더비어</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>모든 안주가 맛있지만 특히 치킨 가라아케가 맛있는 집. 대화하기도 좋은 가게.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>꼬치가 진짜 맛있고, 술집 분위기도 좋아요. 조용히 한잔하기에 좋아요. 저녁에는 자주 매진이 되는 집.</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>여기 닭꼬치가 맛있어요. 서비스도 잘 주시는 가게.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>튀김 옷도 얇고 맛있는 집. 하지만 그때그때 맛의 편차가 좀 있다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>기본 반찬도 맛있고 족발도 야들야들 하니 맛있다. 막국수도 양도 많고 존맛. 술도둑 입니다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>괜찮다는 평이 많다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>양식,배달,혼밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교맘터보다 좋은 선택(컴공 이건희가 매우매우 강력하게 추천합니다) 퀄리티가 다릅니다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격할인도 짱짱하고 맛있어요. 괜히 장사 잘 되는게 아님</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 국제관 1충에 있는 곳. 여러분이 아시는 메머드 커피.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>수타면이 먹을만 해요. 사장님께서 너무 친절하심!</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>맛있음. 자리가 없을 수 있다. 특히 불향 나는 떡볶이가 일품이에요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장이 깔끔하고 조용해서 대화 나누거나 과제하기 좋은 곳.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>호불호 많이 갈리는 부대찌개. 밥이 무한이라서 배 채우기 걱정없어요.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교 앞 탕화쿵부처럼 진한 땅콩소스맛 육수 안 좋아하고 라화쿵부나 홍리마라탕처럼 사골육수맛 좋아하는 사람들한테 추천</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>역 앞에 위치해 학교에서 가긴 멀지만 맛있습니다. 특히 모둠 먹으면 진짜 남길정도의 양</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>여러분이 잘 아시는 롯데리아</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>정말 맛있는 뼈감자탕집. 뼈가 사람 뼈마냥 크고 푸짐합니다. 컴공 아저씨들은 일주일에 한번 씩은 가는집.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>혼밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1878,10 +1567,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교 후문 근처에 위치한 일식당. 인테리어가 깔끔하다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>삼복가</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1893,10 +1578,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>돈까스 엄청 커요…</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>쪼계찜닭</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1908,10 +1589,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>찜닭 종류가 많다. 양이 부족하면 볶음밥과 주먹밥이 채워준다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>분더커피바</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1926,10 +1603,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>시장을 지나야 나오는 먼 거리의 카페. 하지만 시그니처 메뉴가 맛있다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>카페,디저트</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1960,10 +1633,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>이삭토스트 소스는 한번만 먹은 사람이 없다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>분식, 혼밥</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1979,10 +1648,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>팥붕 vs 슈붕 당신의 선택은?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>디저트</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -1998,10 +1663,6 @@
   </si>
   <si>
     <t>몽블랑, 메론빵</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장이 넓고 쾌적하다. 멀지만 빵을 좋아하면 한번쯤 가보자</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -2124,10 +1785,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>숙성회가 비싼건 감안하자.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>꿈꾸는다락방</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2142,10 +1799,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>학교에 몇없는 브런치 식당. 맛있다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>양식</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2205,18 +1858,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>전골에 소주 한잔 마시면 크~~~</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>032-349-6200</t>
   </si>
   <si>
     <t>스테이크 파스타, 바베큐샐러드플레이트</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가게 인테리어와 플레이팅이 예쁘다</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -2331,10 +1976,6 @@
     <t>0507-1482-8257</t>
   </si>
   <si>
-    <t>술집이 메인이지만 점심 메뉴도 따로 있다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>양푼이 김치찌개, 오돌뼈세트</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2357,10 +1998,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>대나무숲 컨셉 퓨전 한식 주점. 판다가 역시 귀엽다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>0507-1338-8411</t>
   </si>
   <si>
@@ -2368,10 +2005,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>꽃목살 진짜 맛있당</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>고기</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2386,10 +2019,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>닭발 종류가 많으니 싸우지 말고 하나씩 시키자!</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>닭,술</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2404,10 +2033,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>이자카야인 만큼 가격은 비싸나 맛있다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>술,일식</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2419,10 +2044,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>곱창은 소주 스펀지…</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>고기,술</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2447,10 +2068,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>고로케가 고로케 맛있다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>크라운호프</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2465,10 +2082,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>단체 모임 단골 픽. 역이 바로 앞에 있어 후다닥 나갈 수 있다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>0507-1387-6900</t>
   </si>
   <si>
@@ -2476,10 +2089,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>하이볼, 소주 종류가 많아 골라 먹는 재미가 있다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>0507-1347-8775</t>
   </si>
   <si>
@@ -2487,26 +2096,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>주차장 안쪽에 입구가 있어 찾기 어려울 수 있다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>소, 돼지, 닭이 질렸다면 오리를 드셔보시는 건 어떨까요?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>김밥천국 같은 느낌?</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격이 점점 오르지만 그래도 맛있다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>학교에서 멀지만 카레랑 파스타가 맛있어요</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>images/털보네오리불고기.webp</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2681,10 +2270,6 @@
     <t>032-345-4280</t>
   </si>
   <si>
-    <t>가격이 저렴하고 빵이 맛있당</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>미소램양꼬치</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2699,10 +2284,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>오리지널, 숙성 둘 다 맛있다. 취향 차이일듯</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>경기 부천시 원미구 부일로 712 102호</t>
   </si>
   <si>
@@ -2713,10 +2294,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>이름부터 정감가는 읍천리. 매장도 레트로 느낌이다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>경기 부천시 원미구 역곡로 7</t>
   </si>
   <si>
@@ -2737,10 +2314,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>양이 모자르다면 곱빼기와 세트도 있으니 참고하자</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>032-349-8288</t>
   </si>
   <si>
@@ -2748,10 +2321,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>여러 꼬치와 세트로도 판매하고 있다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>032-343-6363</t>
   </si>
   <si>
@@ -2759,10 +2328,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>안주가 비싸지 않아 부담없다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>0507-1302-5329</t>
   </si>
   <si>
@@ -2770,10 +2335,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>육회가 9,900원?!</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>0507-1356-5547</t>
   </si>
   <si>
@@ -2781,10 +2342,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>단체들이 종종 이용하는 곳. 전반적으로 괜찮다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>032-343-7709</t>
   </si>
   <si>
@@ -2792,10 +2349,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>단체들이 종종 이용하는 곳. 넓은 치킨집</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>0507-1342-6522</t>
   </si>
   <si>
@@ -2803,10 +2356,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>이름부터 맥주맛을 증명하는 곳</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>032-344-0410</t>
   </si>
   <si>
@@ -2824,14 +2373,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>24시간 운영. 이름처럼 역앞에 있음</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>24시간 운영. 첫차 타기 전 해장으로 좋다</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>경기 부천시 원미구 부일로 740</t>
   </si>
   <si>
@@ -2842,10 +2383,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>24시간 운영. 계란김밥 추천!</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>경기 부천시 원미구 역곡로 3</t>
   </si>
   <si>
@@ -2856,10 +2393,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>역 근처 무난한 술집</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>0507-1340-0812</t>
   </si>
   <si>
@@ -2867,10 +2400,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>메뉴가 많아 다양하게 먹을 수 있다.</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>images/블랑제르베네.webp</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
@@ -2932,6 +2461,502 @@
   </si>
   <si>
     <t>롤케잌</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교에 가장 가까운 중국집. 특제 탕수육이 맛있어요. 세트 종류도 다양해서 선택의 폭이 넓어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>김치, 부추무침이 맛있어요. 오돌뼈덮밥도 탕이랑 같이 나와서 오돌뼈 좋아하시는 분은 이 메뉴도 추천해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분식집을 가고싶다면 좋은 선택, tv에도 나왔어요. 양 가격 부담없어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥을 더 먹을 수 있어요. 분위기도 좋아요. 덮밥 맛집이에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역과 학교 중간에 있는 초밥집. 초밥 안에 와사비가 없어 개인 취향에 따라 조절해서 드실 수 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>제육의 불향이 좋아요. 조금 짤 수 도 있지만 자극적인 것을 좋아하시면 추천드려요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가톨릭대 근처에서 회덮밥을 먹고 싶으면 추천해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역과 학교 중간에 있는 라멘집. 기본 이상하는 라멘집이에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기 좋은 카페. 마들렌이 시그니처 메뉴에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 바로 앞에 2층 카페에요. 가끔 학교 단체 및 동아리와 협업으로 다양한 이벤트가 열리기도 해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처의 중국집. 남경과 비슷한 분위기에요. 북경과 남경은 취향차이</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>전 매뉴가 양식이고 대부분 새우가 들어가요. 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>사각피자 위에 노른자가 올라가 담백해요. 백종원의 골목식당에 나온걸로 유명해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기 좋고 가격도 착해요. 마라전골과 유린기가 맛있어요. 다양한 세트가 준비되서 가볼만한 곳이에요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한상차림이 한상 가득히 나옴. 막걸리 종류도 다양하고 한식 안주 메뉴도 다양해요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">빙수를 진짜 추천합니다. 오티로 많이 모이는 집이죠. 안주 3+1 이벤트하는 곳이에요. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">너무 맛있고 사장님께서도 친절한 집. 분위기가 좋아서 연인이나 소개팅 자리도 가능해요. 1차, 2차로도 가능한 곳. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>구운치킨 특성상 조리가 오래걸리기도 해요. 하지만 구운 치킨을 좋아하시는 분들께 추천드려요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격 괜찮아서 가는 곳입니다. 저녁시간에 지나가면 냄새로 인해 홀린듯이 들어갈 수 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>부속고기집이며 양도 적절해요. 같이 끓여먹는 소스가 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>비싼 고깃집의 대명사. 돈이 많은 대학생이라면..돈값은 해요</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처 부대찌개 집이에요. 양 가격 든든하게 먹을 수 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>박지혜 청담국밥</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 바로 앞 국밥집이에요. 다른 국밥집과 다르게 주문은 키오스크로 주문해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 특선 메뉴가 있어 점심에 괜찮고, 저녁에 고기를 구워먹어도 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역과 학교 중간에 위치한 bbq. 홀이 커서 홀에서도 먹을 수 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">역과 학교 중간에 위치한 60계치킨. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 바로 앞에 있는 치킨가게. 전화 포장및 홀식사 시 떡볶이 서비스 나갑니다.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 바로 앞에 있는 파리바게트. 아침에 배고플때 신호 기다리면서 빵 하나 사서 들고가면 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학교 바로 앞에 있는 이디야 커피. 메가커피와 매머드로 인해 사람이 좀 줄었지만 그래도 맛있어요. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리가 좀 멀긴 하지만 순대가 수제라 진짜 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>성심여대일때 부터 존재하던 피자집. 가격도 괜찮고 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 도미노 피자와 같이 목요일에 방문포장 1+1 이벤트가 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격대비 양이 많아요. 조개젓갈이 맛있어요. 사람들이 잘 모르는 칼국수 맛집 중 하나에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>르뱅쿠키, 스모어 쿠키가 맛있어요. 쿠키 이외에 케이크, 스콘도 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 근처 중국집이에요. 저렴한 가격으로 즐길 수 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>닭껍질 피자가 시그니처 메뉴에요. 1인 세트도 있어서 혼자서도 알차게 즐길 수 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치한 서브웨이. 프랜차이즈라 맛은 무난해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>모던한 인테리어가 예뻐요. 필터 커피라 더 감성있는 맛이에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>분위기가 모던한 에스프레소 바. 메뉴 하나하나가 다 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>회도 맛있고 전에 나오는 메뉴들이 많고 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼음 생맥주가 기가 막히게 맛있어요. 안주도 싸서 대학생들한테 딱이에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>모든 안주가 맛있지만 특히 치킨 가라아케가 맛있는 집이에요. 분위기도 좋아서 대화하기도 좋은 가게.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기 닭꼬치가 맛있어요. 다른 메뉴도 술안주로 딱이에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>튀김 옷도 얇고 맛있는 집. 하지만 그때그때 맛의 편차가 좀 있어 감안하셔야 해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 반찬도 맛있고 족발도 야들야들 하니 맛있어요. 막국수도 양도 많고 맛있어요. 술도둑 이에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심에 사람이 많아 늦게 나오는거 감안하면 괜찮아요. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>2층에 있는 엽기떡볶이와의 궁합이 좋아요. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>등촌은 언제나 볶음밥이 맛있어요. 깔끔해서 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>네이버에서 포장 주문시 4000원 쿠폰이 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격할인도 짱짱하고 맛있어요. 이름처럼 후라이드가 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수업 시작전과 점심시간에 사람이 엄청 많아요. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>수타면이 먹을만 해요. 가끔 사장님이 쿠폰을 주시니까 활용해서 먹어봐요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>집밥먹는 느낌이에요. 국물없는 제육 취향이신분들 여기 괜찮아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>불향 가득한 중화 떡복이 맛집이에요. 공간이 협소해서 점심에는 자리가 없을 수 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장이 깔끔하고 조용해서 대화를 나누거나 과제하기 좋아요. 빙수가 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역시 교촌은 허니콤보. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처 회덮밥 중 손에 꼽아요. 밥도 무료로 추가 가능해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥이랑 라면이 무한리필이라 배불리 먹을 수 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>현금결제나 계좌이체시 이벤트가 있어요. 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인적으로 에이드가 맛있어요. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치한 샐러드 식당. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치한 돈가츠집. 모듬카츠가 양이 진짜 많아요. 돈카츠 말고도 오므라이스도 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치한 롯데리아. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>뼈해장국 맛집이에요. 뼈가 크고 부드러워서 기가막혀요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치한 오리불고기 집이에요. 오리 말고도 가정식이 괜찮아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 근처에 위치한 분식집이에요. 김밥과 면 종류가 많아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>들깨 요리 맛집이에요. 보리밥과 감자전도 맛있으니 같이 먹는걸 추천해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장 넘어서 있는 식당이라 거리가 좀 있지만 맛있고 플레이팅도 예뻐요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 후문 근처에 위치한 일식당이에요. 라멘과 카레가 맛있고 혼밥하기 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 앞에 위치한 돈가스집이에요. 삼복가스에 맛보기 물냉면 하면 배부르게 먹을 수 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>찜닭 종류가 많아요. 먹고나서 볶음밥도 볶아 먹을 수 있어서 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>시장 넘어서 있는 카페라 거리가 좀 있어요. 하지만 시그니처 메뉴가 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>토스트 갑 이삭토스트에요. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>겨울 간식 goat 붕어빵 가게에요. 아이스크림 와플도 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역에서 조금 걸어야 나오는 빵집이에요. 넓고 쾌적해서 빵을 좋아하시면 추천해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>숙성회와 육사시미를 팔아서 가격이 좀 있어요. 점심 메뉴도 있긴 하지만 점심 메뉴도 가격이 좀 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역과 학교 사이에 있는 브런치 식당이에요. 가격대가 좀 있지만 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱창 전골과 곱창 구이가 메인이에요. 둘 다 맛있는 메뉴라 추천해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 있는 이탈리아 식당이에요. 가게 인테리어와 플레이팅이 예뻐요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역과 학교 사이에 있는 포차에요. 동태탕이랑 오돌뼈가 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>대나무숲 컨셉 퓨전 한식 주점이에요. 판다가 귀여워요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>고기 퀄리티가 좋아요. 직원들이 직접 구워주셔서 편해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">국물 닭발과 무뼈 닭발 모두 있어요. 오돌뼈도 맛있어요. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 있는 이자카야에요. 이자카야인 만큼 가격은 비싸지만 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>곱창에 곱이 꽉 차 있어 고소해요. 밑 반찬들도 맛있어요. 육회를 팔아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>서비스로 육사시미를 주셔서 좋아요. 일요일은 재고 소진으로 일찍 끝날 수 있으니 주의해야 해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>타다끼랑 고로케가 맛있어요. 이외에 다양한 안주도 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>하이볼과 소주 종류가 많아 골라 먹는 재미가 있어요. 안주도 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>주차장 안쪽에 입구가 있어 찾기 어려울 수 있어요. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 바로 앞에 위치한 술집이에요. 역이랑 가까워서 막차타기 수월해요. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격이 저렴하고 빵이 맛있는 동네 빵집이에요. 갓 구울 때 지나가면 빵 냄새가 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>오리지널과 숙성 양꼬치를 파는 양꼬치 식당이에요. 꿔바로우도 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>레트로한 매장이에요. 1L 음료도 팔아요. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교 근처의 메가커피에요. 1교시 전과 점심시간에 사람이 많아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치한 메가커피에요. 역 근처에서 시간을 보낼 때 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>국물 닭발과 직화 닭발 모두 있어요. 세트로도 팔아서 같이 먹기 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>꼬치를 메인으로 판매하는 술집이에요. 프랜차이즈라 일정 수준의 맛을 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치한 술집이에요. 안주가 비싸지 않아서 부담없어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 육회를 메인으로 파는 식당이에요. 프랜차이즈라 일정 수준의 맛을 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 위치한 술집이에요. 안주가 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>단체들이 종종 이용하는 넓은 치킨집이에요. 프랜차이즈라 일정 수준의 맛을 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>카스 생맥주 말고도 red rock 생맥주도 있어어 골라 마실 수 있어요. 안주도 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>24시간이라 언제든 갈 수 있어요. 프랜차이즈라 일정 수준의 맛을 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>24시간이라 첫차 타기 전 해장으로 좋아요. 프랜차이즈라 일정 수준의 맛을 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 24시간 운영하는 김밥집이에요. 계란김밥이 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>역 앞에 있는 술집이에요. 안주들이 맛있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴가 많아 다양하게 먹을 수 있어요. 프랜차이즈라 일정 수준의 맛을 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>한식위주로 메뉴가 다양해요. 평범한 한끼 식사로 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>학교의 근처의 돼지갈비찜 맛집. 내부가 협소하고 시끄럽다는 단점도 있어요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">학교 근처 제육중 불향 가장 강해요. 돼지 불백도 맛있고 반찬도 맛있는 집이에요. </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>점심 특선으로 9000원이에요. 사람들이 잘 모르는 맛집이에요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>밥과 비빔 우동이 있어요. 가격도 너무 저렴하고 맛이 있어요. 다만 너무 기름져 느끼하실 수도 있어요. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>포장해서 드실 때 아래 층에 있는 맘스터치 치킨과 같이먹으면 맛있어요. 프랜차이즈라 일정 수준의 맛은 보장해요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>유부초밥이 크고 맛있어요. 추천 세트로도 팔아서 고르기 힘들때 좋아요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>스페셜돈, 규동</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘의 초밥(10p)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>마리오 모듬스시(10p)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>돈코츠라멘, 아부라소바</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>레몬마들렌, 바게트샌드위치</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>규카츠, 카츠동</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>비싸지만 맛있어요. 가게 내부 인테리어도 예뻐요.</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>휘낭시에, 아인슈페너</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>에스프레소, 샤케라또</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -3074,7 +3099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3134,6 +3159,12 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3692,22 +3723,22 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B2" t="b">
         <v>1</v>
@@ -3715,7 +3746,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B3" t="b">
         <v>1</v>
@@ -3723,7 +3754,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B4" t="b">
         <v>0</v>
@@ -3731,7 +3762,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B5" t="b">
         <v>1</v>
@@ -3739,7 +3770,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B6" t="b">
         <v>1</v>
@@ -3747,7 +3778,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B7" t="b">
         <v>1</v>
@@ -3755,7 +3786,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B8" t="b">
         <v>1</v>
@@ -3763,7 +3794,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B9" t="b">
         <v>1</v>
@@ -3771,7 +3802,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B10" t="b">
         <v>0</v>
@@ -3779,7 +3810,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B11" t="b">
         <v>0</v>
@@ -3787,7 +3818,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B12" t="b">
         <v>0</v>
@@ -3795,7 +3826,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B13" t="b">
         <v>0</v>
@@ -3803,10 +3834,10 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>531</v>
+        <v>451</v>
       </c>
       <c r="B14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3821,8 +3852,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:M129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E114" sqref="E114"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3830,67 +3861,67 @@
     <col min="1" max="1" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="13.296875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.19921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="37.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="37.09765625" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="26.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C1" t="s">
+        <v>320</v>
+      </c>
+      <c r="D1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" t="s">
         <v>327</v>
       </c>
-      <c r="D1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G1" t="s">
-        <v>334</v>
-      </c>
       <c r="H1" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="I1" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D2">
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>466</v>
+        <v>658</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="I2">
         <v>37.486217440038999</v>
@@ -3899,33 +3930,33 @@
         <v>126.80527293775</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>381</v>
+        <v>345</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>468</v>
+        <v>766</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="I3">
         <v>37.485605899757097</v>
@@ -3934,33 +3965,33 @@
         <v>126.80460177190599</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F4" s="13" t="s">
-        <v>470</v>
+        <v>768</v>
       </c>
       <c r="G4">
         <v>8</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="I4">
         <v>37.484743157313098</v>
@@ -3969,33 +4000,33 @@
         <v>126.808713984352</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>4.5</v>
       </c>
       <c r="E5" t="s">
-        <v>140</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>471</v>
+        <v>138</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>767</v>
       </c>
       <c r="G5">
         <v>9</v>
       </c>
       <c r="H5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I5">
         <v>37.485945760507803</v>
@@ -4004,33 +4035,33 @@
         <v>126.809960322531</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>384</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>472</v>
+        <v>769</v>
       </c>
       <c r="G6">
         <v>9</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I6">
         <v>37.485043914860903</v>
@@ -4039,33 +4070,33 @@
         <v>126.809439672441</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>385</v>
+        <v>349</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D7">
         <v>4.5</v>
       </c>
       <c r="E7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>473</v>
+        <v>432</v>
       </c>
       <c r="G7">
         <v>3</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="I7">
         <v>37.485259103938198</v>
@@ -4074,33 +4105,33 @@
         <v>126.806024495491</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>119</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>344</v>
+        <v>117</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>659</v>
       </c>
       <c r="G8">
         <v>6</v>
       </c>
       <c r="H8" s="12" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="I8">
         <v>37.4846394516712</v>
@@ -4109,33 +4140,33 @@
         <v>126.807272653455</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="69.599999999999994" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>474</v>
+        <v>770</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="I9">
         <v>37.486252715190901</v>
@@ -4144,33 +4175,33 @@
         <v>126.804809264423</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10">
         <v>3.5</v>
       </c>
       <c r="E10" t="s">
-        <v>213</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>476</v>
+        <v>209</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>660</v>
       </c>
       <c r="G10">
         <v>4</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="I10">
         <v>37.485497186636003</v>
@@ -4179,33 +4210,33 @@
         <v>126.806982127745</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="45" x14ac:dyDescent="0.4">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D11">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>373</v>
+        <v>162</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>771</v>
       </c>
       <c r="G11">
         <v>8</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I11">
         <v>37.484953499782101</v>
@@ -4214,33 +4245,33 @@
         <v>126.809244861902</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>478</v>
+        <v>139</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>772</v>
       </c>
       <c r="G12">
         <v>2</v>
       </c>
       <c r="H12" s="14" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I12">
         <v>37.485489281787402</v>
@@ -4249,33 +4280,33 @@
         <v>126.806281129108</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>3.5</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>479</v>
+      <c r="E13" s="15" t="s">
+        <v>773</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>661</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13" s="14" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I13">
         <v>37.484376124816201</v>
@@ -4284,33 +4315,33 @@
         <v>126.807406182305</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D14">
         <v>3.5</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>480</v>
+        <v>774</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>662</v>
       </c>
       <c r="G14">
         <v>9</v>
       </c>
       <c r="H14" s="14" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I14">
         <v>37.485087045156199</v>
@@ -4319,33 +4350,33 @@
         <v>126.809645910124</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>481</v>
+        <v>286</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>663</v>
       </c>
       <c r="G15">
         <v>3</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="I15">
         <v>37.484322028046897</v>
@@ -4354,33 +4385,33 @@
         <v>126.806007131678</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16">
         <v>3</v>
       </c>
-      <c r="E16" t="s">
-        <v>220</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>483</v>
+      <c r="E16" s="12" t="s">
+        <v>775</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>664</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" s="14" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I16">
         <v>37.484822724520697</v>
@@ -4389,33 +4420,33 @@
         <v>126.807775328921</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>484</v>
+      <c r="E17" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>665</v>
       </c>
       <c r="G17">
         <v>8</v>
       </c>
       <c r="H17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I17">
         <v>37.484953508909399</v>
@@ -4424,33 +4455,33 @@
         <v>126.809250515218</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18">
         <v>3.8</v>
       </c>
-      <c r="E18" t="s">
-        <v>218</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>349</v>
+      <c r="E18" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>666</v>
       </c>
       <c r="G18">
         <v>4</v>
       </c>
       <c r="H18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I18">
         <v>37.487119366054898</v>
@@ -4459,33 +4490,33 @@
         <v>126.807206921003</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>350</v>
+        <v>667</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="H19" s="14" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="I19">
         <v>37.485793357720603</v>
@@ -4494,33 +4525,33 @@
         <v>126.804903740664</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>397</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D20">
         <v>4.5</v>
       </c>
       <c r="E20" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>485</v>
+        <v>436</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I20">
         <v>37.485609802936601</v>
@@ -4529,33 +4560,33 @@
         <v>126.80560241137501</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A21" s="12" t="s">
-        <v>693</v>
+        <v>588</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21">
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>235</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>374</v>
+        <v>228</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>752</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I21">
         <v>37.486370092993198</v>
@@ -4564,33 +4595,33 @@
         <v>126.804958775329</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D22">
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>486</v>
+        <v>2</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>437</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" s="14" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="I22">
         <v>37.485784678924702</v>
@@ -4599,33 +4630,33 @@
         <v>126.805104458966</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>400</v>
+        <v>364</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>487</v>
+        <v>668</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="I23">
         <v>37.485472117984301</v>
@@ -4634,33 +4665,33 @@
         <v>126.806804110846</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>401</v>
+        <v>365</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D24">
         <v>3.5</v>
       </c>
       <c r="E24" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="F24" s="13" t="s">
-        <v>488</v>
+        <v>438</v>
       </c>
       <c r="G24">
         <v>7</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="I24">
         <v>37.4876187047714</v>
@@ -4669,33 +4700,33 @@
         <v>126.809540549543</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D25">
         <v>3.5</v>
       </c>
       <c r="E25" t="s">
-        <v>168</v>
-      </c>
-      <c r="F25" s="14" t="s">
-        <v>489</v>
+        <v>165</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>669</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="H25" s="14" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="I25">
         <v>37.486371424902799</v>
@@ -4704,33 +4735,33 @@
         <v>126.80440190752201</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>403</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D26">
         <v>3.5</v>
       </c>
       <c r="E26" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="G26">
         <v>2</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>491</v>
+        <v>440</v>
       </c>
       <c r="I26">
         <v>37.485452852107699</v>
@@ -4739,33 +4770,33 @@
         <v>126.80604378137799</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>404</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27">
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>354</v>
+        <v>670</v>
       </c>
       <c r="G27">
         <v>5</v>
       </c>
       <c r="H27" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I27">
         <v>37.4852771880539</v>
@@ -4774,33 +4805,33 @@
         <v>126.807440616127</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D28">
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>330</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>492</v>
+        <v>323</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>671</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
       <c r="H28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I28">
         <v>37.487276494832102</v>
@@ -4809,33 +4840,33 @@
         <v>126.811050906527</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>406</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D29">
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="F29" s="13" t="s">
-        <v>493</v>
+        <v>672</v>
       </c>
       <c r="G29">
         <v>8</v>
       </c>
       <c r="H29" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I29">
         <v>37.485463400737999</v>
@@ -4844,33 +4875,33 @@
         <v>126.809760849471</v>
       </c>
       <c r="K29" s="12" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.4">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D30">
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>494</v>
+        <v>163</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>441</v>
       </c>
       <c r="G30">
         <v>9</v>
       </c>
       <c r="H30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I30">
         <v>37.485134516293101</v>
@@ -4879,33 +4910,33 @@
         <v>126.80975037669999</v>
       </c>
       <c r="K30" s="12" t="s">
-        <v>408</v>
+        <v>372</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D31">
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>495</v>
+        <v>673</v>
       </c>
       <c r="G31">
         <v>11</v>
       </c>
       <c r="H31" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I31">
         <v>37.485578293433598</v>
@@ -4914,33 +4945,33 @@
         <v>126.811173904604</v>
       </c>
       <c r="K31" s="12" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.4">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <v>3</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>496</v>
+        <v>163</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>442</v>
       </c>
       <c r="G32">
         <v>10</v>
       </c>
       <c r="H32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I32">
         <v>37.485546523304997</v>
@@ -4949,33 +4980,33 @@
         <v>126.811026996593</v>
       </c>
       <c r="K32" s="12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
       <c r="E33" t="s">
-        <v>179</v>
-      </c>
-      <c r="F33" s="14" t="s">
-        <v>497</v>
+        <v>175</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>674</v>
       </c>
       <c r="G33">
         <v>8</v>
       </c>
       <c r="H33" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I33">
         <v>37.48501471886</v>
@@ -4984,33 +5015,33 @@
         <v>126.809493453358</v>
       </c>
       <c r="K33" s="12" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.4">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D34">
         <v>3</v>
       </c>
       <c r="E34" t="s">
-        <v>223</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>498</v>
+        <v>216</v>
+      </c>
+      <c r="F34" s="16" t="s">
+        <v>443</v>
       </c>
       <c r="G34">
         <v>9</v>
       </c>
       <c r="H34" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I34">
         <v>37.485252269681297</v>
@@ -5019,33 +5050,33 @@
         <v>126.810137333348</v>
       </c>
       <c r="K34" s="12" t="s">
-        <v>412</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>499</v>
+        <v>675</v>
       </c>
       <c r="G35">
         <v>8</v>
       </c>
       <c r="H35" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I35">
         <v>37.485320918690398</v>
@@ -5054,33 +5085,33 @@
         <v>126.80940504867399</v>
       </c>
       <c r="K35" s="12" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>500</v>
+        <v>88</v>
+      </c>
+      <c r="F36" s="16" t="s">
+        <v>676</v>
       </c>
       <c r="G36">
         <v>8</v>
       </c>
       <c r="H36" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I36">
         <v>37.484953504345803</v>
@@ -5089,33 +5120,33 @@
         <v>126.80924768856001</v>
       </c>
       <c r="K36" s="12" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.4">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D37">
         <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>294</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>501</v>
+        <v>287</v>
+      </c>
+      <c r="F37" s="16" t="s">
+        <v>444</v>
       </c>
       <c r="G37">
         <v>7</v>
       </c>
       <c r="H37" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I37">
         <v>37.485105646383197</v>
@@ -5124,33 +5155,33 @@
         <v>126.80861129985701</v>
       </c>
       <c r="K37" s="12" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.4">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D38">
         <v>3</v>
       </c>
       <c r="E38" t="s">
-        <v>147</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>355</v>
+        <v>145</v>
+      </c>
+      <c r="F38" s="16" t="s">
+        <v>677</v>
       </c>
       <c r="G38">
         <v>9</v>
       </c>
       <c r="H38" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I38">
         <v>37.485842245137803</v>
@@ -5159,33 +5190,33 @@
         <v>126.810022772203</v>
       </c>
       <c r="K38" s="12" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.4">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D39">
         <v>3</v>
       </c>
       <c r="E39" t="s">
-        <v>290</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>375</v>
+        <v>283</v>
+      </c>
+      <c r="F39" s="16" t="s">
+        <v>678</v>
       </c>
       <c r="G39">
         <v>5</v>
       </c>
       <c r="H39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I39">
         <v>37.484711799258001</v>
@@ -5194,33 +5225,33 @@
         <v>126.80743641390001</v>
       </c>
       <c r="K39" s="12" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.4">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D40">
         <v>3.5</v>
       </c>
-      <c r="E40" t="s">
-        <v>156</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>356</v>
+      <c r="E40" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>779</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40" s="14" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="I40">
         <v>37.485713367130501</v>
@@ -5229,33 +5260,33 @@
         <v>126.80557104935301</v>
       </c>
       <c r="K40" s="12" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.4">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D41">
         <v>3</v>
       </c>
       <c r="E41" t="s">
-        <v>175</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>377</v>
+        <v>171</v>
+      </c>
+      <c r="F41" s="16" t="s">
+        <v>679</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I41">
         <v>37.4864311346047</v>
@@ -5264,33 +5295,33 @@
         <v>126.805094299427</v>
       </c>
       <c r="K41" s="12" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>339</v>
+        <v>383</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A42" s="12" t="s">
+        <v>680</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42">
         <v>2.5</v>
       </c>
       <c r="E42" t="s">
-        <v>217</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>376</v>
+        <v>213</v>
+      </c>
+      <c r="F42" s="16" t="s">
+        <v>681</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" s="12" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="I42">
         <v>37.4855968850514</v>
@@ -5299,33 +5330,33 @@
         <v>126.804598968691</v>
       </c>
       <c r="K42" s="12" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.4">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D43">
         <v>3.5</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
-      </c>
-      <c r="F43" s="14" t="s">
-        <v>357</v>
+        <v>271</v>
+      </c>
+      <c r="F43" s="16" t="s">
+        <v>682</v>
       </c>
       <c r="G43">
         <v>6</v>
       </c>
       <c r="H43" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I43">
         <v>37.484507658332703</v>
@@ -5334,33 +5365,33 @@
         <v>126.80795138859099</v>
       </c>
       <c r="K43" s="12" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.4">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D44">
         <v>3</v>
       </c>
       <c r="E44" t="s">
-        <v>284</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>502</v>
+        <v>277</v>
+      </c>
+      <c r="F44" s="16" t="s">
+        <v>683</v>
       </c>
       <c r="G44">
         <v>6</v>
       </c>
       <c r="H44" s="14" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="I44">
         <v>37.484494157064901</v>
@@ -5369,33 +5400,33 @@
         <v>126.807959903106</v>
       </c>
       <c r="K44" s="12" t="s">
-        <v>422</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D45">
         <v>3</v>
       </c>
       <c r="E45" t="s">
-        <v>148</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>503</v>
+        <v>146</v>
+      </c>
+      <c r="F45" s="16" t="s">
+        <v>684</v>
       </c>
       <c r="G45">
         <v>6</v>
       </c>
       <c r="H45" s="14" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="I45">
         <v>37.484494157064901</v>
@@ -5404,33 +5435,33 @@
         <v>126.807959903106</v>
       </c>
       <c r="K45" s="12" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.4">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D46">
         <v>3</v>
       </c>
       <c r="E46" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>360</v>
+        <v>342</v>
+      </c>
+      <c r="F46" s="16" t="s">
+        <v>686</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I46">
         <v>37.485883383334297</v>
@@ -5439,33 +5470,33 @@
         <v>126.804858279291</v>
       </c>
       <c r="K46" s="12" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.4">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D47">
         <v>3</v>
       </c>
       <c r="E47" t="s">
-        <v>177</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>504</v>
+        <v>173</v>
+      </c>
+      <c r="F47" s="16" t="s">
+        <v>685</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I47">
         <v>37.486122592368602</v>
@@ -5474,33 +5505,33 @@
         <v>126.805126194846</v>
       </c>
       <c r="K47" s="12" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.4">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D48">
         <v>3</v>
       </c>
       <c r="E48" t="s">
-        <v>235</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>505</v>
+        <v>228</v>
+      </c>
+      <c r="F48" s="16" t="s">
+        <v>687</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I48">
         <v>37.486014334435502</v>
@@ -5509,33 +5540,33 @@
         <v>126.805043088126</v>
       </c>
       <c r="K48" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.4">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D49">
         <v>3.5</v>
       </c>
       <c r="E49" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49" s="14" t="s">
-        <v>361</v>
+        <v>151</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>688</v>
       </c>
       <c r="G49">
         <v>8</v>
       </c>
       <c r="H49" s="12" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="I49">
         <v>37.487799763159799</v>
@@ -5544,33 +5575,33 @@
         <v>126.81007293726</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.4">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D50">
         <v>3</v>
       </c>
       <c r="E50" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>380</v>
+        <v>613</v>
+      </c>
+      <c r="F50" s="16" t="s">
+        <v>689</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I50">
         <v>37.485764012101299</v>
@@ -5579,33 +5610,33 @@
         <v>126.80486565653</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.4">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D51">
         <v>3</v>
       </c>
       <c r="E51" s="12" t="s">
-        <v>721</v>
-      </c>
-      <c r="F51" s="14" t="s">
-        <v>362</v>
+        <v>613</v>
+      </c>
+      <c r="F51" s="16" t="s">
+        <v>690</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="I51">
         <v>37.485587896057297</v>
@@ -5614,33 +5645,33 @@
         <v>126.804611712222</v>
       </c>
       <c r="K51" s="12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.4">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C52" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D52">
         <v>3</v>
       </c>
       <c r="E52" t="s">
-        <v>174</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>506</v>
+        <v>170</v>
+      </c>
+      <c r="F52" s="16" t="s">
+        <v>445</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52" s="12" t="s">
-        <v>507</v>
+        <v>446</v>
       </c>
       <c r="I52">
         <v>37.485741491693297</v>
@@ -5649,33 +5680,33 @@
         <v>126.804868541803</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.4">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D53">
         <v>3.5</v>
       </c>
       <c r="E53" t="s">
-        <v>230</v>
-      </c>
-      <c r="F53" s="14" t="s">
-        <v>508</v>
+        <v>223</v>
+      </c>
+      <c r="F53" s="16" t="s">
+        <v>691</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I53">
         <v>37.485717869820199</v>
@@ -5684,33 +5715,33 @@
         <v>126.80556962433501</v>
       </c>
       <c r="K53" s="12" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.4">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54">
         <v>4.5</v>
       </c>
       <c r="E54" t="s">
-        <v>94</v>
-      </c>
-      <c r="F54" t="s">
-        <v>337</v>
+        <v>92</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>692</v>
       </c>
       <c r="G54">
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I54">
         <v>37.484423764315302</v>
@@ -5719,33 +5750,33 @@
         <v>126.80623441389299</v>
       </c>
       <c r="K54" s="12" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.4">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D55">
         <v>3</v>
       </c>
       <c r="E55" t="s">
-        <v>229</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>509</v>
+        <v>222</v>
+      </c>
+      <c r="F55" s="16" t="s">
+        <v>447</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55" s="12" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="I55">
         <v>37.486280815262703</v>
@@ -5754,33 +5785,33 @@
         <v>126.805457923362</v>
       </c>
       <c r="K55" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.4">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D56">
         <v>3</v>
       </c>
       <c r="E56" t="s">
-        <v>182</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>364</v>
+        <v>178</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>693</v>
       </c>
       <c r="G56">
         <v>9</v>
       </c>
       <c r="H56" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I56">
         <v>37.485229715068598</v>
@@ -5789,33 +5820,33 @@
         <v>126.810119017007</v>
       </c>
       <c r="K56" s="12" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.4">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D57">
         <v>3.7</v>
       </c>
       <c r="E57" t="s">
-        <v>291</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>365</v>
+        <v>284</v>
+      </c>
+      <c r="F57" s="16" t="s">
+        <v>694</v>
       </c>
       <c r="G57">
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I57">
         <v>37.485806101015598</v>
@@ -5824,33 +5855,33 @@
         <v>126.807177788738</v>
       </c>
       <c r="K57" s="12" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.4">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D58">
         <v>3</v>
       </c>
       <c r="E58" t="s">
-        <v>167</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>366</v>
+        <v>164</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>695</v>
       </c>
       <c r="G58">
         <v>9</v>
       </c>
       <c r="H58" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I58">
         <v>37.4856445443829</v>
@@ -5859,33 +5890,33 @@
         <v>126.810346929445</v>
       </c>
       <c r="K58" s="12" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.4">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D59">
         <v>3</v>
       </c>
       <c r="E59" t="s">
-        <v>165</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>510</v>
+        <v>162</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>448</v>
       </c>
       <c r="G59">
         <v>5</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>475</v>
+        <v>433</v>
       </c>
       <c r="I59">
         <v>37.484632488894697</v>
@@ -5894,33 +5925,33 @@
         <v>126.807146885097</v>
       </c>
       <c r="K59" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.4">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D60">
         <v>3</v>
       </c>
-      <c r="E60" t="s">
-        <v>235</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>511</v>
+      <c r="E60" s="12" t="s">
+        <v>780</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>696</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60" s="14" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="I60">
         <v>37.485713029704101</v>
@@ -5929,33 +5960,33 @@
         <v>126.805366114637</v>
       </c>
       <c r="K60" s="12" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.4">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61">
         <v>3.6</v>
       </c>
-      <c r="E61" t="s">
-        <v>235</v>
-      </c>
-      <c r="F61" t="s">
-        <v>0</v>
+      <c r="E61" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="F61" s="21" t="s">
+        <v>697</v>
       </c>
       <c r="G61">
         <v>6</v>
       </c>
       <c r="H61" s="14" t="s">
-        <v>351</v>
+        <v>338</v>
       </c>
       <c r="I61">
         <v>37.484983408219797</v>
@@ -5964,33 +5995,33 @@
         <v>126.808239904519</v>
       </c>
       <c r="K61" s="12" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.4">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D62">
         <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>214</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>367</v>
+        <v>210</v>
+      </c>
+      <c r="F62" s="16" t="s">
+        <v>698</v>
       </c>
       <c r="G62">
         <v>9</v>
       </c>
       <c r="H62" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I62">
         <v>37.485630525260497</v>
@@ -5999,33 +6030,33 @@
         <v>126.81003320175201</v>
       </c>
       <c r="K62" s="12" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.4">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D63">
         <v>3</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
-      </c>
-      <c r="F63" s="14" t="s">
-        <v>512</v>
+        <v>163</v>
+      </c>
+      <c r="F63" s="16" t="s">
+        <v>699</v>
       </c>
       <c r="G63">
         <v>9</v>
       </c>
       <c r="H63" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I63">
         <v>37.485934863757898</v>
@@ -6034,33 +6065,33 @@
         <v>126.81018789999401</v>
       </c>
       <c r="K63" s="12" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.4">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D64">
         <v>3</v>
       </c>
       <c r="E64" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>513</v>
+        <v>344</v>
+      </c>
+      <c r="F64" s="16" t="s">
+        <v>700</v>
       </c>
       <c r="G64">
         <v>9</v>
       </c>
       <c r="H64" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I64">
         <v>37.485878582837401</v>
@@ -6069,33 +6100,33 @@
         <v>126.810207829315</v>
       </c>
       <c r="K64" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D65">
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>178</v>
-      </c>
-      <c r="F65" s="12" t="s">
-        <v>514</v>
+        <v>174</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>449</v>
       </c>
       <c r="G65">
         <v>11</v>
       </c>
       <c r="H65" s="12" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="I65">
         <v>37.487146131786702</v>
@@ -6104,33 +6135,33 @@
         <v>126.811227906865</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.4">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D66">
         <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>234</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>515</v>
+        <v>227</v>
+      </c>
+      <c r="F66" s="16" t="s">
+        <v>701</v>
       </c>
       <c r="G66">
         <v>10</v>
       </c>
       <c r="H66" s="12" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="I66">
         <v>37.486354841323397</v>
@@ -6139,33 +6170,33 @@
         <v>126.810817196481</v>
       </c>
       <c r="K66" s="12" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.4">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C67" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
         <v>42</v>
       </c>
-      <c r="D67">
-        <v>3</v>
-      </c>
-      <c r="E67" t="s">
-        <v>44</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>516</v>
+      <c r="F67" s="16" t="s">
+        <v>702</v>
       </c>
       <c r="G67">
         <v>9</v>
       </c>
       <c r="H67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I67">
         <v>37.4861341814998</v>
@@ -6174,33 +6205,33 @@
         <v>126.810871460472</v>
       </c>
       <c r="K67" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.4">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D68">
         <v>3</v>
       </c>
       <c r="E68" t="s">
-        <v>211</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>517</v>
+        <v>207</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>703</v>
       </c>
       <c r="G68">
         <v>10</v>
       </c>
       <c r="H68" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I68">
         <v>37.486465666514498</v>
@@ -6209,33 +6240,33 @@
         <v>126.81109958965401</v>
       </c>
       <c r="K68" s="12" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.4">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D69">
         <v>3</v>
       </c>
       <c r="E69" t="s">
-        <v>171</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>518</v>
+        <v>167</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>704</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
       <c r="I69">
         <v>37.485496488895201</v>
@@ -6244,33 +6275,33 @@
         <v>126.80382330388299</v>
       </c>
       <c r="K69" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.4">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D70">
         <v>3.5</v>
       </c>
       <c r="E70" t="s">
-        <v>171</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>520</v>
+        <v>167</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>705</v>
       </c>
       <c r="G70">
         <v>8</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>519</v>
+        <v>450</v>
       </c>
       <c r="I70">
         <v>37.484991922466399</v>
@@ -6279,33 +6310,33 @@
         <v>126.80932532433</v>
       </c>
       <c r="K70" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.4">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D71">
         <v>2.5</v>
       </c>
       <c r="E71" t="s">
-        <v>170</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>369</v>
+        <v>166</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>706</v>
       </c>
       <c r="G71">
         <v>7</v>
       </c>
       <c r="H71" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I71">
         <v>37.485500345476098</v>
@@ -6314,33 +6345,33 @@
         <v>126.808925468913</v>
       </c>
       <c r="K71" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.4">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D72">
         <v>3</v>
       </c>
       <c r="E72" t="s">
-        <v>212</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>370</v>
+        <v>208</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>707</v>
       </c>
       <c r="G72">
         <v>4</v>
       </c>
       <c r="H72" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I72">
         <v>37.4871579145832</v>
@@ -6349,33 +6380,33 @@
         <v>126.807363706692</v>
       </c>
       <c r="K72" s="12" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.4">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A73" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D73">
         <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>177</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>521</v>
+        <v>173</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>708</v>
       </c>
       <c r="G73">
         <v>5</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="I73">
         <v>37.486829916063698</v>
@@ -6384,33 +6415,33 @@
         <v>126.807897389395</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.4">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A74" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D74">
         <v>3</v>
       </c>
       <c r="E74" t="s">
-        <v>287</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>522</v>
+        <v>280</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>709</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I74">
         <v>37.485557257315101</v>
@@ -6419,33 +6450,33 @@
         <v>126.80379346472</v>
       </c>
       <c r="K74" s="12" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.4">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A75" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D75">
         <v>3</v>
       </c>
       <c r="E75" t="s">
-        <v>142</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>523</v>
+        <v>140</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>710</v>
       </c>
       <c r="G75">
         <v>2</v>
       </c>
       <c r="H75" s="12" t="s">
-        <v>467</v>
+        <v>430</v>
       </c>
       <c r="I75">
         <v>37.485465777282897</v>
@@ -6454,33 +6485,33 @@
         <v>126.805684758526</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.4">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A76" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D76">
         <v>3</v>
       </c>
       <c r="E76" t="s">
-        <v>285</v>
-      </c>
-      <c r="F76" s="12" t="s">
-        <v>378</v>
+        <v>278</v>
+      </c>
+      <c r="F76" s="21" t="s">
+        <v>711</v>
       </c>
       <c r="G76">
         <v>2</v>
       </c>
       <c r="H76" s="12" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="I76">
         <v>37.4852659867394</v>
@@ -6489,33 +6520,33 @@
         <v>126.806100798082</v>
       </c>
       <c r="K76" s="12" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.4">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D77">
         <v>4.2</v>
       </c>
       <c r="E77" t="s">
-        <v>176</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>524</v>
+        <v>172</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>712</v>
       </c>
       <c r="G77">
         <v>2</v>
       </c>
       <c r="H77" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I77">
         <v>37.485471043818599</v>
@@ -6524,33 +6555,33 @@
         <v>126.806148321831</v>
       </c>
       <c r="K77" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.4">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D78">
         <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>232</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>525</v>
+        <v>225</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>713</v>
       </c>
       <c r="G78">
         <v>3</v>
       </c>
       <c r="H78" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I78">
         <v>37.485568406787102</v>
@@ -6559,33 +6590,33 @@
         <v>126.806456179731</v>
       </c>
       <c r="K78" s="12" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.4">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D79">
         <v>3</v>
       </c>
       <c r="E79" t="s">
-        <v>162</v>
-      </c>
-      <c r="F79" t="s">
-        <v>9</v>
+        <v>159</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>714</v>
       </c>
       <c r="G79">
         <v>6</v>
       </c>
       <c r="H79" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I79">
         <v>37.484297134927999</v>
@@ -6594,33 +6625,33 @@
         <v>126.807313105798</v>
       </c>
       <c r="K79" s="12" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.4">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A80" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D80">
         <v>3.7</v>
       </c>
       <c r="E80" t="s">
-        <v>226</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>371</v>
+        <v>219</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>715</v>
       </c>
       <c r="G80">
         <v>7</v>
       </c>
       <c r="H80" s="12" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="I80">
         <v>37.4851076652795</v>
@@ -6629,33 +6660,33 @@
         <v>126.808467134276</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.4">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D81">
         <v>3</v>
       </c>
       <c r="E81" t="s">
-        <v>175</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>526</v>
+        <v>171</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>716</v>
       </c>
       <c r="G81">
         <v>7</v>
       </c>
       <c r="H81" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I81">
         <v>37.485008389901601</v>
@@ -6664,33 +6695,33 @@
         <v>126.80836562754401</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A82" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D82">
         <v>3</v>
       </c>
       <c r="E82" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F82" s="16" t="s">
-        <v>527</v>
+        <v>717</v>
       </c>
       <c r="G82">
         <v>7</v>
       </c>
       <c r="H82" s="14" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="I82">
         <v>37.484883283856099</v>
@@ -6699,33 +6730,33 @@
         <v>126.80900477375801</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.4">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A83" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D83">
         <v>3</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
-      </c>
-      <c r="F83" s="14" t="s">
-        <v>379</v>
+        <v>162</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>718</v>
       </c>
       <c r="G83">
         <v>9</v>
       </c>
       <c r="H83" s="14" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="I83">
         <v>37.485515772291102</v>
@@ -6734,33 +6765,33 @@
         <v>126.810111226302</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.4">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D84">
         <v>3</v>
       </c>
       <c r="E84" t="s">
-        <v>221</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>372</v>
+        <v>214</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>719</v>
       </c>
       <c r="G84">
         <v>9</v>
       </c>
       <c r="H84" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I84">
         <v>37.485506471362903</v>
@@ -6769,33 +6800,33 @@
         <v>126.809930341669</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.4">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D85">
         <v>3.9</v>
       </c>
       <c r="E85" t="s">
-        <v>288</v>
-      </c>
-      <c r="F85" s="14" t="s">
-        <v>528</v>
+        <v>281</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>720</v>
       </c>
       <c r="G85">
         <v>9</v>
       </c>
       <c r="H85" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="I85">
         <v>37.485308791274598</v>
@@ -6804,33 +6835,33 @@
         <v>126.81026721772</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.4">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D86">
         <v>3</v>
       </c>
       <c r="E86" t="s">
-        <v>239</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>529</v>
+        <v>232</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>721</v>
       </c>
       <c r="G86">
         <v>10</v>
       </c>
       <c r="H86" s="14" t="s">
-        <v>363</v>
+        <v>343</v>
       </c>
       <c r="I86">
         <v>37.485678606400697</v>
@@ -6839,33 +6870,33 @@
         <v>126.81051785849201</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.4">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A87" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B87" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D87">
         <v>4</v>
       </c>
       <c r="E87" t="s">
-        <v>289</v>
-      </c>
-      <c r="F87" s="14" t="s">
-        <v>530</v>
+        <v>282</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>722</v>
       </c>
       <c r="G87">
         <v>7</v>
       </c>
       <c r="H87" s="12" t="s">
-        <v>469</v>
+        <v>431</v>
       </c>
       <c r="I87">
         <v>37.485336015207501</v>
@@ -6874,33 +6905,33 @@
         <v>126.808989487812</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.4">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A88" s="12" t="s">
-        <v>532</v>
+        <v>452</v>
       </c>
       <c r="B88" s="17" t="s">
-        <v>533</v>
+        <v>453</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>534</v>
+        <v>454</v>
       </c>
       <c r="D88">
         <v>3</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="F88" s="12" t="s">
-        <v>661</v>
+        <v>455</v>
+      </c>
+      <c r="F88" s="21" t="s">
+        <v>723</v>
       </c>
       <c r="G88">
         <v>9</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="I88">
         <v>37.485231969848599</v>
@@ -6909,33 +6940,33 @@
         <v>126.810120424641</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.4">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A89" s="12" t="s">
-        <v>536</v>
+        <v>456</v>
       </c>
       <c r="B89" s="18" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>537</v>
+        <v>457</v>
       </c>
       <c r="D89">
         <v>3</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>538</v>
-      </c>
-      <c r="F89" s="12" t="s">
-        <v>662</v>
+        <v>458</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>724</v>
       </c>
       <c r="G89">
         <v>9</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="I89">
         <v>37.485299772161603</v>
@@ -6944,33 +6975,33 @@
         <v>126.81026158716401</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.4">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A90" s="12" t="s">
-        <v>540</v>
+        <v>460</v>
       </c>
       <c r="B90" s="18" t="s">
-        <v>541</v>
+        <v>461</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>542</v>
+        <v>462</v>
       </c>
       <c r="D90">
         <v>3</v>
       </c>
       <c r="E90" s="12" t="s">
-        <v>543</v>
-      </c>
-      <c r="F90" s="12" t="s">
-        <v>663</v>
+        <v>463</v>
+      </c>
+      <c r="F90" s="21" t="s">
+        <v>725</v>
       </c>
       <c r="G90">
         <v>10</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="I90">
         <v>37.486698223482101</v>
@@ -6979,33 +7010,33 @@
         <v>126.811442452414</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.4">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A91" s="12" t="s">
-        <v>544</v>
+        <v>464</v>
       </c>
       <c r="B91" s="18" t="s">
-        <v>545</v>
+        <v>465</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>546</v>
+        <v>466</v>
       </c>
       <c r="D91">
         <v>3</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>547</v>
-      </c>
-      <c r="F91" s="12" t="s">
-        <v>664</v>
+        <v>467</v>
+      </c>
+      <c r="F91" s="21" t="s">
+        <v>726</v>
       </c>
       <c r="G91">
         <v>16</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>567</v>
+        <v>483</v>
       </c>
       <c r="I91">
         <v>37.487029465777198</v>
@@ -7014,33 +7045,33 @@
         <v>126.814364477006</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.4">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A92" s="12" t="s">
-        <v>548</v>
+        <v>468</v>
       </c>
       <c r="B92" s="18" t="s">
-        <v>549</v>
+        <v>469</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>550</v>
+        <v>470</v>
       </c>
       <c r="D92">
         <v>3</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>551</v>
-      </c>
-      <c r="F92" s="12" t="s">
-        <v>552</v>
+        <v>471</v>
+      </c>
+      <c r="F92" s="21" t="s">
+        <v>727</v>
       </c>
       <c r="G92">
         <v>13</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="I92">
         <v>37.485092117613704</v>
@@ -7049,33 +7080,33 @@
         <v>126.799105228622</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.4">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A93" s="12" t="s">
-        <v>553</v>
+        <v>472</v>
       </c>
       <c r="B93" s="18" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>554</v>
+        <v>473</v>
       </c>
       <c r="D93">
         <v>3.2</v>
       </c>
       <c r="E93" s="12" t="s">
-        <v>555</v>
-      </c>
-      <c r="F93" s="12" t="s">
-        <v>556</v>
+        <v>474</v>
+      </c>
+      <c r="F93" s="21" t="s">
+        <v>728</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93" s="12" t="s">
-        <v>568</v>
+        <v>484</v>
       </c>
       <c r="I93">
         <v>37.485782421754102</v>
@@ -7084,33 +7115,33 @@
         <v>126.805101638129</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.4">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A94" s="12" t="s">
-        <v>557</v>
+        <v>475</v>
       </c>
       <c r="B94" s="18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>558</v>
+        <v>476</v>
       </c>
       <c r="D94">
         <v>3</v>
       </c>
       <c r="E94" s="12" t="s">
-        <v>559</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>560</v>
+        <v>477</v>
+      </c>
+      <c r="F94" s="21" t="s">
+        <v>729</v>
       </c>
       <c r="G94">
         <v>10</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>569</v>
+        <v>485</v>
       </c>
       <c r="I94">
         <v>37.487382453104303</v>
@@ -7119,33 +7150,33 @@
         <v>126.811107174875</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A95" s="12" t="s">
-        <v>561</v>
+        <v>478</v>
       </c>
       <c r="B95" s="18" t="s">
-        <v>562</v>
+        <v>479</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
       <c r="D95">
         <v>3</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>564</v>
-      </c>
-      <c r="F95" s="12" t="s">
-        <v>565</v>
+        <v>481</v>
+      </c>
+      <c r="F95" s="21" t="s">
+        <v>730</v>
       </c>
       <c r="G95">
         <v>14</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>566</v>
+        <v>482</v>
       </c>
       <c r="I95">
         <v>37.4880467187281</v>
@@ -7154,33 +7185,33 @@
         <v>126.81380225615899</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.4">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A96" s="12" t="s">
-        <v>571</v>
+        <v>487</v>
       </c>
       <c r="B96" s="18" t="s">
-        <v>570</v>
+        <v>486</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>572</v>
+        <v>488</v>
       </c>
       <c r="D96">
         <v>3.3</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>573</v>
-      </c>
-      <c r="F96" s="12" t="s">
-        <v>574</v>
+        <v>489</v>
+      </c>
+      <c r="F96" s="21" t="s">
+        <v>731</v>
       </c>
       <c r="G96">
         <v>1</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>575</v>
+        <v>490</v>
       </c>
       <c r="I96">
         <v>37.485587305762799</v>
@@ -7189,33 +7220,33 @@
         <v>126.805619429826</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A97" s="12" t="s">
-        <v>576</v>
+        <v>491</v>
       </c>
       <c r="B97" s="18" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>577</v>
+        <v>492</v>
       </c>
       <c r="D97">
         <v>3.3</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>578</v>
-      </c>
-      <c r="F97" s="12" t="s">
-        <v>579</v>
+        <v>493</v>
+      </c>
+      <c r="F97" s="21" t="s">
+        <v>732</v>
       </c>
       <c r="G97">
         <v>2</v>
       </c>
       <c r="H97" s="12" t="s">
-        <v>580</v>
+        <v>494</v>
       </c>
       <c r="I97">
         <v>37.4854973123931</v>
@@ -7224,33 +7255,33 @@
         <v>126.80568467685001</v>
       </c>
       <c r="K97" s="12" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A98" s="12" t="s">
-        <v>581</v>
+        <v>495</v>
       </c>
       <c r="B98" s="18" t="s">
-        <v>582</v>
+        <v>496</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>583</v>
+        <v>497</v>
       </c>
       <c r="D98">
         <v>3</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>584</v>
-      </c>
-      <c r="F98" s="12" t="s">
-        <v>585</v>
+        <v>498</v>
+      </c>
+      <c r="F98" s="21" t="s">
+        <v>733</v>
       </c>
       <c r="G98">
         <v>11</v>
       </c>
       <c r="H98" s="12" t="s">
-        <v>580</v>
+        <v>494</v>
       </c>
       <c r="I98">
         <v>37.489254939670197</v>
@@ -7259,33 +7290,33 @@
         <v>126.81010458841899</v>
       </c>
       <c r="K98" s="12" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A99" s="12" t="s">
-        <v>586</v>
+        <v>499</v>
       </c>
       <c r="B99" s="19" t="s">
-        <v>587</v>
+        <v>500</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>588</v>
+        <v>501</v>
       </c>
       <c r="D99">
         <v>3</v>
       </c>
       <c r="E99" s="12" t="s">
-        <v>589</v>
-      </c>
-      <c r="F99" s="12" t="s">
-        <v>590</v>
+        <v>502</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>734</v>
       </c>
       <c r="G99">
         <v>9</v>
       </c>
       <c r="H99" s="12" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="I99">
         <v>37.485109674969301</v>
@@ -7294,33 +7325,33 @@
         <v>126.809710866239</v>
       </c>
       <c r="K99" s="12" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A100" s="12" t="s">
-        <v>591</v>
+        <v>503</v>
       </c>
       <c r="B100" s="18" t="s">
-        <v>592</v>
+        <v>504</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>593</v>
+        <v>505</v>
       </c>
       <c r="D100">
         <v>3</v>
       </c>
       <c r="E100" s="12" t="s">
-        <v>594</v>
-      </c>
-      <c r="F100" s="12" t="s">
-        <v>595</v>
+        <v>506</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>735</v>
       </c>
       <c r="G100">
         <v>7</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>596</v>
+        <v>507</v>
       </c>
       <c r="I100">
         <v>37.485504848207</v>
@@ -7329,33 +7360,33 @@
         <v>126.8089240441</v>
       </c>
       <c r="K100" s="12" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A101" s="12" t="s">
-        <v>597</v>
+        <v>508</v>
       </c>
       <c r="B101" s="18" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>609</v>
+        <v>520</v>
       </c>
       <c r="D101">
         <v>3.7</v>
       </c>
       <c r="E101" s="12" t="s">
-        <v>610</v>
-      </c>
-      <c r="F101" s="12" t="s">
-        <v>611</v>
+        <v>521</v>
+      </c>
+      <c r="F101" s="21" t="s">
+        <v>736</v>
       </c>
       <c r="G101">
         <v>9</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="I101">
         <v>37.485513233435498</v>
@@ -7364,33 +7395,33 @@
         <v>126.809933151229</v>
       </c>
       <c r="K101" s="12" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A102" s="12" t="s">
-        <v>598</v>
+        <v>509</v>
       </c>
       <c r="B102" s="18" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>612</v>
+        <v>522</v>
       </c>
       <c r="D102">
         <v>3</v>
       </c>
       <c r="E102" s="12" t="s">
-        <v>613</v>
-      </c>
-      <c r="F102" s="12" t="s">
-        <v>614</v>
+        <v>523</v>
+      </c>
+      <c r="F102" s="21" t="s">
+        <v>737</v>
       </c>
       <c r="G102">
         <v>11</v>
       </c>
       <c r="H102" s="12" t="s">
-        <v>353</v>
+        <v>340</v>
       </c>
       <c r="I102">
         <v>37.485546812520496</v>
@@ -7399,33 +7430,33 @@
         <v>126.811207904138</v>
       </c>
       <c r="K102" s="12" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A103" s="12" t="s">
-        <v>599</v>
+        <v>510</v>
       </c>
       <c r="B103" s="18" t="s">
-        <v>615</v>
+        <v>524</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>616</v>
+        <v>525</v>
       </c>
       <c r="D103">
         <v>3</v>
       </c>
       <c r="E103" s="12" t="s">
-        <v>618</v>
-      </c>
-      <c r="F103" s="12" t="s">
-        <v>617</v>
+        <v>526</v>
+      </c>
+      <c r="F103" s="21" t="s">
+        <v>738</v>
       </c>
       <c r="G103">
         <v>6</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>619</v>
+        <v>527</v>
       </c>
       <c r="I103">
         <v>37.484392081233302</v>
@@ -7434,33 +7465,33 @@
         <v>126.807522033918</v>
       </c>
       <c r="K103" s="12" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A104" s="12" t="s">
-        <v>600</v>
+        <v>511</v>
       </c>
       <c r="B104" s="18" t="s">
-        <v>620</v>
+        <v>528</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>621</v>
+        <v>529</v>
       </c>
       <c r="D104">
         <v>3</v>
       </c>
       <c r="E104" s="12" t="s">
-        <v>622</v>
-      </c>
-      <c r="F104" s="12" t="s">
-        <v>624</v>
+        <v>530</v>
+      </c>
+      <c r="F104" s="21" t="s">
+        <v>739</v>
       </c>
       <c r="G104">
         <v>9</v>
       </c>
       <c r="H104" s="12" t="s">
-        <v>619</v>
+        <v>527</v>
       </c>
       <c r="I104">
         <v>37.485658039014297</v>
@@ -7469,33 +7500,33 @@
         <v>126.81033417520101</v>
       </c>
       <c r="K104" s="12" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A105" s="12" t="s">
-        <v>601</v>
+        <v>512</v>
       </c>
       <c r="B105" s="18" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>625</v>
+        <v>532</v>
       </c>
       <c r="D105">
         <v>3</v>
       </c>
       <c r="E105" s="12" t="s">
-        <v>626</v>
-      </c>
-      <c r="F105" s="12" t="s">
-        <v>627</v>
+        <v>533</v>
+      </c>
+      <c r="F105" s="21" t="s">
+        <v>740</v>
       </c>
       <c r="G105">
         <v>6</v>
       </c>
       <c r="H105" s="12" t="s">
-        <v>628</v>
+        <v>534</v>
       </c>
       <c r="I105">
         <v>37.484285876995102</v>
@@ -7504,33 +7535,33 @@
         <v>126.807315961355</v>
       </c>
       <c r="K105" s="12" t="s">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A106" s="12" t="s">
-        <v>602</v>
+        <v>513</v>
       </c>
       <c r="B106" s="18" t="s">
-        <v>629</v>
+        <v>535</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>630</v>
+        <v>536</v>
       </c>
       <c r="D106">
         <v>3</v>
       </c>
       <c r="E106" s="12" t="s">
-        <v>631</v>
-      </c>
-      <c r="F106" s="12" t="s">
-        <v>632</v>
+        <v>537</v>
+      </c>
+      <c r="F106" s="21" t="s">
+        <v>741</v>
       </c>
       <c r="G106">
         <v>6</v>
       </c>
       <c r="H106" s="12" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="I106">
         <v>37.484398857177901</v>
@@ -7539,34 +7570,34 @@
         <v>126.807533323128</v>
       </c>
       <c r="K106" s="12" t="s">
-        <v>683</v>
+        <v>578</v>
       </c>
       <c r="M106" s="12"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A107" s="12" t="s">
-        <v>603</v>
+        <v>514</v>
       </c>
       <c r="B107" s="18" t="s">
-        <v>634</v>
+        <v>539</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>635</v>
+        <v>540</v>
       </c>
       <c r="D107">
         <v>3</v>
       </c>
       <c r="E107" s="12" t="s">
-        <v>636</v>
-      </c>
-      <c r="F107" s="12" t="s">
-        <v>637</v>
+        <v>541</v>
+      </c>
+      <c r="F107" s="21" t="s">
+        <v>742</v>
       </c>
       <c r="G107">
         <v>12</v>
       </c>
       <c r="H107" s="12" t="s">
-        <v>638</v>
+        <v>542</v>
       </c>
       <c r="I107">
         <v>37.486189976541603</v>
@@ -7575,33 +7606,33 @@
         <v>126.811958192125</v>
       </c>
       <c r="K107" s="12" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A108" s="12" t="s">
-        <v>604</v>
+        <v>515</v>
       </c>
       <c r="B108" s="18" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>639</v>
+        <v>543</v>
       </c>
       <c r="D108">
         <v>3</v>
       </c>
       <c r="E108" s="12" t="s">
-        <v>640</v>
-      </c>
-      <c r="F108" s="12" t="s">
-        <v>641</v>
+        <v>544</v>
+      </c>
+      <c r="F108" s="21" t="s">
+        <v>743</v>
       </c>
       <c r="G108">
         <v>10</v>
       </c>
       <c r="H108" s="12" t="s">
-        <v>642</v>
+        <v>545</v>
       </c>
       <c r="I108">
         <v>37.487422803847601</v>
@@ -7610,33 +7641,33 @@
         <v>126.81098552249</v>
       </c>
       <c r="K108" s="12" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A109" s="12" t="s">
-        <v>605</v>
+        <v>516</v>
       </c>
       <c r="B109" s="18" t="s">
-        <v>643</v>
+        <v>546</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>644</v>
+        <v>547</v>
       </c>
       <c r="D109">
         <v>3</v>
       </c>
       <c r="E109" s="12" t="s">
-        <v>645</v>
-      </c>
-      <c r="F109" s="12" t="s">
-        <v>641</v>
+        <v>548</v>
+      </c>
+      <c r="F109" s="21" t="s">
+        <v>744</v>
       </c>
       <c r="G109">
         <v>11</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>642</v>
+        <v>545</v>
       </c>
       <c r="I109">
         <v>37.486680595646597</v>
@@ -7645,33 +7676,33 @@
         <v>126.811688422621</v>
       </c>
       <c r="K109" s="12" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A110" s="12" t="s">
-        <v>606</v>
+        <v>517</v>
       </c>
       <c r="B110" s="18" t="s">
-        <v>646</v>
+        <v>549</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>647</v>
+        <v>550</v>
       </c>
       <c r="D110">
         <v>3</v>
       </c>
       <c r="E110" s="12" t="s">
-        <v>648</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>649</v>
+        <v>551</v>
+      </c>
+      <c r="F110" s="21" t="s">
+        <v>745</v>
       </c>
       <c r="G110">
         <v>10</v>
       </c>
       <c r="H110" s="12" t="s">
-        <v>638</v>
+        <v>542</v>
       </c>
       <c r="I110">
         <v>37.486927667865302</v>
@@ -7680,33 +7711,33 @@
         <v>126.81124683041</v>
       </c>
       <c r="K110" s="12" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A111" s="12" t="s">
-        <v>607</v>
+        <v>518</v>
       </c>
       <c r="B111" s="18" t="s">
-        <v>651</v>
+        <v>553</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>652</v>
+        <v>554</v>
       </c>
       <c r="D111">
         <v>3.5</v>
       </c>
       <c r="E111" s="12" t="s">
-        <v>653</v>
-      </c>
-      <c r="F111" s="12" t="s">
-        <v>654</v>
+        <v>555</v>
+      </c>
+      <c r="F111" s="21" t="s">
+        <v>748</v>
       </c>
       <c r="G111">
         <v>12</v>
       </c>
       <c r="H111" s="12" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="I111">
         <v>37.485423281164103</v>
@@ -7715,33 +7746,33 @@
         <v>126.81143152327201</v>
       </c>
       <c r="K111" s="12" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A112" s="12" t="s">
-        <v>608</v>
+        <v>519</v>
       </c>
       <c r="B112" s="18" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>655</v>
+        <v>556</v>
       </c>
       <c r="D112">
         <v>3</v>
       </c>
       <c r="E112" s="12" t="s">
-        <v>656</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>657</v>
+        <v>557</v>
+      </c>
+      <c r="F112" s="21" t="s">
+        <v>746</v>
       </c>
       <c r="G112">
         <v>9</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="I112">
         <v>37.485646276911503</v>
@@ -7750,33 +7781,33 @@
         <v>126.81002326843399</v>
       </c>
       <c r="K112" s="12" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.4">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A113" s="12" t="s">
-        <v>650</v>
+        <v>552</v>
       </c>
       <c r="B113" s="18" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>658</v>
+        <v>558</v>
       </c>
       <c r="D113">
         <v>3.5</v>
       </c>
       <c r="E113" s="12" t="s">
-        <v>659</v>
-      </c>
-      <c r="F113" s="12" t="s">
-        <v>660</v>
+        <v>559</v>
+      </c>
+      <c r="F113" s="21" t="s">
+        <v>747</v>
       </c>
       <c r="G113">
         <v>11</v>
       </c>
       <c r="H113" s="12" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="I113">
         <v>37.485544546461099</v>
@@ -7785,33 +7816,33 @@
         <v>126.811199429765</v>
       </c>
       <c r="K113" s="12" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.4">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A114" s="12" t="s">
-        <v>691</v>
+        <v>586</v>
       </c>
       <c r="B114" s="18" t="s">
-        <v>707</v>
+        <v>602</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>708</v>
+        <v>603</v>
       </c>
       <c r="D114">
         <v>3</v>
       </c>
       <c r="E114" s="12" t="s">
-        <v>777</v>
-      </c>
-      <c r="F114" s="12" t="s">
-        <v>709</v>
+        <v>657</v>
+      </c>
+      <c r="F114" s="21" t="s">
+        <v>749</v>
       </c>
       <c r="G114">
         <v>6</v>
       </c>
       <c r="H114" s="12" t="s">
-        <v>580</v>
+        <v>494</v>
       </c>
       <c r="I114">
         <v>37.484754942250802</v>
@@ -7820,33 +7851,33 @@
         <v>126.807648302803</v>
       </c>
       <c r="K114" s="12" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.4">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A115" s="12" t="s">
-        <v>710</v>
+        <v>604</v>
       </c>
       <c r="B115" s="18" t="s">
-        <v>711</v>
+        <v>605</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>712</v>
+        <v>606</v>
       </c>
       <c r="D115">
         <v>3</v>
       </c>
       <c r="E115" s="12" t="s">
-        <v>713</v>
-      </c>
-      <c r="F115" s="12" t="s">
-        <v>714</v>
+        <v>607</v>
+      </c>
+      <c r="F115" s="21" t="s">
+        <v>750</v>
       </c>
       <c r="G115">
         <v>7</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>628</v>
+        <v>534</v>
       </c>
       <c r="I115">
         <v>37.484776940364902</v>
@@ -7855,33 +7886,33 @@
         <v>126.808711071557</v>
       </c>
       <c r="K115" s="12" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.4">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A116" s="12" t="s">
-        <v>692</v>
+        <v>587</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>715</v>
+        <v>608</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>716</v>
+        <v>609</v>
       </c>
       <c r="D116">
         <v>3</v>
       </c>
       <c r="E116" s="12" t="s">
-        <v>717</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>718</v>
+        <v>610</v>
+      </c>
+      <c r="F116" s="21" t="s">
+        <v>751</v>
       </c>
       <c r="G116">
         <v>7</v>
       </c>
       <c r="H116" s="12" t="s">
-        <v>566</v>
+        <v>482</v>
       </c>
       <c r="I116">
         <v>37.484867424893402</v>
@@ -7890,33 +7921,33 @@
         <v>126.808948280808</v>
       </c>
       <c r="K116" s="12" t="s">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.4">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A117" s="12" t="s">
-        <v>694</v>
+        <v>589</v>
       </c>
       <c r="B117" s="18" t="s">
-        <v>719</v>
+        <v>611</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>720</v>
+        <v>612</v>
       </c>
       <c r="D117">
         <v>3</v>
       </c>
       <c r="E117" t="s">
-        <v>235</v>
-      </c>
-      <c r="F117" s="14" t="s">
-        <v>374</v>
+        <v>228</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>753</v>
       </c>
       <c r="G117">
         <v>11</v>
       </c>
       <c r="H117" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I117">
         <v>37.485902821766103</v>
@@ -7925,33 +7956,33 @@
         <v>126.811277675903</v>
       </c>
       <c r="K117" s="12" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.4">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A118" s="12" t="s">
-        <v>695</v>
+        <v>590</v>
       </c>
       <c r="B118" s="18" t="s">
-        <v>722</v>
+        <v>614</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>723</v>
+        <v>615</v>
       </c>
       <c r="D118">
         <v>3</v>
       </c>
       <c r="E118" s="12" t="s">
-        <v>724</v>
-      </c>
-      <c r="F118" s="12" t="s">
-        <v>725</v>
+        <v>616</v>
+      </c>
+      <c r="F118" s="21" t="s">
+        <v>754</v>
       </c>
       <c r="G118">
         <v>7</v>
       </c>
       <c r="H118" s="12" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="I118">
         <v>37.485279752762501</v>
@@ -7960,33 +7991,33 @@
         <v>126.80902072455</v>
       </c>
       <c r="K118" s="12" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.4">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A119" s="12" t="s">
-        <v>696</v>
+        <v>591</v>
       </c>
       <c r="B119" s="18" t="s">
-        <v>722</v>
+        <v>614</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>726</v>
+        <v>617</v>
       </c>
       <c r="D119">
         <v>3</v>
       </c>
       <c r="E119" s="12" t="s">
-        <v>727</v>
-      </c>
-      <c r="F119" s="12" t="s">
-        <v>728</v>
+        <v>618</v>
+      </c>
+      <c r="F119" s="21" t="s">
+        <v>755</v>
       </c>
       <c r="G119">
         <v>8</v>
       </c>
       <c r="H119" s="12" t="s">
-        <v>633</v>
+        <v>538</v>
       </c>
       <c r="I119">
         <v>37.485210039208702</v>
@@ -7995,33 +8026,33 @@
         <v>126.809091568982</v>
       </c>
       <c r="K119" s="12" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.4">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A120" s="12" t="s">
-        <v>697</v>
+        <v>592</v>
       </c>
       <c r="B120" s="18" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>729</v>
+        <v>619</v>
       </c>
       <c r="D120">
         <v>3</v>
       </c>
       <c r="E120" s="12" t="s">
-        <v>730</v>
-      </c>
-      <c r="F120" s="12" t="s">
-        <v>731</v>
+        <v>620</v>
+      </c>
+      <c r="F120" s="21" t="s">
+        <v>756</v>
       </c>
       <c r="G120">
         <v>8</v>
       </c>
       <c r="H120" s="12" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="I120">
         <v>37.4854363615338</v>
@@ -8030,33 +8061,33 @@
         <v>126.80975526465799</v>
       </c>
       <c r="K120" s="12" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.4">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A121" s="12" t="s">
-        <v>698</v>
+        <v>593</v>
       </c>
       <c r="B121" s="18" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>732</v>
+        <v>621</v>
       </c>
       <c r="D121">
         <v>3</v>
       </c>
       <c r="E121" s="12" t="s">
-        <v>733</v>
-      </c>
-      <c r="F121" s="12" t="s">
-        <v>734</v>
+        <v>622</v>
+      </c>
+      <c r="F121" s="21" t="s">
+        <v>757</v>
       </c>
       <c r="G121">
         <v>9</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>628</v>
+        <v>534</v>
       </c>
       <c r="I121">
         <v>37.485506407692803</v>
@@ -8065,33 +8096,33 @@
         <v>126.809890768168</v>
       </c>
       <c r="K121" s="12" t="s">
-        <v>768</v>
+        <v>648</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A122" s="12" t="s">
-        <v>699</v>
+        <v>594</v>
       </c>
       <c r="B122" s="18" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>735</v>
+        <v>623</v>
       </c>
       <c r="D122">
         <v>3</v>
       </c>
       <c r="E122" s="12" t="s">
-        <v>736</v>
-      </c>
-      <c r="F122" s="12" t="s">
-        <v>737</v>
+        <v>624</v>
+      </c>
+      <c r="F122" s="21" t="s">
+        <v>758</v>
       </c>
       <c r="G122">
         <v>9</v>
       </c>
       <c r="H122" s="12" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="I122">
         <v>37.485632757315997</v>
@@ -8100,33 +8131,33 @@
         <v>126.810020475973</v>
       </c>
       <c r="K122" s="12" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.4">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A123" s="12" t="s">
-        <v>700</v>
+        <v>595</v>
       </c>
       <c r="B123" s="18" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>738</v>
+        <v>625</v>
       </c>
       <c r="D123">
         <v>3</v>
       </c>
       <c r="E123" s="12" t="s">
-        <v>739</v>
-      </c>
-      <c r="F123" s="12" t="s">
-        <v>740</v>
+        <v>626</v>
+      </c>
+      <c r="F123" s="21" t="s">
+        <v>759</v>
       </c>
       <c r="G123">
         <v>9</v>
       </c>
       <c r="H123" s="12" t="s">
-        <v>569</v>
+        <v>485</v>
       </c>
       <c r="I123">
         <v>37.485640028022203</v>
@@ -8135,33 +8166,33 @@
         <v>126.810339874124</v>
       </c>
       <c r="K123" s="12" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A124" s="12" t="s">
-        <v>701</v>
+        <v>596</v>
       </c>
       <c r="B124" s="18" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>741</v>
+        <v>627</v>
       </c>
       <c r="D124">
         <v>3</v>
       </c>
       <c r="E124" s="12" t="s">
-        <v>742</v>
-      </c>
-      <c r="F124" s="12" t="s">
-        <v>743</v>
+        <v>628</v>
+      </c>
+      <c r="F124" s="21" t="s">
+        <v>760</v>
       </c>
       <c r="G124">
         <v>10</v>
       </c>
       <c r="H124" s="12" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="I124">
         <v>37.485757480460201</v>
@@ -8170,33 +8201,33 @@
         <v>126.81054027288501</v>
       </c>
       <c r="K124" s="12" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.4">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A125" s="12" t="s">
-        <v>702</v>
+        <v>597</v>
       </c>
       <c r="B125" s="18" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>744</v>
+        <v>629</v>
       </c>
       <c r="D125">
         <v>3</v>
       </c>
       <c r="E125" s="12" t="s">
-        <v>745</v>
-      </c>
-      <c r="F125" s="12" t="s">
-        <v>749</v>
+        <v>630</v>
+      </c>
+      <c r="F125" s="21" t="s">
+        <v>761</v>
       </c>
       <c r="G125">
         <v>10</v>
       </c>
       <c r="H125" s="12" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I125">
         <v>37.485503779891197</v>
@@ -8205,33 +8236,33 @@
         <v>126.811061024537</v>
       </c>
       <c r="K125" s="12" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.4">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A126" s="12" t="s">
-        <v>703</v>
+        <v>598</v>
       </c>
       <c r="B126" s="18" t="s">
-        <v>746</v>
+        <v>631</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>747</v>
+        <v>632</v>
       </c>
       <c r="D126">
         <v>3</v>
       </c>
       <c r="E126" s="12" t="s">
-        <v>748</v>
-      </c>
-      <c r="F126" s="12" t="s">
-        <v>750</v>
+        <v>633</v>
+      </c>
+      <c r="F126" s="21" t="s">
+        <v>762</v>
       </c>
       <c r="G126">
         <v>10</v>
       </c>
       <c r="H126" s="12" t="s">
-        <v>477</v>
+        <v>434</v>
       </c>
       <c r="I126">
         <v>37.485888759882002</v>
@@ -8240,33 +8271,33 @@
         <v>126.81093568001199</v>
       </c>
       <c r="K126" s="12" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.4">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A127" s="12" t="s">
-        <v>704</v>
+        <v>599</v>
       </c>
       <c r="B127" s="18" t="s">
-        <v>751</v>
+        <v>634</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>752</v>
+        <v>635</v>
       </c>
       <c r="D127">
         <v>3</v>
       </c>
       <c r="E127" s="12" t="s">
-        <v>753</v>
-      </c>
-      <c r="F127" s="12" t="s">
-        <v>754</v>
+        <v>636</v>
+      </c>
+      <c r="F127" s="21" t="s">
+        <v>763</v>
       </c>
       <c r="G127">
         <v>13</v>
       </c>
       <c r="H127" s="12" t="s">
-        <v>539</v>
+        <v>459</v>
       </c>
       <c r="I127">
         <v>37.485822718664302</v>
@@ -8275,33 +8306,33 @@
         <v>126.811896925179</v>
       </c>
       <c r="K127" s="12" t="s">
-        <v>774</v>
+        <v>654</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A128" s="12" t="s">
-        <v>705</v>
+        <v>600</v>
       </c>
       <c r="B128" s="18" t="s">
-        <v>755</v>
+        <v>637</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>756</v>
+        <v>638</v>
       </c>
       <c r="D128">
         <v>3</v>
       </c>
       <c r="E128" s="12" t="s">
-        <v>757</v>
-      </c>
-      <c r="F128" s="12" t="s">
-        <v>758</v>
+        <v>639</v>
+      </c>
+      <c r="F128" s="21" t="s">
+        <v>764</v>
       </c>
       <c r="G128">
         <v>11</v>
       </c>
       <c r="H128" s="12" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="I128">
         <v>37.485653032530898</v>
@@ -8310,33 +8341,33 @@
         <v>126.811428119117</v>
       </c>
       <c r="K128" s="12" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.4">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A129" s="12" t="s">
-        <v>706</v>
+        <v>601</v>
       </c>
       <c r="B129" s="18" t="s">
-        <v>751</v>
+        <v>634</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>759</v>
+        <v>640</v>
       </c>
       <c r="D129">
         <v>3</v>
       </c>
       <c r="E129" s="12" t="s">
-        <v>760</v>
-      </c>
-      <c r="F129" s="12" t="s">
-        <v>761</v>
+        <v>641</v>
+      </c>
+      <c r="F129" s="21" t="s">
+        <v>765</v>
       </c>
       <c r="G129">
         <v>13</v>
       </c>
       <c r="H129" s="12" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="I129">
         <v>37.485822718664302</v>
@@ -8345,7 +8376,7 @@
         <v>126.811896925179</v>
       </c>
       <c r="K129" s="12" t="s">
-        <v>776</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
